--- a/stat/icestats.xlsx
+++ b/stat/icestats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D8DED7-F8F7-4EEF-A1EF-F72CB84F08D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2865" windowWidth="28800" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2865" windowWidth="28800" windowHeight="15345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AWS" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="ablation" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AWS!$L$1:$L$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">AWS!$L$1:$L$119</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1176" uniqueCount="54">
   <si>
     <t>aws</t>
   </si>
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -241,8 +241,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -412,7 +412,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -436,9 +436,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -462,7 +462,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -497,7 +497,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -515,7 +515,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -540,7 +540,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -556,8 +556,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L1" activeCellId="1" sqref="K1:K1048576 L1:L1048576"/>
@@ -565,70 +565,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="true"/>
+    <col min="3" max="3" width="5" customWidth="true"/>
+    <col min="4" max="4" width="12.5546875" customWidth="true"/>
+    <col min="5" max="5" width="14.88671875" customWidth="true"/>
+    <col min="6" max="6" width="14.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.5546875" customWidth="true"/>
+    <col min="11" max="11" width="7.6640625" style="2" customWidth="true"/>
+    <col min="2" max="2" width="8.88671875" customWidth="true"/>
+    <col min="8" max="8" width="15.5546875" customWidth="true"/>
+    <col min="9" max="9" width="15.5546875" customWidth="true"/>
+    <col min="10" max="10" width="15.5546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0">
         <v>2019</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.491566304347826</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>84</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>22</v>
       </c>
       <c r="G2" s="1">
@@ -646,28 +647,24 @@
       <c r="K2" s="2">
         <v>-4.7788999999999984</v>
       </c>
-      <c r="L2">
-        <f>I2-G2</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0">
         <v>2020</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.53922391304347828</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>73</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -685,28 +682,24 @@
       <c r="K3" s="2">
         <v>-3.4830999999999994</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L66" si="0">I3-G3</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0">
         <v>2021</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.52518369565217393</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>75</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>3</v>
       </c>
       <c r="G4" s="1">
@@ -721,28 +714,25 @@
       <c r="J4" s="1">
         <v>44425</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0">
         <v>2022</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>0.56256086956521745</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>63</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>1</v>
       </c>
       <c r="G5" s="1">
@@ -760,28 +750,24 @@
       <c r="K5" s="2">
         <v>-3.2022999999999993</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0">
         <v>2023</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>0.59154456521739129</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>49</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -790,27 +776,29 @@
       <c r="H6" s="1">
         <v>45168</v>
       </c>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
       <c r="K6" s="2">
         <v>-3.051000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0">
         <v>2009</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>0.55338804347826087</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>57</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>0</v>
       </c>
       <c r="G7" s="1">
@@ -819,27 +807,29 @@
       <c r="H7" s="1">
         <v>40053</v>
       </c>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
       <c r="K7" s="2">
         <v>-2.9801000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0">
         <v>2010</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0.49093804347826087</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>90</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -857,28 +847,24 @@
       <c r="K8" s="2">
         <v>-4.2053000000000003</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0">
         <v>2011</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>0.50405326086956526</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>86</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>9</v>
       </c>
       <c r="G9" s="1">
@@ -893,28 +879,25 @@
       <c r="J9" s="1">
         <v>40785</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0">
         <v>2012</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>0.4880706521739131</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>83</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>25</v>
       </c>
       <c r="G10" s="1">
@@ -929,28 +912,25 @@
       <c r="J10" s="1">
         <v>41142</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0">
         <v>2013</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>0.5866152173913044</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>0</v>
       </c>
       <c r="G11" s="1">
@@ -959,27 +939,29 @@
       <c r="H11" s="1">
         <v>41501</v>
       </c>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
       <c r="K11" s="2">
         <v>-2.7604000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0">
         <v>2014</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>0.50849456521739134</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>82</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>5</v>
       </c>
       <c r="G12" s="1">
@@ -997,28 +979,24 @@
       <c r="K12" s="2">
         <v>-4.0956999999999999</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0">
         <v>2015</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>0.56099456521739133</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>53</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>0</v>
       </c>
       <c r="G13" s="1">
@@ -1027,27 +1005,29 @@
       <c r="H13" s="1">
         <v>42247</v>
       </c>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
       <c r="K13" s="2">
         <v>-2.2821999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0">
         <v>2016</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>0.51915000000000011</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>83</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>6</v>
       </c>
       <c r="G14" s="1">
@@ -1062,28 +1042,25 @@
       <c r="J14" s="1">
         <v>42572</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0">
         <v>2017</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>0.53222282608695648</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>67</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>20</v>
       </c>
       <c r="G15" s="1">
@@ -1101,28 +1078,24 @@
       <c r="K15" s="2">
         <v>-3.2961999999999998</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0">
         <v>2018</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>0.55224999999999991</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>67</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>0</v>
       </c>
       <c r="G16" s="1">
@@ -1131,24 +1104,27 @@
       <c r="H16" s="1">
         <v>43340</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>2019</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>0.54152826086956518</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>61</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>40</v>
       </c>
       <c r="G17" s="1">
@@ -1166,28 +1142,24 @@
       <c r="K17" s="2">
         <v>-0.59309999999999974</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>2012</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>0.45635434782608697</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>71</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>60</v>
       </c>
       <c r="G18" s="1">
@@ -1205,28 +1177,24 @@
       <c r="K18" s="2">
         <v>-2.1121999999999996</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>2013</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>0.65046304347826089</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>27</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>12</v>
       </c>
       <c r="G19" s="1">
@@ -1244,28 +1212,24 @@
       <c r="K19" s="2">
         <v>-0.82730000000000103</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>2016</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>0.43327282608695644</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>79</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>65</v>
       </c>
       <c r="G20" s="1">
@@ -1283,28 +1247,24 @@
       <c r="K20" s="2">
         <v>-2.2245999999999997</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>2017</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>0.66845652173913039</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>19</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>5</v>
       </c>
       <c r="G21" s="1">
@@ -1322,28 +1282,24 @@
       <c r="K21" s="2">
         <v>-0.43050000000000033</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>2018</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>0.62830978260869563</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>28</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>19</v>
       </c>
       <c r="G22" s="1">
@@ -1358,25 +1314,23 @@
       <c r="J22" s="1">
         <v>43328</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0">
         <v>2023</v>
       </c>
-      <c r="E23">
+      <c r="D23" s="0"/>
+      <c r="E23" s="0">
         <v>85</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>64</v>
       </c>
       <c r="G23" s="1">
@@ -1394,28 +1348,24 @@
       <c r="K23" s="2">
         <v>-3.0942999999999987</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>2020</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>0.55803478260869577</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>43</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>27</v>
       </c>
       <c r="G24" s="1">
@@ -1433,28 +1383,24 @@
       <c r="K24" s="2">
         <v>-2.1143999999999998</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>2021</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>0.49706739130434785</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>42</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>38</v>
       </c>
       <c r="G25" s="1">
@@ -1469,28 +1415,25 @@
       <c r="J25" s="1">
         <v>44439</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>2022</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>0.50639130434782598</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>46</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>38</v>
       </c>
       <c r="G26" s="1">
@@ -1508,28 +1451,24 @@
       <c r="K26" s="2">
         <v>-1.5666000000000011</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>2011</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>0.55529565217391319</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>40</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>28</v>
       </c>
       <c r="G27" s="1">
@@ -1547,28 +1486,24 @@
       <c r="K27" s="2">
         <v>-1.1469</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>2012</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>0.52450326086956522</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>44</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>40</v>
       </c>
       <c r="G28" s="1">
@@ -1586,28 +1521,24 @@
       <c r="K28" s="2">
         <v>-0.1243000000000003</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>2014</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>0.424713043478261</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>56</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>51</v>
       </c>
       <c r="G29" s="1">
@@ -1625,28 +1556,24 @@
       <c r="K29" s="2">
         <v>-2.4346999999999994</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>2019</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>0.41806413043478263</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>65</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>63</v>
       </c>
       <c r="G30" s="1">
@@ -1664,28 +1591,24 @@
       <c r="K30" s="2">
         <v>-4.1532999999999998</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>2020</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>0.51787173913043472</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>42</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>40</v>
       </c>
       <c r="G31" s="1">
@@ -1700,28 +1623,25 @@
       <c r="J31" s="1">
         <v>44074</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>2023</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>0.55324130434782604</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>51</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>41</v>
       </c>
       <c r="G32" s="1">
@@ -1739,28 +1659,24 @@
       <c r="K32" s="2">
         <v>-2.0600999999999985</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>2016</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>0.40851847826086951</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>74</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>65</v>
       </c>
       <c r="G33" s="1">
@@ -1778,28 +1694,24 @@
       <c r="K33" s="2">
         <v>-2.8190000000000008</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>2017</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0">
         <v>0.5666978260869564</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>35</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>28</v>
       </c>
       <c r="G34" s="1">
@@ -1817,28 +1729,24 @@
       <c r="K34" s="2">
         <v>-1.0663</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>2018</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0">
         <v>0.63111086956521745</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>29</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>22</v>
       </c>
       <c r="G35" s="1">
@@ -1857,23 +1765,23 @@
         <v>-1.0034999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="0">
         <v>2019</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0">
         <v>0.28232391304347826</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>90</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>90</v>
       </c>
       <c r="G36" s="1">
@@ -1892,23 +1800,23 @@
         <v>-4.9650999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0">
         <v>2020</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0">
         <v>0.25641413043478262</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>91</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>87</v>
       </c>
       <c r="G37" s="1">
@@ -1927,23 +1835,23 @@
         <v>-3.4811999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0">
         <v>2021</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0">
         <v>0.33189021739130437</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>90</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>86</v>
       </c>
       <c r="G38" s="1">
@@ -1958,28 +1866,25 @@
       <c r="J38" s="1">
         <v>44439</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="s">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0">
         <v>2022</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>0.32649999999999996</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>89</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>85</v>
       </c>
       <c r="G39" s="1">
@@ -1997,28 +1902,24 @@
       <c r="K39" s="2">
         <v>-4.7894000000000005</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" t="s">
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="0">
         <v>2023</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>0.30431847826086955</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>86</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>82</v>
       </c>
       <c r="G40" s="1">
@@ -2036,28 +1937,24 @@
       <c r="K40" s="2">
         <v>-2.8366000000000002</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0">
         <v>2008</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>0.38757391304347832</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>88</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>76</v>
       </c>
       <c r="G41" s="1">
@@ -2072,28 +1969,25 @@
       <c r="J41" s="1">
         <v>39691</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" t="s">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="0">
         <v>2009</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>0.43028586956521747</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>89</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>70</v>
       </c>
       <c r="G42" s="1">
@@ -2111,28 +2005,24 @@
       <c r="K42" s="2">
         <v>-3.8238000000000003</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="0">
         <v>2012</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>0.41329673913043485</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>92</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>79</v>
       </c>
       <c r="G43" s="1">
@@ -2147,24 +2037,25 @@
       <c r="J43" s="1">
         <v>41152</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" t="s">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="0">
         <v>2014</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>0.37857717391304346</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>92</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>88</v>
       </c>
       <c r="G44" s="1">
@@ -2179,28 +2070,25 @@
       <c r="J44" s="1">
         <v>41882</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" t="s">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="0">
         <v>2015</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>0.40331630434782612</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>79</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>71</v>
       </c>
       <c r="G45" s="1">
@@ -2218,28 +2106,24 @@
       <c r="K45" s="2">
         <v>-3.785400000000001</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" t="s">
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="0">
         <v>2016</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>0.34223152173913046</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>92</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>91</v>
       </c>
       <c r="G46" s="1">
@@ -2257,28 +2141,24 @@
       <c r="K46" s="2">
         <v>-5.1436999999999999</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="0">
         <v>2017</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>0.32269021739130432</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>87</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>86</v>
       </c>
       <c r="G47" s="1">
@@ -2293,24 +2173,25 @@
       <c r="J47" s="1">
         <v>42978</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" t="s">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="0">
         <v>2011</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>0.40321630434782607</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>76</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>62</v>
       </c>
       <c r="G48" s="1">
@@ -2328,28 +2209,24 @@
       <c r="K48" s="2">
         <v>-4.4698999999999991</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>2012</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>0.50563260869565219</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>76</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>25</v>
       </c>
       <c r="G49" s="1">
@@ -2367,28 +2244,24 @@
       <c r="K49" s="2">
         <v>-3.1669</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>2013</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0">
         <v>0.61628152173913042</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0">
         <v>34</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0">
         <v>5</v>
       </c>
       <c r="G50" s="1">
@@ -2403,28 +2276,25 @@
       <c r="J50" s="1">
         <v>41488</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="s">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>2016</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>0.50732934782608696</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0">
         <v>74</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0">
         <v>27</v>
       </c>
       <c r="G51" s="1">
@@ -2442,28 +2312,24 @@
       <c r="K51" s="2">
         <v>-2.5517000000000003</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" t="s">
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>2017</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>0.65490108695652172</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
         <v>26</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>5</v>
       </c>
       <c r="G52" s="1">
@@ -2481,28 +2347,24 @@
       <c r="K52" s="2">
         <v>-0.68270000000000053</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>2018</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>0.62317717391304339</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>41</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0">
         <v>17</v>
       </c>
       <c r="G53" s="1">
@@ -2517,28 +2379,25 @@
       <c r="J53" s="1">
         <v>43326</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" t="s">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>2021</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>0.60097934782608708</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>40</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0">
         <v>23</v>
       </c>
       <c r="G54" s="1">
@@ -2556,28 +2415,24 @@
       <c r="K54" s="2">
         <v>-1.7025999999999986</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>2022</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0">
         <v>0.63119673913043473</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>37</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0">
         <v>6</v>
       </c>
       <c r="G55" s="1">
@@ -2595,28 +2450,24 @@
       <c r="K55" s="2">
         <v>-1.5155999999999992</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" t="s">
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="0">
         <v>2020</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>0.27986956521739126</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>89</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0">
         <v>89</v>
       </c>
       <c r="G56" s="1">
@@ -2631,24 +2482,25 @@
       <c r="J56" s="1">
         <v>44074</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" t="s">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="0">
         <v>2022</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>0.18577934782608699</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
         <v>92</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0">
         <v>92</v>
       </c>
       <c r="G57" s="1">
@@ -2663,24 +2515,25 @@
       <c r="J57" s="1">
         <v>44804</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" t="s">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="0">
         <v>2023</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>0.18846521739130434</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>92</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0">
         <v>92</v>
       </c>
       <c r="G58" s="1">
@@ -2699,23 +2552,23 @@
         <v>-5.7208000000000006</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" t="s">
+    <row r="59">
+      <c r="A59" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="0">
         <v>2011</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>0.42463260869565217</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0">
         <v>86</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="0">
         <v>62</v>
       </c>
       <c r="G59" s="1">
@@ -2730,28 +2583,25 @@
       <c r="J59" s="1">
         <v>40786</v>
       </c>
-      <c r="L59">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" t="s">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="0">
         <v>2012</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>0.24020978260869566</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0">
         <v>92</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="0">
         <v>92</v>
       </c>
       <c r="G60" s="1">
@@ -2770,23 +2620,23 @@
         <v>-6.0782000000000025</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
-      <c r="A61" t="s">
+    <row r="61">
+      <c r="A61" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="0">
         <v>2014</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="0">
         <v>0.22337826086956525</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="0">
         <v>88</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="0">
         <v>84</v>
       </c>
       <c r="G61" s="1">
@@ -2801,28 +2651,25 @@
       <c r="J61" s="1">
         <v>41882</v>
       </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" t="s">
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="0">
         <v>2016</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="0">
         <v>0.15803586956521737</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="0">
         <v>91</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="0">
         <v>91</v>
       </c>
       <c r="G62" s="1">
@@ -2837,24 +2684,25 @@
       <c r="J62" s="1">
         <v>42613</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" t="s">
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="0">
         <v>2017</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="0">
         <v>0.35607065217391304</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="0">
         <v>90</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="0">
         <v>82</v>
       </c>
       <c r="G63" s="1">
@@ -2872,28 +2720,24 @@
       <c r="K63" s="2">
         <v>-4.3351000000000006</v>
       </c>
-      <c r="L63">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" t="s">
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="0">
         <v>2018</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="0">
         <v>0.26424673913043473</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="0">
         <v>89</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="0">
         <v>88</v>
       </c>
       <c r="G64" s="1">
@@ -2908,24 +2752,25 @@
       <c r="J64" s="1">
         <v>43343</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" t="s">
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0">
         <v>2019</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="0">
         <v>0.37475434782608691</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="0">
         <v>65</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="0">
         <v>57</v>
       </c>
       <c r="G65" s="1">
@@ -2940,28 +2785,25 @@
       <c r="J65" s="1">
         <v>43708</v>
       </c>
-      <c r="L65">
-        <f t="shared" si="0"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66">
+      <c r="C66" s="0">
         <v>2020</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="0">
         <v>0.49680652173913037</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="0">
         <v>54</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="0">
         <v>52</v>
       </c>
       <c r="G66" s="1">
@@ -2979,28 +2821,24 @@
       <c r="K66" s="2">
         <v>-2.9407999999999994</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" t="s">
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0">
         <v>2019</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="0">
         <v>0.50184891304347834</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="0">
         <v>44</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="0">
         <v>37</v>
       </c>
       <c r="G67" s="1">
@@ -3018,28 +2856,24 @@
       <c r="K67" s="2">
         <v>-1.4072000000000005</v>
       </c>
-      <c r="L67">
-        <f t="shared" ref="L67:L119" si="1">I67-G67</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" t="s">
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0">
         <v>2022</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="0">
         <v>0.6053467391304348</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="0">
         <v>28</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="0">
         <v>14</v>
       </c>
       <c r="G68" s="1">
@@ -3057,28 +2891,24 @@
       <c r="K68" s="2">
         <v>-0.89489999999999981</v>
       </c>
-      <c r="L68">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" t="s">
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0">
         <v>2023</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="0">
         <v>0.46580217391304346</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="0">
         <v>51</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="0">
         <v>46</v>
       </c>
       <c r="G69" s="1">
@@ -3096,28 +2926,24 @@
       <c r="K69" s="2">
         <v>-2.2556000000000012</v>
       </c>
-      <c r="L69">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" t="s">
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0">
         <v>2011</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="0">
         <v>0.6012891304347826</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="0">
         <v>30</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="0">
         <v>24</v>
       </c>
       <c r="G70" s="1">
@@ -3135,28 +2961,24 @@
       <c r="K70" s="2">
         <v>-0.69979999999999976</v>
       </c>
-      <c r="L70">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0">
         <v>2014</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="0">
         <v>0.53765543478260858</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="0">
         <v>36</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="0">
         <v>34</v>
       </c>
       <c r="G71" s="1">
@@ -3174,28 +2996,24 @@
       <c r="K71" s="2">
         <v>-1.3597000000000001</v>
       </c>
-      <c r="L71">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" t="s">
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0">
         <v>2017</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="0">
         <v>0.62157717391304346</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="0">
         <v>22</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="0">
         <v>15</v>
       </c>
       <c r="G72" s="1">
@@ -3213,28 +3031,24 @@
       <c r="K72" s="2">
         <v>-0.47770000000000046</v>
       </c>
-      <c r="L72">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" t="s">
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0">
         <v>2018</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="0">
         <v>0.65776195652173908</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="0">
         <v>24</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="0">
         <v>13</v>
       </c>
       <c r="G73" s="1">
@@ -3252,28 +3066,24 @@
       <c r="K73" s="2">
         <v>-0.58359999999999879</v>
       </c>
-      <c r="L73">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" t="s">
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="0">
         <v>2009</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="0">
         <v>0.42923478260869563</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="0">
         <v>89</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="0">
         <v>53</v>
       </c>
       <c r="G74" s="1">
@@ -3291,28 +3101,24 @@
       <c r="K74" s="2">
         <v>-2.5534999999999979</v>
       </c>
-      <c r="L74">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" t="s">
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="0">
         <v>2010</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="0">
         <v>0.35169347826086961</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="0">
         <v>91</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="0">
         <v>84</v>
       </c>
       <c r="G75" s="1">
@@ -3330,28 +3136,24 @@
       <c r="K75" s="2">
         <v>-3.3484000000000016</v>
       </c>
-      <c r="L75">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" t="s">
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76">
+      <c r="B76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="0">
         <v>2011</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="0">
         <v>0.33280760869565224</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="0">
         <v>90</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="0">
         <v>85</v>
       </c>
       <c r="G76" s="1">
@@ -3369,28 +3171,24 @@
       <c r="K76" s="2">
         <v>-3.0929999999999991</v>
       </c>
-      <c r="L76">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" t="s">
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="0">
         <v>2012</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="0">
         <v>0.3653369565217392</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="0">
         <v>92</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="0">
         <v>87</v>
       </c>
       <c r="G77" s="1">
@@ -3409,23 +3207,23 @@
         <v>-3.3048999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
-      <c r="A78" t="s">
+    <row r="78">
+      <c r="A78" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="0">
         <v>2013</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="0">
         <v>0.36507173913043484</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="0">
         <v>87</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="0">
         <v>86</v>
       </c>
       <c r="G78" s="1">
@@ -3443,28 +3241,24 @@
       <c r="K78" s="2">
         <v>-3.4269000000000003</v>
       </c>
-      <c r="L78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" t="s">
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="0">
         <v>2014</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="0">
         <v>0.3694010869565218</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="0">
         <v>92</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="0">
         <v>86</v>
       </c>
       <c r="G79" s="1">
@@ -3479,28 +3273,25 @@
       <c r="J79" s="1">
         <v>41882</v>
       </c>
-      <c r="L79">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" t="s">
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="0">
         <v>2015</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="0">
         <v>0.40827391304347826</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="0">
         <v>81</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="0">
         <v>72</v>
       </c>
       <c r="G80" s="1">
@@ -3518,28 +3309,24 @@
       <c r="K80" s="2">
         <v>-3.2865000000000002</v>
       </c>
-      <c r="L80">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="0">
         <v>2016</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="0">
         <v>0.3818586956521739</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="0">
         <v>91</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="0">
         <v>80</v>
       </c>
       <c r="G81" s="1">
@@ -3557,28 +3344,24 @@
       <c r="K81" s="2">
         <v>-3.6028000000000002</v>
       </c>
-      <c r="L81">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" t="s">
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0">
         <v>2009</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="0">
         <v>0.50846413043478267</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="0">
         <v>56</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="0">
         <v>52</v>
       </c>
       <c r="G82" s="1">
@@ -3596,28 +3379,24 @@
       <c r="K82" s="2">
         <v>-1.4542000000000002</v>
       </c>
-      <c r="L82">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" t="s">
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0">
         <v>2011</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="0">
         <v>0.47416847826086955</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="0">
         <v>80</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="0">
         <v>52</v>
       </c>
       <c r="G83" s="1">
@@ -3635,28 +3414,24 @@
       <c r="K83" s="2">
         <v>-2.224499999999999</v>
       </c>
-      <c r="L83">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" t="s">
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0">
         <v>2023</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="0">
         <v>0.67421304347826083</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="0">
         <v>25</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="0">
         <v>5</v>
       </c>
       <c r="G84" s="1">
@@ -3674,28 +3449,24 @@
       <c r="K84" s="2">
         <v>-0.26580000000000048</v>
       </c>
-      <c r="L84">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" t="s">
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0">
         <v>2016</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="0">
         <v>0.54457065217391309</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="0">
         <v>65</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="0">
         <v>20</v>
       </c>
       <c r="G85" s="1">
@@ -3713,28 +3484,24 @@
       <c r="K85" s="2">
         <v>-1.8579999999999988</v>
       </c>
-      <c r="L85">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" t="s">
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0">
         <v>2017</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="0">
         <v>0.64213043478260878</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="0">
         <v>22</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="0">
         <v>15</v>
       </c>
       <c r="G86" s="1">
@@ -3752,28 +3519,24 @@
       <c r="K86" s="2">
         <v>-0.80020000000000024</v>
       </c>
-      <c r="L86">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" t="s">
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87">
+      <c r="B87" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="0">
         <v>2021</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="0">
         <v>0.40265326086956521</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="0">
         <v>74</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="0">
         <v>70</v>
       </c>
       <c r="G87" s="1">
@@ -3791,28 +3554,24 @@
       <c r="K87" s="2">
         <v>-4.3517999999999999</v>
       </c>
-      <c r="L87">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" t="s">
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88">
+      <c r="B88" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="0">
         <v>2023</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="0">
         <v>0.44108478260869566</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="0">
         <v>67</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="0">
         <v>59</v>
       </c>
       <c r="G88" s="1">
@@ -3827,24 +3586,25 @@
       <c r="J88" s="1">
         <v>45169</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" t="s">
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89">
+      <c r="B89" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="0">
         <v>2018</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="0">
         <v>0.40748695652173911</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="0">
         <v>71</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="0">
         <v>66</v>
       </c>
       <c r="G89" s="1">
@@ -3862,28 +3622,24 @@
       <c r="K89" s="2">
         <v>-3.0112000000000005</v>
       </c>
-      <c r="L89">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" t="s">
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0">
         <v>2008</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="0">
         <v>0.42548260869565224</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="0">
         <v>77</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="0">
         <v>61</v>
       </c>
       <c r="G90" s="1">
@@ -3901,28 +3657,24 @@
       <c r="K90" s="2">
         <v>-2.9657</v>
       </c>
-      <c r="L90">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" t="s">
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0">
         <v>2009</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="0">
         <v>0.50731304347826101</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="0">
         <v>61</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="0">
         <v>48</v>
       </c>
       <c r="G91" s="1">
@@ -3940,28 +3692,24 @@
       <c r="K91" s="2">
         <v>-1.0147999999999997</v>
       </c>
-      <c r="L91">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" t="s">
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0">
         <v>2014</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="0">
         <v>0.4618521739130434</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="0">
         <v>81</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="0">
         <v>34</v>
       </c>
       <c r="G92" s="1">
@@ -3979,28 +3727,24 @@
       <c r="K92" s="2">
         <v>-1.6818</v>
       </c>
-      <c r="L92">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" t="s">
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93">
+      <c r="B93" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="0">
         <v>2019</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="0">
         <v>0.46312391304347833</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="0">
         <v>63</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="0">
         <v>60</v>
       </c>
       <c r="G93" s="1">
@@ -4018,28 +3762,24 @@
       <c r="K93" s="2">
         <v>-2.7027999999999999</v>
       </c>
-      <c r="L93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" t="s">
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94">
+      <c r="B94" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="0">
         <v>2021</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="0">
         <v>0.58390217391304344</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="0">
         <v>30</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="0">
         <v>30</v>
       </c>
       <c r="G94" s="1">
@@ -4058,23 +3798,23 @@
         <v>-0.68720000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
-      <c r="A95" t="s">
+    <row r="95">
+      <c r="A95" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95">
+      <c r="B95" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="0">
         <v>2022</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="0">
         <v>0.44996521739130435</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="0">
         <v>62</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="0">
         <v>54</v>
       </c>
       <c r="G95" s="1">
@@ -4092,28 +3832,24 @@
       <c r="K95" s="2">
         <v>-2.2699999999999996</v>
       </c>
-      <c r="L95">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" t="s">
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96">
+      <c r="B96" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="0">
         <v>2023</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="0">
         <v>0.44561739130434785</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="0">
         <v>63</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="0">
         <v>51</v>
       </c>
       <c r="G96" s="1">
@@ -4131,28 +3867,24 @@
       <c r="K96" s="2">
         <v>-2.2369000000000003</v>
       </c>
-      <c r="L96">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" t="s">
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97">
+      <c r="B97" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="0">
         <v>2015</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="0">
         <v>0.45288260869565222</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="0">
         <v>68</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="0">
         <v>59</v>
       </c>
       <c r="G97" s="1">
@@ -4170,28 +3902,24 @@
       <c r="K97" s="2">
         <v>-2.3805000000000014</v>
       </c>
-      <c r="L97">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98">
+      <c r="B98" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="0">
         <v>2017</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="0">
         <v>0.61517391304347813</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="0">
         <v>33</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="0">
         <v>27</v>
       </c>
       <c r="G98" s="1">
@@ -4209,28 +3937,24 @@
       <c r="K98" s="2">
         <v>-1.0005000000000006</v>
       </c>
-      <c r="L98">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" t="s">
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99">
+      <c r="B99" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="0">
         <v>2018</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="0">
         <v>0.73186630434782618</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="0">
         <v>7</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="0">
         <v>0</v>
       </c>
       <c r="G99" s="1">
@@ -4239,27 +3963,29 @@
       <c r="H99" s="1">
         <v>43337</v>
       </c>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
       <c r="K99" s="2">
         <v>-0.14759999999999973</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
-      <c r="A100" t="s">
+    <row r="100">
+      <c r="A100" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100">
+      <c r="B100" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="0">
         <v>2022</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="0">
         <v>0.62009021739130432</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="0">
         <v>46</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="0">
         <v>20</v>
       </c>
       <c r="G100" s="1">
@@ -4277,28 +4003,24 @@
       <c r="K100" s="2">
         <v>-1.9606999999999992</v>
       </c>
-      <c r="L100">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101">
+      <c r="B101" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="0">
         <v>2023</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="0">
         <v>0.56075326086956523</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="0">
         <v>48</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="0">
         <v>32</v>
       </c>
       <c r="G101" s="1">
@@ -4317,23 +4039,23 @@
         <v>-1.8667999999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
-      <c r="A102" t="s">
+    <row r="102">
+      <c r="A102" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
+      <c r="B102" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="0">
         <v>2019</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="0">
         <v>0.55414565217391309</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="0">
         <v>57</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="0">
         <v>0</v>
       </c>
       <c r="G102" s="1">
@@ -4342,27 +4064,29 @@
       <c r="H102" s="1">
         <v>43708</v>
       </c>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
       <c r="K102" s="2">
         <v>-2.7294999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
-      <c r="A103" t="s">
+    <row r="103">
+      <c r="A103" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103">
+      <c r="B103" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="0">
         <v>2020</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="0">
         <v>0.59536304347826086</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="0">
         <v>39</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="0">
         <v>0</v>
       </c>
       <c r="G103" s="1">
@@ -4371,24 +4095,27 @@
       <c r="H103" s="1">
         <v>44074</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" t="s">
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104">
+      <c r="B104" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="0">
         <v>2021</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="0">
         <v>0.59966847826086966</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="0">
         <v>24</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="0">
         <v>0</v>
       </c>
       <c r="G104" s="1">
@@ -4397,27 +4124,29 @@
       <c r="H104" s="1">
         <v>44436</v>
       </c>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
       <c r="K104" s="2">
         <v>-2.4566000000000017</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
-      <c r="A105" t="s">
+    <row r="105">
+      <c r="A105" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105">
+      <c r="B105" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="0">
         <v>2022</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="0">
         <v>0.61973804347826089</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="0">
         <v>22</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="0">
         <v>0</v>
       </c>
       <c r="G105" s="1">
@@ -4426,24 +4155,27 @@
       <c r="H105" s="1">
         <v>44794</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" t="s">
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106">
+      <c r="B106" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="0">
         <v>2023</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="0">
         <v>0.64426630434782606</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="0">
         <v>27</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="0">
         <v>0</v>
       </c>
       <c r="G106" s="1">
@@ -4452,27 +4184,29 @@
       <c r="H106" s="1">
         <v>45166</v>
       </c>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
       <c r="K106" s="2">
         <v>-1.4328000000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
-      <c r="A107" t="s">
+    <row r="107">
+      <c r="A107" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107">
+      <c r="B107" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="0">
         <v>2010</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="0">
         <v>0.58258043478260868</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="0">
         <v>29</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="0">
         <v>0</v>
       </c>
       <c r="G107" s="1">
@@ -4481,27 +4215,29 @@
       <c r="H107" s="1">
         <v>40416</v>
       </c>
+      <c r="I107" s="0"/>
+      <c r="J107" s="0"/>
       <c r="K107" s="2">
         <v>-2.7639999999999993</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
-      <c r="A108" t="s">
+    <row r="108">
+      <c r="A108" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108">
+      <c r="B108" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="0">
         <v>2011</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="0">
         <v>0.59899673913043483</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="0">
         <v>33</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="0">
         <v>0</v>
       </c>
       <c r="G108" s="1">
@@ -4510,27 +4246,29 @@
       <c r="H108" s="1">
         <v>40765</v>
       </c>
+      <c r="I108" s="0"/>
+      <c r="J108" s="0"/>
       <c r="K108" s="2">
         <v>-2.8186</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
-      <c r="A109" t="s">
+    <row r="109">
+      <c r="A109" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109">
+      <c r="B109" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="0">
         <v>2014</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="0">
         <v>0.59185652173913039</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="0">
         <v>35</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="0">
         <v>0</v>
       </c>
       <c r="G109" s="1">
@@ -4539,27 +4277,29 @@
       <c r="H109" s="1">
         <v>41882</v>
       </c>
+      <c r="I109" s="0"/>
+      <c r="J109" s="0"/>
       <c r="K109" s="2">
         <v>-2.2934999999999981</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
-      <c r="A110" t="s">
+    <row r="110">
+      <c r="A110" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110">
+      <c r="B110" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="0">
         <v>2015</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="0">
         <v>0.60716739130434771</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="0">
         <v>21</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="0">
         <v>0</v>
       </c>
       <c r="G110" s="1">
@@ -4568,27 +4308,29 @@
       <c r="H110" s="1">
         <v>42235</v>
       </c>
+      <c r="I110" s="0"/>
+      <c r="J110" s="0"/>
       <c r="K110" s="2">
         <v>-2.0850000000000009</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
-      <c r="A111" t="s">
+    <row r="111">
+      <c r="A111" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111">
+      <c r="B111" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="0">
         <v>2018</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="0">
         <v>0.59852608695652165</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="0">
         <v>37</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="0">
         <v>0</v>
       </c>
       <c r="G111" s="1">
@@ -4597,27 +4339,29 @@
       <c r="H111" s="1">
         <v>43338</v>
       </c>
+      <c r="I111" s="0"/>
+      <c r="J111" s="0"/>
       <c r="K111" s="2">
         <v>-1.6326000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
-      <c r="A112" t="s">
+    <row r="112">
+      <c r="A112" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0">
         <v>2013</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="0">
         <v>0.64285326086956518</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="0">
         <v>34</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="0">
         <v>2</v>
       </c>
       <c r="G112" s="1">
@@ -4635,28 +4379,24 @@
       <c r="K112" s="2">
         <v>-0.92319999999999958</v>
       </c>
-      <c r="L112">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0">
         <v>2014</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="0">
         <v>0.60025434782608689</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="0">
         <v>55</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="0">
         <v>11</v>
       </c>
       <c r="G113" s="1">
@@ -4674,28 +4414,24 @@
       <c r="K113" s="2">
         <v>-1.5276999999999994</v>
       </c>
-      <c r="L113">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" t="s">
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0">
         <v>2015</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="0">
         <v>0.61574673913043465</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="0">
         <v>40</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="0">
         <v>3</v>
       </c>
       <c r="G114" s="1">
@@ -4710,28 +4446,25 @@
       <c r="J114" s="1">
         <v>42195</v>
       </c>
-      <c r="L114">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" t="s">
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0">
         <v>2016</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="0">
         <v>0.60453043478260871</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="0">
         <v>55</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="0">
         <v>0</v>
       </c>
       <c r="G115" s="1">
@@ -4740,27 +4473,29 @@
       <c r="H115" s="1">
         <v>42613</v>
       </c>
+      <c r="I115" s="0"/>
+      <c r="J115" s="0"/>
       <c r="K115" s="2">
         <v>-1.2942</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
-      <c r="A116" t="s">
+    <row r="116">
+      <c r="A116" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0">
         <v>2017</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="0">
         <v>0.65327826086956509</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="0">
         <v>30</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="0">
         <v>8</v>
       </c>
       <c r="G116" s="1">
@@ -4778,28 +4513,24 @@
       <c r="K116" s="2">
         <v>-0.76660000000000039</v>
       </c>
-      <c r="L116">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" t="s">
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0">
         <v>2018</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="0">
         <v>0.66366630434782603</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="0">
         <v>25</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="0">
         <v>10</v>
       </c>
       <c r="G117" s="1">
@@ -4817,28 +4548,24 @@
       <c r="K117" s="2">
         <v>-0.87870000000000026</v>
       </c>
-      <c r="L117">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" t="s">
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0">
         <v>2022</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="0">
         <v>0.41262065217391308</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="0">
         <v>69</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="0">
         <v>59</v>
       </c>
       <c r="G118" s="1">
@@ -4856,28 +4583,24 @@
       <c r="K118" s="2">
         <v>-2.8203000000000005</v>
       </c>
-      <c r="L118">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119">
+      <c r="C119" s="0">
         <v>2023</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="0">
         <v>0.39334021739130426</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="0">
         <v>62</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="0">
         <v>58</v>
       </c>
       <c r="G119" s="1">
@@ -4895,89 +4618,89 @@
       <c r="K119" s="2">
         <v>-2.2256999999999998</v>
       </c>
-      <c r="L119">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="L1:L119"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="11" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="true"/>
+    <col min="3" max="3" width="5" customWidth="true"/>
+    <col min="4" max="4" width="4.5546875" customWidth="true"/>
+    <col min="5" max="5" width="12.5546875" customWidth="true"/>
+    <col min="6" max="6" width="14.88671875" customWidth="true"/>
+    <col min="7" max="7" width="14.77734375" customWidth="true"/>
+    <col min="8" max="8" width="15.5546875" customWidth="true"/>
+    <col min="2" max="2" width="8.88671875" customWidth="true"/>
+    <col min="9" max="9" width="15.5546875" customWidth="true"/>
+    <col min="10" max="10" width="15.5546875" customWidth="true"/>
+    <col min="11" max="11" width="15.5546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0">
         <v>2019</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>45</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.47683221154733696</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>87</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>27</v>
       </c>
       <c r="H2" s="1">
@@ -4993,26 +4716,26 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0">
         <v>2020</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>32</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.52956447848484411</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>58</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>21</v>
       </c>
       <c r="H3" s="1">
@@ -5028,26 +4751,26 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0">
         <v>2021</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>29</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.54428321553945691</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>68</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="1">
@@ -5056,27 +4779,29 @@
       <c r="I4" s="1">
         <v>44433</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0">
         <v>2022</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>33</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>0.56975526195255966</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>43</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>1</v>
       </c>
       <c r="H5" s="1">
@@ -5092,26 +4817,26 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0">
         <v>2023</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.5517432132760669</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>24</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>12</v>
       </c>
       <c r="H6" s="1">
@@ -5127,26 +4852,26 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>2019</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>36</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>0.50042518595524721</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>64</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>48</v>
       </c>
       <c r="H7" s="1">
@@ -5162,26 +4887,26 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0">
         <v>2023</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>61</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>0.46525653615409091</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>66</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>63</v>
       </c>
       <c r="H8" s="1">
@@ -5197,26 +4922,26 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>2020</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>17</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>0.48199202392948254</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>59</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>35</v>
       </c>
       <c r="H9" s="1">
@@ -5232,26 +4957,26 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>2021</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0.45265518872836547</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>64</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>47</v>
       </c>
       <c r="H10" s="1">
@@ -5267,26 +4992,26 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>2022</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>25</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>0.49834596501664047</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>56</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>44</v>
       </c>
       <c r="H11" s="1">
@@ -5302,26 +5027,26 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>2019</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>0.432043821861611</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>71</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>58</v>
       </c>
       <c r="H12" s="1">
@@ -5337,26 +5062,26 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>2020</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>0.5177508592571658</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>62</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>38</v>
       </c>
       <c r="H13" s="1">
@@ -5372,26 +5097,26 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>2023</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>0.44222169171963566</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>66</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>17</v>
       </c>
       <c r="H14" s="1">
@@ -5407,26 +5132,26 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0">
         <v>2019</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>0.3547329636965838</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>92</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>89</v>
       </c>
       <c r="H15" s="1">
@@ -5442,26 +5167,26 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0">
         <v>2020</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>0.31186400955040838</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>92</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>92</v>
       </c>
       <c r="H16" s="1">
@@ -5477,26 +5202,26 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0">
         <v>2021</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>19</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>0.33331103880703866</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>89</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>84</v>
       </c>
       <c r="H17" s="1">
@@ -5512,26 +5237,26 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="0">
         <v>2022</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>21</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>0.3220268495623379</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>92</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>86</v>
       </c>
       <c r="H18" s="1">
@@ -5547,26 +5272,26 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="0">
         <v>2023</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>0.38023313883804422</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>78</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>73</v>
       </c>
       <c r="H19" s="1">
@@ -5582,26 +5307,26 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>2021</v>
       </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="0">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0">
         <v>0.54763373718001507</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>53</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>3</v>
       </c>
       <c r="H20" s="1">
@@ -5617,26 +5342,26 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>2022</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>15</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>0.56452853435930872</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>46</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>2</v>
       </c>
       <c r="H21" s="1">
@@ -5652,26 +5377,26 @@
         <v>44773</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="0">
         <v>2020</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>14</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>0.22870536614090162</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>90</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>89</v>
       </c>
       <c r="H22" s="1">
@@ -5687,26 +5412,26 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0">
         <v>2022</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>0.2558768433539006</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>90</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>88</v>
       </c>
       <c r="H23" s="1">
@@ -5722,26 +5447,26 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="0">
         <v>2023</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>27</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>0.23155939971258468</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>89</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>87</v>
       </c>
       <c r="H24" s="1">
@@ -5757,26 +5482,26 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>2019</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>22</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>0.42245531944303316</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>68</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>59</v>
       </c>
       <c r="H25" s="1">
@@ -5792,26 +5517,26 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>2020</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>14</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>0.4675435739083168</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>59</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>52</v>
       </c>
       <c r="H26" s="1">
@@ -5827,26 +5552,26 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>2019</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>18</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>0.49026535109415942</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>51</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>34</v>
       </c>
       <c r="H27" s="1">
@@ -5862,26 +5587,26 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>2022</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>14</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>0.60876687273060404</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>23</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>12</v>
       </c>
       <c r="H28" s="1">
@@ -5897,26 +5622,26 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>2023</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>23</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>0.45130263046680363</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>52</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>43</v>
       </c>
       <c r="H29" s="1">
@@ -5932,26 +5657,26 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>2023</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>18</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>0.76070131985949974</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>20</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>4</v>
       </c>
       <c r="H30" s="1">
@@ -5967,26 +5692,26 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="0">
         <v>2021</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>27</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>0.32499787241280087</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>92</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>81</v>
       </c>
       <c r="H31" s="1">
@@ -6002,26 +5727,26 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0">
         <v>2023</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>37</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>0.40764319697482859</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>77</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>64</v>
       </c>
       <c r="H32" s="1">
@@ -6037,26 +5762,26 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0">
         <v>2019</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>38</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>0.45875015360554389</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>79</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>57</v>
       </c>
       <c r="H33" s="1">
@@ -6072,26 +5797,26 @@
         <v>43701</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0">
         <v>2021</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0">
         <v>29</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>0.5298198251069034</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>50</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>26</v>
       </c>
       <c r="H34" s="1">
@@ -6107,26 +5832,26 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="0">
         <v>2022</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>0.41773224924549224</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>81</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>63</v>
       </c>
       <c r="H35" s="1">
@@ -6142,26 +5867,26 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="0">
         <v>2023</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0">
         <v>32</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>0.43696024263049205</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>79</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>52</v>
       </c>
       <c r="H36" s="1">
@@ -6177,26 +5902,26 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0">
         <v>2022</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0">
         <v>50</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>0.50454305083465267</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>63</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>42</v>
       </c>
       <c r="H37" s="1">
@@ -6212,26 +5937,26 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0">
         <v>2023</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0">
         <v>41</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>0.4807284444926096</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>66</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>49</v>
       </c>
       <c r="H38" s="1">
@@ -6247,26 +5972,26 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0">
         <v>2019</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>50</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>0.55147292129615666</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>42</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>6</v>
       </c>
       <c r="H39" s="1">
@@ -6282,26 +6007,26 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="0">
         <v>2020</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>36</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>0.62213935048439006</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>25</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0">
         <v>0</v>
       </c>
       <c r="H40" s="1">
@@ -6310,27 +6035,29 @@
       <c r="I40" s="1">
         <v>44058</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0">
         <v>2021</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>32</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>0.60571450427780216</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>21</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0">
         <v>1</v>
       </c>
       <c r="H41" s="1">
@@ -6346,26 +6073,26 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="0">
         <v>2022</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>33</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>0.64484380404989083</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>7</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0">
         <v>0</v>
       </c>
       <c r="H42" s="1">
@@ -6374,27 +6101,29 @@
       <c r="I42" s="1">
         <v>44776</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="0">
         <v>2023</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>26</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>1.2858425331769785</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>18</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="0">
         <v>0</v>
       </c>
       <c r="H43" s="1">
@@ -6403,27 +6132,29 @@
       <c r="I43" s="1">
         <v>45165</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>2022</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>35</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>0.41006377903874286</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>81</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0">
         <v>59</v>
       </c>
       <c r="H44" s="1">
@@ -6439,26 +6170,26 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>2023</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>42</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>0.40783339379513073</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>65</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0">
         <v>61</v>
       </c>
       <c r="H45" s="1">
@@ -6480,32 +6211,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="true"/>
+    <col min="2" max="2" width="9.7109375" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" customWidth="true"/>
+    <col min="4" max="7" width="15.85546875" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="16.5703125" customWidth="true"/>
+    <col min="10" max="10" width="7.28515625" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="14.42578125" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="16.5703125" customWidth="true"/>
+    <col min="15" max="15" width="7.140625" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="8.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6558,7 +6289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -6611,7 +6342,7 @@
         <v>-0.86789999999999878</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -6664,7 +6395,7 @@
         <v>-7.0299999999999585E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6717,7 +6448,7 @@
         <v>-4.7788999999999984</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6764,7 +6495,7 @@
         <v>-3.4830999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6811,7 +6542,7 @@
         <v>-3.2022999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6864,7 +6595,7 @@
         <v>-0.59309999999999974</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6917,7 +6648,7 @@
         <v>-2.3020999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -6970,7 +6701,7 @@
         <v>-3.0942999999999987</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -7023,7 +6754,7 @@
         <v>-2.1143999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -7076,7 +6807,7 @@
         <v>-1.5666000000000011</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -7129,7 +6860,7 @@
         <v>-1.0312999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -7182,7 +6913,7 @@
         <v>-4.1532999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -7235,7 +6966,7 @@
         <v>-3.2462</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7288,7 +7019,7 @@
         <v>-2.0600999999999985</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7341,7 +7072,7 @@
         <v>-4.9650999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -7394,7 +7125,7 @@
         <v>-3.4811999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7447,7 +7178,7 @@
         <v>-4.7894000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7500,7 +7231,7 @@
         <v>-2.8366000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7544,7 +7275,7 @@
         <v>-2.4859000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7597,7 +7328,7 @@
         <v>-1.3166999999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -7650,7 +7381,7 @@
         <v>-1.7025999999999986</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7703,7 +7434,7 @@
         <v>-1.5155999999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -7756,7 +7487,7 @@
         <v>-1.3956999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -7809,7 +7540,7 @@
         <v>-4.3207000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -7862,7 +7593,7 @@
         <v>-5.7208000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -7915,7 +7646,7 @@
         <v>-2.9407999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -7968,7 +7699,7 @@
         <v>-3.214100000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -8021,7 +7752,7 @@
         <v>-1.4072000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -8074,7 +7805,7 @@
         <v>-0.51839999999999975</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -8127,7 +7858,7 @@
         <v>-0.89489999999999981</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -8180,7 +7911,7 @@
         <v>-2.2556000000000012</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -8233,7 +7964,7 @@
         <v>-0.26580000000000048</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -8286,7 +8017,7 @@
         <v>-4.3517999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -8339,7 +8070,7 @@
         <v>-3.6709999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -8392,7 +8123,7 @@
         <v>-2.7027999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -8445,7 +8176,7 @@
         <v>-1.7479000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -8498,7 +8229,7 @@
         <v>-0.68720000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -8551,7 +8282,7 @@
         <v>-2.2699999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -8604,7 +8335,7 @@
         <v>-2.2369000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -8657,7 +8388,7 @@
         <v>-1.9606999999999992</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -8710,7 +8441,7 @@
         <v>-1.8667999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -8760,7 +8491,7 @@
         <v>-9.4899999999999096E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -8813,7 +8544,7 @@
         <v>-2.1368000000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -8866,7 +8597,7 @@
         <v>-3.0686</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -8913,7 +8644,7 @@
         <v>-1.6073999999999984</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -8963,7 +8694,7 @@
         <v>-1.2538999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -9016,7 +8747,7 @@
         <v>1.7972000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -9069,7 +8800,7 @@
         <v>-2.8203000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50">
       <c r="A50" t="s">
         <v>34</v>
       </c>

--- a/stat/icestats.xlsx
+++ b/stat/icestats.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1176" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1664" uniqueCount="54">
   <si>
     <t>aws</t>
   </si>
@@ -4695,25 +4695,25 @@
         <v>45</v>
       </c>
       <c r="E2" s="0">
-        <v>0.47683221154733696</v>
+        <v>0.47567486063496944</v>
       </c>
       <c r="F2" s="0">
         <v>87</v>
       </c>
       <c r="G2" s="0">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1">
         <v>43617</v>
       </c>
       <c r="I2" s="1">
-        <v>43708</v>
+        <v>43704</v>
       </c>
       <c r="J2" s="1">
         <v>43627</v>
       </c>
       <c r="K2" s="1">
-        <v>43678</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="3">
@@ -4730,16 +4730,16 @@
         <v>32</v>
       </c>
       <c r="E3" s="0">
-        <v>0.52956447848484411</v>
+        <v>0.51305969713828514</v>
       </c>
       <c r="F3" s="0">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="G3" s="0">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1">
-        <v>43983</v>
+        <v>43986</v>
       </c>
       <c r="I3" s="1">
         <v>44065</v>
@@ -4765,19 +4765,17 @@
         <v>29</v>
       </c>
       <c r="E4" s="0">
-        <v>0.54428321553945691</v>
+        <v>0.53745345106869935</v>
       </c>
       <c r="F4" s="0">
-        <v>68</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G4" s="0"/>
       <c r="H4" s="1">
         <v>44354</v>
       </c>
       <c r="I4" s="1">
-        <v>44433</v>
+        <v>44431</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
@@ -4796,19 +4794,19 @@
         <v>33</v>
       </c>
       <c r="E5" s="0">
-        <v>0.56975526195255966</v>
+        <v>0.56549905761606767</v>
       </c>
       <c r="F5" s="0">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <v>44721</v>
       </c>
       <c r="I5" s="1">
-        <v>44802</v>
+        <v>44801</v>
       </c>
       <c r="J5" s="1">
         <v>44776</v>
@@ -4831,22 +4829,22 @@
         <v>22</v>
       </c>
       <c r="E6" s="0">
-        <v>0.5517432132760669</v>
+        <v>0.60710955311483294</v>
       </c>
       <c r="F6" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G6" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>45078</v>
+        <v>45119</v>
       </c>
       <c r="I6" s="1">
         <v>45160</v>
       </c>
       <c r="J6" s="1">
-        <v>45078</v>
+        <v>45159</v>
       </c>
       <c r="K6" s="1">
         <v>45159</v>
@@ -4866,25 +4864,25 @@
         <v>36</v>
       </c>
       <c r="E7" s="0">
-        <v>0.50042518595524721</v>
+        <v>0.47104353183886655</v>
       </c>
       <c r="F7" s="0">
         <v>64</v>
       </c>
       <c r="G7" s="0">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1">
-        <v>43630</v>
+        <v>43633</v>
       </c>
       <c r="I7" s="1">
-        <v>43698</v>
+        <v>43697</v>
       </c>
       <c r="J7" s="1">
-        <v>43635</v>
+        <v>43636</v>
       </c>
       <c r="K7" s="1">
-        <v>43692</v>
+        <v>43691</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4899,10 @@
         <v>61</v>
       </c>
       <c r="E8" s="0">
-        <v>0.46525653615409091</v>
+        <v>0.4489676512729292</v>
       </c>
       <c r="F8" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0">
         <v>63</v>
@@ -4936,25 +4934,25 @@
         <v>17</v>
       </c>
       <c r="E9" s="0">
-        <v>0.48199202392948254</v>
+        <v>0.45641079469673795</v>
       </c>
       <c r="F9" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G9" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1">
         <v>44016</v>
       </c>
       <c r="I9" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="J9" s="1">
         <v>44032</v>
       </c>
       <c r="K9" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="10">
@@ -4971,25 +4969,25 @@
         <v>12</v>
       </c>
       <c r="E10" s="0">
-        <v>0.45265518872836547</v>
+        <v>0.39513549359533934</v>
       </c>
       <c r="F10" s="0">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G10" s="0">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1">
-        <v>44372</v>
+        <v>44377</v>
       </c>
       <c r="I10" s="1">
-        <v>44439</v>
+        <v>44431</v>
       </c>
       <c r="J10" s="1">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="K10" s="1">
-        <v>44439</v>
+        <v>44431</v>
       </c>
     </row>
     <row r="11">
@@ -5006,25 +5004,25 @@
         <v>25</v>
       </c>
       <c r="E11" s="0">
-        <v>0.49834596501664047</v>
+        <v>0.45654675372350212</v>
       </c>
       <c r="F11" s="0">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G11" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1">
-        <v>44749</v>
+        <v>44753</v>
       </c>
       <c r="I11" s="1">
-        <v>44804</v>
+        <v>44796</v>
       </c>
       <c r="J11" s="1">
         <v>44760</v>
       </c>
       <c r="K11" s="1">
-        <v>44804</v>
+        <v>44796</v>
       </c>
     </row>
     <row r="12">
@@ -5041,22 +5039,22 @@
         <v>20</v>
       </c>
       <c r="E12" s="0">
-        <v>0.432043821861611</v>
+        <v>0.38780155223999169</v>
       </c>
       <c r="F12" s="0">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G12" s="0">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1">
-        <v>43624</v>
+        <v>43626</v>
       </c>
       <c r="I12" s="1">
         <v>43708</v>
       </c>
       <c r="J12" s="1">
-        <v>43651</v>
+        <v>43654</v>
       </c>
       <c r="K12" s="1">
         <v>43708</v>
@@ -5076,22 +5074,22 @@
         <v>20</v>
       </c>
       <c r="E13" s="0">
-        <v>0.5177508592571658</v>
+        <v>0.43837029347337797</v>
       </c>
       <c r="F13" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="I13" s="1">
         <v>44074</v>
       </c>
       <c r="J13" s="1">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="K13" s="1">
         <v>44074</v>
@@ -5111,25 +5109,25 @@
         <v>12</v>
       </c>
       <c r="E14" s="0">
-        <v>0.44222169171963566</v>
+        <v>0.51601284667601188</v>
       </c>
       <c r="F14" s="0">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G14" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="I14" s="1">
-        <v>45169</v>
+        <v>45154</v>
       </c>
       <c r="J14" s="1">
         <v>45145</v>
       </c>
       <c r="K14" s="1">
-        <v>45169</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="15">
@@ -5146,16 +5144,16 @@
         <v>30</v>
       </c>
       <c r="E15" s="0">
-        <v>0.3547329636965838</v>
+        <v>0.36036658121113979</v>
       </c>
       <c r="F15" s="0">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G15" s="0">
         <v>89</v>
       </c>
       <c r="H15" s="1">
-        <v>43617</v>
+        <v>43619</v>
       </c>
       <c r="I15" s="1">
         <v>43708</v>
@@ -5181,22 +5179,22 @@
         <v>21</v>
       </c>
       <c r="E16" s="0">
-        <v>0.31186400955040838</v>
+        <v>0.32084920252497712</v>
       </c>
       <c r="F16" s="0">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G16" s="0">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1">
-        <v>43983</v>
+        <v>44003</v>
       </c>
       <c r="I16" s="1">
         <v>44074</v>
       </c>
       <c r="J16" s="1">
-        <v>43983</v>
+        <v>44003</v>
       </c>
       <c r="K16" s="1">
         <v>44074</v>
@@ -5216,13 +5214,13 @@
         <v>19</v>
       </c>
       <c r="E17" s="0">
-        <v>0.33331103880703866</v>
+        <v>0.37189658000751563</v>
       </c>
       <c r="F17" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G17" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H17" s="1">
         <v>44349</v>
@@ -5251,25 +5249,25 @@
         <v>21</v>
       </c>
       <c r="E18" s="0">
-        <v>0.3220268495623379</v>
+        <v>0.34985065850530361</v>
       </c>
       <c r="F18" s="0">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G18" s="0">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1">
         <v>44713</v>
       </c>
       <c r="I18" s="1">
-        <v>44804</v>
+        <v>44801</v>
       </c>
       <c r="J18" s="1">
-        <v>44719</v>
+        <v>44721</v>
       </c>
       <c r="K18" s="1">
-        <v>44804</v>
+        <v>44801</v>
       </c>
     </row>
     <row r="19">
@@ -5286,25 +5284,25 @@
         <v>19</v>
       </c>
       <c r="E19" s="0">
-        <v>0.38023313883804422</v>
+        <v>0.27055634307359394</v>
       </c>
       <c r="F19" s="0">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G19" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="I19" s="1">
-        <v>45169</v>
+        <v>45163</v>
       </c>
       <c r="J19" s="1">
         <v>45094</v>
       </c>
       <c r="K19" s="1">
-        <v>45169</v>
+        <v>45163</v>
       </c>
     </row>
     <row r="20">
@@ -5321,19 +5319,19 @@
         <v>9</v>
       </c>
       <c r="E20" s="0">
-        <v>0.54763373718001507</v>
+        <v>0.51439224233594194</v>
       </c>
       <c r="F20" s="0">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G20" s="0">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1">
-        <v>44387</v>
+        <v>44393</v>
       </c>
       <c r="I20" s="1">
-        <v>44439</v>
+        <v>44431</v>
       </c>
       <c r="J20" s="1">
         <v>44406</v>
@@ -5356,19 +5354,19 @@
         <v>15</v>
       </c>
       <c r="E21" s="0">
-        <v>0.56452853435930872</v>
+        <v>0.54071217848817499</v>
       </c>
       <c r="F21" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G21" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H21" s="1">
-        <v>44741</v>
+        <v>44747</v>
       </c>
       <c r="I21" s="1">
-        <v>44804</v>
+        <v>44801</v>
       </c>
       <c r="J21" s="1">
         <v>44761</v>
@@ -5391,25 +5389,25 @@
         <v>14</v>
       </c>
       <c r="E22" s="0">
-        <v>0.22870536614090162</v>
+        <v>0.21283305636691363</v>
       </c>
       <c r="F22" s="0">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G22" s="0">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="H22" s="1">
-        <v>43983</v>
+        <v>44005</v>
       </c>
       <c r="I22" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="J22" s="1">
-        <v>43983</v>
+        <v>44005</v>
       </c>
       <c r="K22" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="23">
@@ -5426,25 +5424,25 @@
         <v>29</v>
       </c>
       <c r="E23" s="0">
-        <v>0.2558768433539006</v>
+        <v>0.22858339832132657</v>
       </c>
       <c r="F23" s="0">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G23" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1">
-        <v>44713</v>
+        <v>44715</v>
       </c>
       <c r="I23" s="1">
-        <v>44804</v>
+        <v>44795</v>
       </c>
       <c r="J23" s="1">
-        <v>44713</v>
+        <v>44715</v>
       </c>
       <c r="K23" s="1">
-        <v>44804</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24">
@@ -5461,25 +5459,25 @@
         <v>27</v>
       </c>
       <c r="E24" s="0">
-        <v>0.23155939971258468</v>
+        <v>0.21196616336339866</v>
       </c>
       <c r="F24" s="0">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G24" s="0">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H24" s="1">
-        <v>45081</v>
+        <v>45085</v>
       </c>
       <c r="I24" s="1">
-        <v>45169</v>
+        <v>45165</v>
       </c>
       <c r="J24" s="1">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="K24" s="1">
-        <v>45169</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="25">
@@ -5496,25 +5494,25 @@
         <v>22</v>
       </c>
       <c r="E25" s="0">
-        <v>0.42245531944303316</v>
+        <v>0.35709541281275453</v>
       </c>
       <c r="F25" s="0">
         <v>68</v>
       </c>
       <c r="G25" s="0">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1">
-        <v>43636</v>
+        <v>43637</v>
       </c>
       <c r="I25" s="1">
-        <v>43708</v>
+        <v>43705</v>
       </c>
       <c r="J25" s="1">
         <v>43650</v>
       </c>
       <c r="K25" s="1">
-        <v>43708</v>
+        <v>43705</v>
       </c>
     </row>
     <row r="26">
@@ -5531,25 +5529,25 @@
         <v>14</v>
       </c>
       <c r="E26" s="0">
-        <v>0.4675435739083168</v>
+        <v>0.35443616304026826</v>
       </c>
       <c r="F26" s="0">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G26" s="0">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1">
-        <v>44016</v>
+        <v>44023</v>
       </c>
       <c r="I26" s="1">
-        <v>44074</v>
+        <v>44070</v>
       </c>
       <c r="J26" s="1">
-        <v>44021</v>
+        <v>44023</v>
       </c>
       <c r="K26" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="27">
@@ -5566,25 +5564,25 @@
         <v>18</v>
       </c>
       <c r="E27" s="0">
-        <v>0.49026535109415942</v>
+        <v>0.39629458904656822</v>
       </c>
       <c r="F27" s="0">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G27" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27" s="1">
-        <v>43658</v>
+        <v>43660</v>
       </c>
       <c r="I27" s="1">
-        <v>43708</v>
+        <v>43705</v>
       </c>
       <c r="J27" s="1">
         <v>43675</v>
       </c>
       <c r="K27" s="1">
-        <v>43708</v>
+        <v>43705</v>
       </c>
     </row>
     <row r="28">
@@ -5601,25 +5599,25 @@
         <v>14</v>
       </c>
       <c r="E28" s="0">
-        <v>0.60876687273060404</v>
+        <v>0.52945359209037957</v>
       </c>
       <c r="F28" s="0">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H28" s="1">
-        <v>44777</v>
+        <v>44780</v>
       </c>
       <c r="I28" s="1">
-        <v>44804</v>
+        <v>44802</v>
       </c>
       <c r="J28" s="1">
-        <v>44786</v>
+        <v>44787</v>
       </c>
       <c r="K28" s="1">
-        <v>44804</v>
+        <v>44802</v>
       </c>
     </row>
     <row r="29">
@@ -5636,25 +5634,25 @@
         <v>23</v>
       </c>
       <c r="E29" s="0">
-        <v>0.45130263046680363</v>
+        <v>0.38438005868538772</v>
       </c>
       <c r="F29" s="0">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G29" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H29" s="1">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="I29" s="1">
-        <v>45169</v>
+        <v>45166</v>
       </c>
       <c r="J29" s="1">
-        <v>45127</v>
+        <v>45130</v>
       </c>
       <c r="K29" s="1">
-        <v>45169</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="30">
@@ -5671,22 +5669,22 @@
         <v>18</v>
       </c>
       <c r="E30" s="0">
-        <v>0.76070131985949974</v>
+        <v>0.59367553879627954</v>
       </c>
       <c r="F30" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G30" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="I30" s="1">
-        <v>45161</v>
+        <v>45160</v>
       </c>
       <c r="J30" s="1">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="K30" s="1">
         <v>45160</v>
@@ -5706,25 +5704,25 @@
         <v>27</v>
       </c>
       <c r="E31" s="0">
-        <v>0.32499787241280087</v>
+        <v>0.32207190170856076</v>
       </c>
       <c r="F31" s="0">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G31" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H31" s="1">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="I31" s="1">
-        <v>44439</v>
+        <v>44437</v>
       </c>
       <c r="J31" s="1">
-        <v>44359</v>
+        <v>44362</v>
       </c>
       <c r="K31" s="1">
-        <v>44439</v>
+        <v>44437</v>
       </c>
     </row>
     <row r="32">
@@ -5741,25 +5739,25 @@
         <v>37</v>
       </c>
       <c r="E32" s="0">
-        <v>0.40764319697482859</v>
+        <v>0.35239574129066631</v>
       </c>
       <c r="F32" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G32" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H32" s="1">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="I32" s="1">
-        <v>45169</v>
+        <v>45167</v>
       </c>
       <c r="J32" s="1">
         <v>45105</v>
       </c>
       <c r="K32" s="1">
-        <v>45169</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="33">
@@ -5776,25 +5774,25 @@
         <v>38</v>
       </c>
       <c r="E33" s="0">
-        <v>0.45875015360554389</v>
+        <v>0.40333908087320036</v>
       </c>
       <c r="F33" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G33" s="0">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H33" s="1">
-        <v>43627</v>
+        <v>43628</v>
       </c>
       <c r="I33" s="1">
-        <v>43708</v>
+        <v>43698</v>
       </c>
       <c r="J33" s="1">
-        <v>43629</v>
+        <v>43630</v>
       </c>
       <c r="K33" s="1">
-        <v>43701</v>
+        <v>43698</v>
       </c>
     </row>
     <row r="34">
@@ -5811,22 +5809,22 @@
         <v>29</v>
       </c>
       <c r="E34" s="0">
-        <v>0.5298198251069034</v>
+        <v>0.54335218073810487</v>
       </c>
       <c r="F34" s="0">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G34" s="0">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H34" s="1">
-        <v>44348</v>
+        <v>44362</v>
       </c>
       <c r="I34" s="1">
-        <v>44435</v>
+        <v>44431</v>
       </c>
       <c r="J34" s="1">
-        <v>44348</v>
+        <v>44412</v>
       </c>
       <c r="K34" s="1">
         <v>44431</v>
@@ -5846,22 +5844,22 @@
         <v>45</v>
       </c>
       <c r="E35" s="0">
-        <v>0.41773224924549224</v>
+        <v>0.42626558405624221</v>
       </c>
       <c r="F35" s="0">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G35" s="0">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H35" s="1">
-        <v>44713</v>
+        <v>44740</v>
       </c>
       <c r="I35" s="1">
         <v>44804</v>
       </c>
       <c r="J35" s="1">
-        <v>44713</v>
+        <v>44749</v>
       </c>
       <c r="K35" s="1">
         <v>44802</v>
@@ -5881,25 +5879,25 @@
         <v>32</v>
       </c>
       <c r="E36" s="0">
-        <v>0.43696024263049205</v>
+        <v>0.41564547914712857</v>
       </c>
       <c r="F36" s="0">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G36" s="0">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H36" s="1">
-        <v>45078</v>
+        <v>45106</v>
       </c>
       <c r="I36" s="1">
-        <v>45164</v>
+        <v>45156</v>
       </c>
       <c r="J36" s="1">
-        <v>45078</v>
+        <v>45112</v>
       </c>
       <c r="K36" s="1">
-        <v>45160</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="37">
@@ -5916,13 +5914,13 @@
         <v>50</v>
       </c>
       <c r="E37" s="0">
-        <v>0.50454305083465267</v>
+        <v>0.47663994140465066</v>
       </c>
       <c r="F37" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G37" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H37" s="1">
         <v>44740</v>
@@ -5951,25 +5949,25 @@
         <v>41</v>
       </c>
       <c r="E38" s="0">
-        <v>0.4807284444926096</v>
+        <v>0.49545508480662021</v>
       </c>
       <c r="F38" s="0">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G38" s="0">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H38" s="1">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="I38" s="1">
-        <v>45169</v>
+        <v>45156</v>
       </c>
       <c r="J38" s="1">
         <v>45121</v>
       </c>
       <c r="K38" s="1">
-        <v>45169</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="39">
@@ -5986,22 +5984,22 @@
         <v>50</v>
       </c>
       <c r="E39" s="0">
-        <v>0.55147292129615666</v>
+        <v>0.57850707275492441</v>
       </c>
       <c r="F39" s="0">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="G39" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>43617</v>
+        <v>43622</v>
       </c>
       <c r="I39" s="1">
         <v>43694</v>
       </c>
       <c r="J39" s="1">
-        <v>43617</v>
+        <v>43646</v>
       </c>
       <c r="K39" s="1">
         <v>43646</v>
@@ -6021,19 +6019,17 @@
         <v>36</v>
       </c>
       <c r="E40" s="0">
-        <v>0.62213935048439006</v>
+        <v>0.61085465733962907</v>
       </c>
       <c r="F40" s="0">
-        <v>25</v>
-      </c>
-      <c r="G40" s="0">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G40" s="0"/>
       <c r="H40" s="1">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="I40" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
@@ -6052,13 +6048,13 @@
         <v>32</v>
       </c>
       <c r="E41" s="0">
-        <v>0.60571450427780216</v>
+        <v>0.61454055821360876</v>
       </c>
       <c r="F41" s="0">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="G41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>44370</v>
@@ -6087,19 +6083,17 @@
         <v>33</v>
       </c>
       <c r="E42" s="0">
-        <v>0.64484380404989083</v>
+        <v>0.63633795025049134</v>
       </c>
       <c r="F42" s="0">
-        <v>7</v>
-      </c>
-      <c r="G42" s="0">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" s="0"/>
       <c r="H42" s="1">
         <v>44757</v>
       </c>
       <c r="I42" s="1">
-        <v>44776</v>
+        <v>44774</v>
       </c>
       <c r="J42" s="0"/>
       <c r="K42" s="0"/>
@@ -6118,14 +6112,12 @@
         <v>26</v>
       </c>
       <c r="E43" s="0">
-        <v>1.2858425331769785</v>
+        <v>0.59448240458833479</v>
       </c>
       <c r="F43" s="0">
-        <v>18</v>
-      </c>
-      <c r="G43" s="0">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G43" s="0"/>
       <c r="H43" s="1">
         <v>45110</v>
       </c>
@@ -6149,25 +6141,25 @@
         <v>35</v>
       </c>
       <c r="E44" s="0">
-        <v>0.41006377903874286</v>
+        <v>0.43726600019400319</v>
       </c>
       <c r="F44" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G44" s="0">
         <v>59</v>
       </c>
       <c r="H44" s="1">
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="I44" s="1">
-        <v>44804</v>
+        <v>44803</v>
       </c>
       <c r="J44" s="1">
         <v>44741</v>
       </c>
       <c r="K44" s="1">
-        <v>44804</v>
+        <v>44800</v>
       </c>
     </row>
     <row r="45">
@@ -6184,25 +6176,25 @@
         <v>42</v>
       </c>
       <c r="E45" s="0">
-        <v>0.40783339379513073</v>
+        <v>0.36338917038608642</v>
       </c>
       <c r="F45" s="0">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G45" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H45" s="1">
         <v>45102</v>
       </c>
       <c r="I45" s="1">
-        <v>45166</v>
+        <v>45162</v>
       </c>
       <c r="J45" s="1">
         <v>45104</v>
       </c>
       <c r="K45" s="1">
-        <v>45165</v>
+        <v>45162</v>
       </c>
     </row>
   </sheetData>

--- a/stat/icestats.xlsx
+++ b/stat/icestats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\GitHub\PhD\Temporal-variations-of-the-darkening-of-surface-ice-on-the-GrIS\stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D8DED7-F8F7-4EEF-A1EF-F72CB84F08D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D387784-7076-4C7C-87A7-0E7F079737C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2865" windowWidth="28800" windowHeight="15345" activeTab="2"/>
+    <workbookView xWindow="10830" yWindow="3855" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="ablation" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">AWS!$L$1:$L$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AWS!$A$1:$A$119</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1664" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="57">
   <si>
     <t>aws</t>
   </si>
@@ -199,17 +199,31 @@
     <t>slope</t>
   </si>
   <si>
-    <t>transtion</t>
+    <t>abiotic_load</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,10 +253,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,7 +318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -407,12 +424,12 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -436,9 +453,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -462,7 +479,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -497,7 +514,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -515,7 +532,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -540,7 +557,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -549,87 +566,90 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" activeCellId="1" sqref="K1:K1048576 L1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="true"/>
-    <col min="3" max="3" width="5" customWidth="true"/>
-    <col min="4" max="4" width="12.5546875" customWidth="true"/>
-    <col min="5" max="5" width="14.88671875" customWidth="true"/>
-    <col min="6" max="6" width="14.77734375" customWidth="true"/>
-    <col min="7" max="7" width="15.5546875" customWidth="true"/>
-    <col min="11" max="11" width="7.6640625" style="2" customWidth="true"/>
-    <col min="2" max="2" width="8.88671875" customWidth="true"/>
-    <col min="8" max="8" width="15.5546875" customWidth="true"/>
-    <col min="9" max="9" width="15.5546875" customWidth="true"/>
-    <col min="10" max="10" width="15.5546875" customWidth="true"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>2019</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>0.491566304347826</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>84</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>22</v>
       </c>
       <c r="G2" s="1">
@@ -648,23 +668,23 @@
         <v>-4.7788999999999984</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>0.53922391304347828</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>73</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -683,23 +703,23 @@
         <v>-3.4830999999999994</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>2021</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>0.52518369565217393</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>75</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" s="1">
@@ -714,25 +734,24 @@
       <c r="J4" s="1">
         <v>44425</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>2022</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>0.56256086956521745</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>63</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="1">
@@ -751,23 +770,23 @@
         <v>-3.2022999999999993</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>2023</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>0.59154456521739129</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>49</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -776,29 +795,33 @@
       <c r="H6" s="1">
         <v>45168</v>
       </c>
-      <c r="I6" s="0"/>
-      <c r="J6" s="0"/>
       <c r="K6" s="2">
         <v>-3.051000000000001</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+      <c r="L6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="0">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>2009</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>0.55338804347826087</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>57</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="1">
@@ -807,29 +830,27 @@
       <c r="H7" s="1">
         <v>40053</v>
       </c>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
       <c r="K7" s="2">
         <v>-2.9801000000000002</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>2010</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>0.49093804347826087</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>90</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -848,23 +869,23 @@
         <v>-4.2053000000000003</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="0">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>2011</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>0.50405326086956526</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>86</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>9</v>
       </c>
       <c r="G9" s="1">
@@ -879,25 +900,24 @@
       <c r="J9" s="1">
         <v>40785</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>2012</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>0.4880706521739131</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>83</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>25</v>
       </c>
       <c r="G10" s="1">
@@ -912,25 +932,24 @@
       <c r="J10" s="1">
         <v>41142</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>2013</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>0.5866152173913044</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>50</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="1">
@@ -939,29 +958,27 @@
       <c r="H11" s="1">
         <v>41501</v>
       </c>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
       <c r="K11" s="2">
         <v>-2.7604000000000006</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
         <v>2014</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>0.50849456521739134</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>82</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>5</v>
       </c>
       <c r="G12" s="1">
@@ -980,23 +997,23 @@
         <v>-4.0956999999999999</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="0">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
         <v>2015</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>0.56099456521739133</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>53</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="1">
@@ -1005,29 +1022,27 @@
       <c r="H13" s="1">
         <v>42247</v>
       </c>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
       <c r="K13" s="2">
         <v>-2.2821999999999996</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="0">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
         <v>2016</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>0.51915000000000011</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>83</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>6</v>
       </c>
       <c r="G14" s="1">
@@ -1042,25 +1057,24 @@
       <c r="J14" s="1">
         <v>42572</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="0">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
         <v>2017</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>0.53222282608695648</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>67</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>20</v>
       </c>
       <c r="G15" s="1">
@@ -1079,23 +1093,23 @@
         <v>-3.2961999999999998</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="0">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
         <v>2018</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>0.55224999999999991</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>67</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" s="1">
@@ -1104,27 +1118,24 @@
       <c r="H16" s="1">
         <v>43340</v>
       </c>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>2019</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>0.54152826086956518</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>61</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>40</v>
       </c>
       <c r="G17" s="1">
@@ -1143,23 +1154,23 @@
         <v>-0.59309999999999974</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>2012</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>0.45635434782608697</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>71</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>60</v>
       </c>
       <c r="G18" s="1">
@@ -1178,23 +1189,23 @@
         <v>-2.1121999999999996</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>2013</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>0.65046304347826089</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>27</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>12</v>
       </c>
       <c r="G19" s="1">
@@ -1213,23 +1224,23 @@
         <v>-0.82730000000000103</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>2016</v>
       </c>
-      <c r="D20" s="0">
+      <c r="D20">
         <v>0.43327282608695644</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20">
         <v>79</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>65</v>
       </c>
       <c r="G20" s="1">
@@ -1248,23 +1259,23 @@
         <v>-2.2245999999999997</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>2017</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>0.66845652173913039</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>19</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>5</v>
       </c>
       <c r="G21" s="1">
@@ -1283,23 +1294,23 @@
         <v>-0.43050000000000033</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>2018</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>0.62830978260869563</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>28</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>19</v>
       </c>
       <c r="G22" s="1">
@@ -1314,23 +1325,21 @@
       <c r="J22" s="1">
         <v>43328</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="0">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
         <v>2023</v>
       </c>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>85</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>64</v>
       </c>
       <c r="G23" s="1">
@@ -1349,23 +1358,23 @@
         <v>-3.0942999999999987</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>2020</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>0.55803478260869577</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>43</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>27</v>
       </c>
       <c r="G24" s="1">
@@ -1384,23 +1393,23 @@
         <v>-2.1143999999999998</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>2021</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>0.49706739130434785</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>42</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>38</v>
       </c>
       <c r="G25" s="1">
@@ -1415,25 +1424,24 @@
       <c r="J25" s="1">
         <v>44439</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>2022</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>0.50639130434782598</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>46</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>38</v>
       </c>
       <c r="G26" s="1">
@@ -1452,23 +1460,23 @@
         <v>-1.5666000000000011</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>2011</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>0.55529565217391319</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>40</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <v>28</v>
       </c>
       <c r="G27" s="1">
@@ -1487,23 +1495,23 @@
         <v>-1.1469</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>2012</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>0.52450326086956522</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>44</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <v>40</v>
       </c>
       <c r="G28" s="1">
@@ -1522,23 +1530,23 @@
         <v>-0.1243000000000003</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>2014</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>0.424713043478261</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>56</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29">
         <v>51</v>
       </c>
       <c r="G29" s="1">
@@ -1557,23 +1565,23 @@
         <v>-2.4346999999999994</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>2019</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>0.41806413043478263</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>65</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30">
         <v>63</v>
       </c>
       <c r="G30" s="1">
@@ -1592,23 +1600,23 @@
         <v>-4.1532999999999998</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>2020</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>0.51787173913043472</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>42</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31">
         <v>40</v>
       </c>
       <c r="G31" s="1">
@@ -1623,25 +1631,24 @@
       <c r="J31" s="1">
         <v>44074</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="0">
+      <c r="C32">
         <v>2023</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>0.55324130434782604</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>51</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32">
         <v>41</v>
       </c>
       <c r="G32" s="1">
@@ -1660,23 +1667,23 @@
         <v>-2.0600999999999985</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="0">
+      <c r="C33">
         <v>2016</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>0.40851847826086951</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>74</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33">
         <v>65</v>
       </c>
       <c r="G33" s="1">
@@ -1695,23 +1702,23 @@
         <v>-2.8190000000000008</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="0">
+      <c r="C34">
         <v>2017</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>0.5666978260869564</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>35</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34">
         <v>28</v>
       </c>
       <c r="G34" s="1">
@@ -1730,23 +1737,23 @@
         <v>-1.0663</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="0">
+      <c r="C35">
         <v>2018</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>0.63111086956521745</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>29</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35">
         <v>22</v>
       </c>
       <c r="G35" s="1">
@@ -1765,23 +1772,23 @@
         <v>-1.0034999999999998</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="0">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
         <v>2019</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>0.28232391304347826</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>90</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36">
         <v>90</v>
       </c>
       <c r="G36" s="1">
@@ -1800,23 +1807,23 @@
         <v>-4.9650999999999996</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="0">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
         <v>2020</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>0.25641413043478262</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>91</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37">
         <v>87</v>
       </c>
       <c r="G37" s="1">
@@ -1835,23 +1842,23 @@
         <v>-3.4811999999999999</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="0">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
         <v>2021</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>0.33189021739130437</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>90</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38">
         <v>86</v>
       </c>
       <c r="G38" s="1">
@@ -1866,25 +1873,24 @@
       <c r="J38" s="1">
         <v>44439</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="0">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
         <v>2022</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>0.32649999999999996</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>89</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39">
         <v>85</v>
       </c>
       <c r="G39" s="1">
@@ -1903,23 +1909,23 @@
         <v>-4.7894000000000005</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="0">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
         <v>2023</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>0.30431847826086955</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>86</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40">
         <v>82</v>
       </c>
       <c r="G40" s="1">
@@ -1938,23 +1944,23 @@
         <v>-2.8366000000000002</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="0">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
         <v>2008</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>0.38757391304347832</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>88</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41">
         <v>76</v>
       </c>
       <c r="G41" s="1">
@@ -1969,25 +1975,24 @@
       <c r="J41" s="1">
         <v>39691</v>
       </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="0">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
         <v>2009</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>0.43028586956521747</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>89</v>
       </c>
-      <c r="F42" s="0">
+      <c r="F42">
         <v>70</v>
       </c>
       <c r="G42" s="1">
@@ -2006,23 +2011,23 @@
         <v>-3.8238000000000003</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="0">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
         <v>2012</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>0.41329673913043485</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>92</v>
       </c>
-      <c r="F43" s="0">
+      <c r="F43">
         <v>79</v>
       </c>
       <c r="G43" s="1">
@@ -2037,25 +2042,24 @@
       <c r="J43" s="1">
         <v>41152</v>
       </c>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="0">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
         <v>2014</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>0.37857717391304346</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>92</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44">
         <v>88</v>
       </c>
       <c r="G44" s="1">
@@ -2070,25 +2074,24 @@
       <c r="J44" s="1">
         <v>41882</v>
       </c>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="0">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
         <v>2015</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>0.40331630434782612</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>79</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45">
         <v>71</v>
       </c>
       <c r="G45" s="1">
@@ -2107,23 +2110,23 @@
         <v>-3.785400000000001</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="0">
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
         <v>2016</v>
       </c>
-      <c r="D46" s="0">
+      <c r="D46">
         <v>0.34223152173913046</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46">
         <v>92</v>
       </c>
-      <c r="F46" s="0">
+      <c r="F46">
         <v>91</v>
       </c>
       <c r="G46" s="1">
@@ -2142,23 +2145,23 @@
         <v>-5.1436999999999999</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="0">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
         <v>2017</v>
       </c>
-      <c r="D47" s="0">
+      <c r="D47">
         <v>0.32269021739130432</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47">
         <v>87</v>
       </c>
-      <c r="F47" s="0">
+      <c r="F47">
         <v>86</v>
       </c>
       <c r="G47" s="1">
@@ -2173,25 +2176,24 @@
       <c r="J47" s="1">
         <v>42978</v>
       </c>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="0">
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48">
         <v>2011</v>
       </c>
-      <c r="D48" s="0">
+      <c r="D48">
         <v>0.40321630434782607</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48">
         <v>76</v>
       </c>
-      <c r="F48" s="0">
+      <c r="F48">
         <v>62</v>
       </c>
       <c r="G48" s="1">
@@ -2210,23 +2212,23 @@
         <v>-4.4698999999999991</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49">
         <v>2012</v>
       </c>
-      <c r="D49" s="0">
+      <c r="D49">
         <v>0.50563260869565219</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49">
         <v>76</v>
       </c>
-      <c r="F49" s="0">
+      <c r="F49">
         <v>25</v>
       </c>
       <c r="G49" s="1">
@@ -2245,23 +2247,23 @@
         <v>-3.1669</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50">
         <v>2013</v>
       </c>
-      <c r="D50" s="0">
+      <c r="D50">
         <v>0.61628152173913042</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50">
         <v>34</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50">
         <v>5</v>
       </c>
       <c r="G50" s="1">
@@ -2276,25 +2278,24 @@
       <c r="J50" s="1">
         <v>41488</v>
       </c>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51">
         <v>2016</v>
       </c>
-      <c r="D51" s="0">
+      <c r="D51">
         <v>0.50732934782608696</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51">
         <v>74</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51">
         <v>27</v>
       </c>
       <c r="G51" s="1">
@@ -2313,23 +2314,23 @@
         <v>-2.5517000000000003</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52">
         <v>2017</v>
       </c>
-      <c r="D52" s="0">
+      <c r="D52">
         <v>0.65490108695652172</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52">
         <v>26</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52">
         <v>5</v>
       </c>
       <c r="G52" s="1">
@@ -2348,23 +2349,23 @@
         <v>-0.68270000000000053</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53">
         <v>2018</v>
       </c>
-      <c r="D53" s="0">
+      <c r="D53">
         <v>0.62317717391304339</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53">
         <v>41</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53">
         <v>17</v>
       </c>
       <c r="G53" s="1">
@@ -2379,25 +2380,24 @@
       <c r="J53" s="1">
         <v>43326</v>
       </c>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54">
         <v>2021</v>
       </c>
-      <c r="D54" s="0">
+      <c r="D54">
         <v>0.60097934782608708</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54">
         <v>40</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54">
         <v>23</v>
       </c>
       <c r="G54" s="1">
@@ -2416,23 +2416,23 @@
         <v>-1.7025999999999986</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55">
         <v>2022</v>
       </c>
-      <c r="D55" s="0">
+      <c r="D55">
         <v>0.63119673913043473</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55">
         <v>37</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55">
         <v>6</v>
       </c>
       <c r="G55" s="1">
@@ -2451,23 +2451,23 @@
         <v>-1.5155999999999992</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="0">
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
         <v>2020</v>
       </c>
-      <c r="D56" s="0">
+      <c r="D56">
         <v>0.27986956521739126</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56">
         <v>89</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56">
         <v>89</v>
       </c>
       <c r="G56" s="1">
@@ -2482,25 +2482,24 @@
       <c r="J56" s="1">
         <v>44074</v>
       </c>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="0">
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
         <v>2022</v>
       </c>
-      <c r="D57" s="0">
+      <c r="D57">
         <v>0.18577934782608699</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57">
         <v>92</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57">
         <v>92</v>
       </c>
       <c r="G57" s="1">
@@ -2515,25 +2514,24 @@
       <c r="J57" s="1">
         <v>44804</v>
       </c>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="0">
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
         <v>2023</v>
       </c>
-      <c r="D58" s="0">
+      <c r="D58">
         <v>0.18846521739130434</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58">
         <v>92</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58">
         <v>92</v>
       </c>
       <c r="G58" s="1">
@@ -2551,24 +2549,30 @@
       <c r="K58" s="2">
         <v>-5.7208000000000006</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="L58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" s="4">
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="0">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
         <v>2011</v>
       </c>
-      <c r="D59" s="0">
+      <c r="D59">
         <v>0.42463260869565217</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59">
         <v>86</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59">
         <v>62</v>
       </c>
       <c r="G59" s="1">
@@ -2583,25 +2587,24 @@
       <c r="J59" s="1">
         <v>40786</v>
       </c>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="0">
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
         <v>2012</v>
       </c>
-      <c r="D60" s="0">
+      <c r="D60">
         <v>0.24020978260869566</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60">
         <v>92</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60">
         <v>92</v>
       </c>
       <c r="G60" s="1">
@@ -2620,23 +2623,23 @@
         <v>-6.0782000000000025</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="0">
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
         <v>2014</v>
       </c>
-      <c r="D61" s="0">
+      <c r="D61">
         <v>0.22337826086956525</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61">
         <v>88</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61">
         <v>84</v>
       </c>
       <c r="G61" s="1">
@@ -2651,25 +2654,24 @@
       <c r="J61" s="1">
         <v>41882</v>
       </c>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="0">
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
         <v>2016</v>
       </c>
-      <c r="D62" s="0">
+      <c r="D62">
         <v>0.15803586956521737</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62">
         <v>91</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62">
         <v>91</v>
       </c>
       <c r="G62" s="1">
@@ -2684,25 +2686,24 @@
       <c r="J62" s="1">
         <v>42613</v>
       </c>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63" s="0">
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
         <v>2017</v>
       </c>
-      <c r="D63" s="0">
+      <c r="D63">
         <v>0.35607065217391304</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63">
         <v>90</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63">
         <v>82</v>
       </c>
       <c r="G63" s="1">
@@ -2721,23 +2722,23 @@
         <v>-4.3351000000000006</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="0">
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
         <v>2018</v>
       </c>
-      <c r="D64" s="0">
+      <c r="D64">
         <v>0.26424673913043473</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64">
         <v>89</v>
       </c>
-      <c r="F64" s="0">
+      <c r="F64">
         <v>88</v>
       </c>
       <c r="G64" s="1">
@@ -2752,25 +2753,24 @@
       <c r="J64" s="1">
         <v>43343</v>
       </c>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65">
         <v>2019</v>
       </c>
-      <c r="D65" s="0">
+      <c r="D65">
         <v>0.37475434782608691</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65">
         <v>65</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65">
         <v>57</v>
       </c>
       <c r="G65" s="1">
@@ -2785,25 +2785,25 @@
       <c r="J65" s="1">
         <v>43708</v>
       </c>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66">
         <v>2020</v>
       </c>
-      <c r="D66" s="0">
+      <c r="D66">
         <v>0.49680652173913037</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66">
         <v>54</v>
       </c>
-      <c r="F66" s="0">
+      <c r="F66">
         <v>52</v>
       </c>
       <c r="G66" s="1">
@@ -2822,23 +2822,23 @@
         <v>-2.9407999999999994</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67">
         <v>2019</v>
       </c>
-      <c r="D67" s="0">
+      <c r="D67">
         <v>0.50184891304347834</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67">
         <v>44</v>
       </c>
-      <c r="F67" s="0">
+      <c r="F67">
         <v>37</v>
       </c>
       <c r="G67" s="1">
@@ -2857,23 +2857,23 @@
         <v>-1.4072000000000005</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68">
         <v>2022</v>
       </c>
-      <c r="D68" s="0">
+      <c r="D68">
         <v>0.6053467391304348</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68">
         <v>28</v>
       </c>
-      <c r="F68" s="0">
+      <c r="F68">
         <v>14</v>
       </c>
       <c r="G68" s="1">
@@ -2892,23 +2892,23 @@
         <v>-0.89489999999999981</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69">
         <v>2023</v>
       </c>
-      <c r="D69" s="0">
+      <c r="D69">
         <v>0.46580217391304346</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69">
         <v>51</v>
       </c>
-      <c r="F69" s="0">
+      <c r="F69">
         <v>46</v>
       </c>
       <c r="G69" s="1">
@@ -2926,24 +2926,30 @@
       <c r="K69" s="2">
         <v>-2.2556000000000012</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="L69" t="s">
+        <v>55</v>
+      </c>
+      <c r="M69" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>23</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>19</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70">
         <v>2011</v>
       </c>
-      <c r="D70" s="0">
+      <c r="D70">
         <v>0.6012891304347826</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70">
         <v>30</v>
       </c>
-      <c r="F70" s="0">
+      <c r="F70">
         <v>24</v>
       </c>
       <c r="G70" s="1">
@@ -2962,23 +2968,23 @@
         <v>-0.69979999999999976</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71">
         <v>2014</v>
       </c>
-      <c r="D71" s="0">
+      <c r="D71">
         <v>0.53765543478260858</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71">
         <v>36</v>
       </c>
-      <c r="F71" s="0">
+      <c r="F71">
         <v>34</v>
       </c>
       <c r="G71" s="1">
@@ -2997,23 +3003,23 @@
         <v>-1.3597000000000001</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72">
         <v>2017</v>
       </c>
-      <c r="D72" s="0">
+      <c r="D72">
         <v>0.62157717391304346</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72">
         <v>22</v>
       </c>
-      <c r="F72" s="0">
+      <c r="F72">
         <v>15</v>
       </c>
       <c r="G72" s="1">
@@ -3032,23 +3038,23 @@
         <v>-0.47770000000000046</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73">
         <v>2018</v>
       </c>
-      <c r="D73" s="0">
+      <c r="D73">
         <v>0.65776195652173908</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73">
         <v>24</v>
       </c>
-      <c r="F73" s="0">
+      <c r="F73">
         <v>13</v>
       </c>
       <c r="G73" s="1">
@@ -3067,23 +3073,23 @@
         <v>-0.58359999999999879</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" s="0">
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
         <v>2009</v>
       </c>
-      <c r="D74" s="0">
+      <c r="D74">
         <v>0.42923478260869563</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74">
         <v>89</v>
       </c>
-      <c r="F74" s="0">
+      <c r="F74">
         <v>53</v>
       </c>
       <c r="G74" s="1">
@@ -3102,23 +3108,23 @@
         <v>-2.5534999999999979</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="0">
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
         <v>2010</v>
       </c>
-      <c r="D75" s="0">
+      <c r="D75">
         <v>0.35169347826086961</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75">
         <v>91</v>
       </c>
-      <c r="F75" s="0">
+      <c r="F75">
         <v>84</v>
       </c>
       <c r="G75" s="1">
@@ -3137,23 +3143,23 @@
         <v>-3.3484000000000016</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="0">
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
         <v>2011</v>
       </c>
-      <c r="D76" s="0">
+      <c r="D76">
         <v>0.33280760869565224</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76">
         <v>90</v>
       </c>
-      <c r="F76" s="0">
+      <c r="F76">
         <v>85</v>
       </c>
       <c r="G76" s="1">
@@ -3172,23 +3178,23 @@
         <v>-3.0929999999999991</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>24</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="0">
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
         <v>2012</v>
       </c>
-      <c r="D77" s="0">
+      <c r="D77">
         <v>0.3653369565217392</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77">
         <v>92</v>
       </c>
-      <c r="F77" s="0">
+      <c r="F77">
         <v>87</v>
       </c>
       <c r="G77" s="1">
@@ -3207,23 +3213,23 @@
         <v>-3.3048999999999999</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="0">
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
         <v>2013</v>
       </c>
-      <c r="D78" s="0">
+      <c r="D78">
         <v>0.36507173913043484</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78">
         <v>87</v>
       </c>
-      <c r="F78" s="0">
+      <c r="F78">
         <v>86</v>
       </c>
       <c r="G78" s="1">
@@ -3242,23 +3248,23 @@
         <v>-3.4269000000000003</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="0">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
         <v>2014</v>
       </c>
-      <c r="D79" s="0">
+      <c r="D79">
         <v>0.3694010869565218</v>
       </c>
-      <c r="E79" s="0">
+      <c r="E79">
         <v>92</v>
       </c>
-      <c r="F79" s="0">
+      <c r="F79">
         <v>86</v>
       </c>
       <c r="G79" s="1">
@@ -3273,25 +3279,24 @@
       <c r="J79" s="1">
         <v>41882</v>
       </c>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="0">
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
         <v>2015</v>
       </c>
-      <c r="D80" s="0">
+      <c r="D80">
         <v>0.40827391304347826</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80">
         <v>81</v>
       </c>
-      <c r="F80" s="0">
+      <c r="F80">
         <v>72</v>
       </c>
       <c r="G80" s="1">
@@ -3310,23 +3315,23 @@
         <v>-3.2865000000000002</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="0">
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
         <v>2016</v>
       </c>
-      <c r="D81" s="0">
+      <c r="D81">
         <v>0.3818586956521739</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81">
         <v>91</v>
       </c>
-      <c r="F81" s="0">
+      <c r="F81">
         <v>80</v>
       </c>
       <c r="G81" s="1">
@@ -3345,23 +3350,23 @@
         <v>-3.6028000000000002</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82">
         <v>2009</v>
       </c>
-      <c r="D82" s="0">
+      <c r="D82">
         <v>0.50846413043478267</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82">
         <v>56</v>
       </c>
-      <c r="F82" s="0">
+      <c r="F82">
         <v>52</v>
       </c>
       <c r="G82" s="1">
@@ -3380,23 +3385,23 @@
         <v>-1.4542000000000002</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83">
         <v>2011</v>
       </c>
-      <c r="D83" s="0">
+      <c r="D83">
         <v>0.47416847826086955</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83">
         <v>80</v>
       </c>
-      <c r="F83" s="0">
+      <c r="F83">
         <v>52</v>
       </c>
       <c r="G83" s="1">
@@ -3415,23 +3420,23 @@
         <v>-2.224499999999999</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>26</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>19</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84">
         <v>2023</v>
       </c>
-      <c r="D84" s="0">
+      <c r="D84">
         <v>0.67421304347826083</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84">
         <v>25</v>
       </c>
-      <c r="F84" s="0">
+      <c r="F84">
         <v>5</v>
       </c>
       <c r="G84" s="1">
@@ -3450,23 +3455,23 @@
         <v>-0.26580000000000048</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85">
         <v>2016</v>
       </c>
-      <c r="D85" s="0">
+      <c r="D85">
         <v>0.54457065217391309</v>
       </c>
-      <c r="E85" s="0">
+      <c r="E85">
         <v>65</v>
       </c>
-      <c r="F85" s="0">
+      <c r="F85">
         <v>20</v>
       </c>
       <c r="G85" s="1">
@@ -3484,24 +3489,26 @@
       <c r="K85" s="2">
         <v>-1.8579999999999988</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="L85" s="5"/>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86">
         <v>2017</v>
       </c>
-      <c r="D86" s="0">
+      <c r="D86">
         <v>0.64213043478260878</v>
       </c>
-      <c r="E86" s="0">
+      <c r="E86">
         <v>22</v>
       </c>
-      <c r="F86" s="0">
+      <c r="F86">
         <v>15</v>
       </c>
       <c r="G86" s="1">
@@ -3520,23 +3527,23 @@
         <v>-0.80020000000000024</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="0">
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
         <v>2021</v>
       </c>
-      <c r="D87" s="0">
+      <c r="D87">
         <v>0.40265326086956521</v>
       </c>
-      <c r="E87" s="0">
+      <c r="E87">
         <v>74</v>
       </c>
-      <c r="F87" s="0">
+      <c r="F87">
         <v>70</v>
       </c>
       <c r="G87" s="1">
@@ -3555,23 +3562,23 @@
         <v>-4.3517999999999999</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="0">
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
         <v>2023</v>
       </c>
-      <c r="D88" s="0">
+      <c r="D88">
         <v>0.44108478260869566</v>
       </c>
-      <c r="E88" s="0">
+      <c r="E88">
         <v>67</v>
       </c>
-      <c r="F88" s="0">
+      <c r="F88">
         <v>59</v>
       </c>
       <c r="G88" s="1">
@@ -3586,25 +3593,30 @@
       <c r="J88" s="1">
         <v>45169</v>
       </c>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="L88" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M88" s="4">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="0">
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89">
         <v>2018</v>
       </c>
-      <c r="D89" s="0">
+      <c r="D89">
         <v>0.40748695652173911</v>
       </c>
-      <c r="E89" s="0">
+      <c r="E89">
         <v>71</v>
       </c>
-      <c r="F89" s="0">
+      <c r="F89">
         <v>66</v>
       </c>
       <c r="G89" s="1">
@@ -3623,23 +3635,23 @@
         <v>-3.0112000000000005</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90">
         <v>2008</v>
       </c>
-      <c r="D90" s="0">
+      <c r="D90">
         <v>0.42548260869565224</v>
       </c>
-      <c r="E90" s="0">
+      <c r="E90">
         <v>77</v>
       </c>
-      <c r="F90" s="0">
+      <c r="F90">
         <v>61</v>
       </c>
       <c r="G90" s="1">
@@ -3658,23 +3670,23 @@
         <v>-2.9657</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91">
         <v>2009</v>
       </c>
-      <c r="D91" s="0">
+      <c r="D91">
         <v>0.50731304347826101</v>
       </c>
-      <c r="E91" s="0">
+      <c r="E91">
         <v>61</v>
       </c>
-      <c r="F91" s="0">
+      <c r="F91">
         <v>48</v>
       </c>
       <c r="G91" s="1">
@@ -3693,23 +3705,23 @@
         <v>-1.0147999999999997</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92">
         <v>2014</v>
       </c>
-      <c r="D92" s="0">
+      <c r="D92">
         <v>0.4618521739130434</v>
       </c>
-      <c r="E92" s="0">
+      <c r="E92">
         <v>81</v>
       </c>
-      <c r="F92" s="0">
+      <c r="F92">
         <v>34</v>
       </c>
       <c r="G92" s="1">
@@ -3728,23 +3740,23 @@
         <v>-1.6818</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>30</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="0">
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93">
         <v>2019</v>
       </c>
-      <c r="D93" s="0">
+      <c r="D93">
         <v>0.46312391304347833</v>
       </c>
-      <c r="E93" s="0">
+      <c r="E93">
         <v>63</v>
       </c>
-      <c r="F93" s="0">
+      <c r="F93">
         <v>60</v>
       </c>
       <c r="G93" s="1">
@@ -3763,23 +3775,23 @@
         <v>-2.7027999999999999</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>30</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="0">
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
         <v>2021</v>
       </c>
-      <c r="D94" s="0">
+      <c r="D94">
         <v>0.58390217391304344</v>
       </c>
-      <c r="E94" s="0">
+      <c r="E94">
         <v>30</v>
       </c>
-      <c r="F94" s="0">
+      <c r="F94">
         <v>30</v>
       </c>
       <c r="G94" s="1">
@@ -3798,23 +3810,23 @@
         <v>-0.68720000000000003</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>30</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="0">
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
         <v>2022</v>
       </c>
-      <c r="D95" s="0">
+      <c r="D95">
         <v>0.44996521739130435</v>
       </c>
-      <c r="E95" s="0">
+      <c r="E95">
         <v>62</v>
       </c>
-      <c r="F95" s="0">
+      <c r="F95">
         <v>54</v>
       </c>
       <c r="G95" s="1">
@@ -3833,23 +3845,23 @@
         <v>-2.2699999999999996</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>30</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="0">
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
         <v>2023</v>
       </c>
-      <c r="D96" s="0">
+      <c r="D96">
         <v>0.44561739130434785</v>
       </c>
-      <c r="E96" s="0">
+      <c r="E96">
         <v>63</v>
       </c>
-      <c r="F96" s="0">
+      <c r="F96">
         <v>51</v>
       </c>
       <c r="G96" s="1">
@@ -3868,23 +3880,23 @@
         <v>-2.2369000000000003</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97" s="0">
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
         <v>2015</v>
       </c>
-      <c r="D97" s="0">
+      <c r="D97">
         <v>0.45288260869565222</v>
       </c>
-      <c r="E97" s="0">
+      <c r="E97">
         <v>68</v>
       </c>
-      <c r="F97" s="0">
+      <c r="F97">
         <v>59</v>
       </c>
       <c r="G97" s="1">
@@ -3903,23 +3915,23 @@
         <v>-2.3805000000000014</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>30</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="0">
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
         <v>2017</v>
       </c>
-      <c r="D98" s="0">
+      <c r="D98">
         <v>0.61517391304347813</v>
       </c>
-      <c r="E98" s="0">
+      <c r="E98">
         <v>33</v>
       </c>
-      <c r="F98" s="0">
+      <c r="F98">
         <v>27</v>
       </c>
       <c r="G98" s="1">
@@ -3938,23 +3950,23 @@
         <v>-1.0005000000000006</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99" s="0">
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
         <v>2018</v>
       </c>
-      <c r="D99" s="0">
+      <c r="D99">
         <v>0.73186630434782618</v>
       </c>
-      <c r="E99" s="0">
+      <c r="E99">
         <v>7</v>
       </c>
-      <c r="F99" s="0">
+      <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" s="1">
@@ -3963,29 +3975,27 @@
       <c r="H99" s="1">
         <v>43337</v>
       </c>
-      <c r="I99" s="0"/>
-      <c r="J99" s="0"/>
       <c r="K99" s="2">
         <v>-0.14759999999999973</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="0">
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
         <v>2022</v>
       </c>
-      <c r="D100" s="0">
+      <c r="D100">
         <v>0.62009021739130432</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100">
         <v>46</v>
       </c>
-      <c r="F100" s="0">
+      <c r="F100">
         <v>20</v>
       </c>
       <c r="G100" s="1">
@@ -4004,23 +4014,23 @@
         <v>-1.9606999999999992</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>31</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="0">
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101">
         <v>2023</v>
       </c>
-      <c r="D101" s="0">
+      <c r="D101">
         <v>0.56075326086956523</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101">
         <v>48</v>
       </c>
-      <c r="F101" s="0">
+      <c r="F101">
         <v>32</v>
       </c>
       <c r="G101" s="1">
@@ -4039,23 +4049,23 @@
         <v>-1.8667999999999996</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>32</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="0">
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102">
         <v>2019</v>
       </c>
-      <c r="D102" s="0">
+      <c r="D102">
         <v>0.55414565217391309</v>
       </c>
-      <c r="E102" s="0">
+      <c r="E102">
         <v>57</v>
       </c>
-      <c r="F102" s="0">
+      <c r="F102">
         <v>0</v>
       </c>
       <c r="G102" s="1">
@@ -4064,29 +4074,27 @@
       <c r="H102" s="1">
         <v>43708</v>
       </c>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
       <c r="K102" s="2">
         <v>-2.7294999999999998</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>32</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="0">
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
         <v>2020</v>
       </c>
-      <c r="D103" s="0">
+      <c r="D103">
         <v>0.59536304347826086</v>
       </c>
-      <c r="E103" s="0">
+      <c r="E103">
         <v>39</v>
       </c>
-      <c r="F103" s="0">
+      <c r="F103">
         <v>0</v>
       </c>
       <c r="G103" s="1">
@@ -4095,27 +4103,24 @@
       <c r="H103" s="1">
         <v>44074</v>
       </c>
-      <c r="I103" s="0"/>
-      <c r="J103" s="0"/>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>32</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="0">
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104">
         <v>2021</v>
       </c>
-      <c r="D104" s="0">
+      <c r="D104">
         <v>0.59966847826086966</v>
       </c>
-      <c r="E104" s="0">
+      <c r="E104">
         <v>24</v>
       </c>
-      <c r="F104" s="0">
+      <c r="F104">
         <v>0</v>
       </c>
       <c r="G104" s="1">
@@ -4124,29 +4129,27 @@
       <c r="H104" s="1">
         <v>44436</v>
       </c>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
       <c r="K104" s="2">
         <v>-2.4566000000000017</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>32</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105" s="0">
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105">
         <v>2022</v>
       </c>
-      <c r="D105" s="0">
+      <c r="D105">
         <v>0.61973804347826089</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105">
         <v>22</v>
       </c>
-      <c r="F105" s="0">
+      <c r="F105">
         <v>0</v>
       </c>
       <c r="G105" s="1">
@@ -4155,27 +4158,24 @@
       <c r="H105" s="1">
         <v>44794</v>
       </c>
-      <c r="I105" s="0"/>
-      <c r="J105" s="0"/>
-      <c r="K105" s="2"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>32</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="0">
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106">
         <v>2023</v>
       </c>
-      <c r="D106" s="0">
+      <c r="D106">
         <v>0.64426630434782606</v>
       </c>
-      <c r="E106" s="0">
+      <c r="E106">
         <v>27</v>
       </c>
-      <c r="F106" s="0">
+      <c r="F106">
         <v>0</v>
       </c>
       <c r="G106" s="1">
@@ -4184,29 +4184,33 @@
       <c r="H106" s="1">
         <v>45166</v>
       </c>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
       <c r="K106" s="2">
         <v>-1.4328000000000003</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+      <c r="L106" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M106" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>32</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="0">
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107">
         <v>2010</v>
       </c>
-      <c r="D107" s="0">
+      <c r="D107">
         <v>0.58258043478260868</v>
       </c>
-      <c r="E107" s="0">
+      <c r="E107">
         <v>29</v>
       </c>
-      <c r="F107" s="0">
+      <c r="F107">
         <v>0</v>
       </c>
       <c r="G107" s="1">
@@ -4215,29 +4219,27 @@
       <c r="H107" s="1">
         <v>40416</v>
       </c>
-      <c r="I107" s="0"/>
-      <c r="J107" s="0"/>
       <c r="K107" s="2">
         <v>-2.7639999999999993</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>32</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="0">
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108">
         <v>2011</v>
       </c>
-      <c r="D108" s="0">
+      <c r="D108">
         <v>0.59899673913043483</v>
       </c>
-      <c r="E108" s="0">
+      <c r="E108">
         <v>33</v>
       </c>
-      <c r="F108" s="0">
+      <c r="F108">
         <v>0</v>
       </c>
       <c r="G108" s="1">
@@ -4246,29 +4248,27 @@
       <c r="H108" s="1">
         <v>40765</v>
       </c>
-      <c r="I108" s="0"/>
-      <c r="J108" s="0"/>
       <c r="K108" s="2">
         <v>-2.8186</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>32</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="0">
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109">
         <v>2014</v>
       </c>
-      <c r="D109" s="0">
+      <c r="D109">
         <v>0.59185652173913039</v>
       </c>
-      <c r="E109" s="0">
+      <c r="E109">
         <v>35</v>
       </c>
-      <c r="F109" s="0">
+      <c r="F109">
         <v>0</v>
       </c>
       <c r="G109" s="1">
@@ -4277,29 +4277,27 @@
       <c r="H109" s="1">
         <v>41882</v>
       </c>
-      <c r="I109" s="0"/>
-      <c r="J109" s="0"/>
       <c r="K109" s="2">
         <v>-2.2934999999999981</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>32</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="0">
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
         <v>2015</v>
       </c>
-      <c r="D110" s="0">
+      <c r="D110">
         <v>0.60716739130434771</v>
       </c>
-      <c r="E110" s="0">
+      <c r="E110">
         <v>21</v>
       </c>
-      <c r="F110" s="0">
+      <c r="F110">
         <v>0</v>
       </c>
       <c r="G110" s="1">
@@ -4308,29 +4306,27 @@
       <c r="H110" s="1">
         <v>42235</v>
       </c>
-      <c r="I110" s="0"/>
-      <c r="J110" s="0"/>
       <c r="K110" s="2">
         <v>-2.0850000000000009</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>32</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="0">
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
         <v>2018</v>
       </c>
-      <c r="D111" s="0">
+      <c r="D111">
         <v>0.59852608695652165</v>
       </c>
-      <c r="E111" s="0">
+      <c r="E111">
         <v>37</v>
       </c>
-      <c r="F111" s="0">
+      <c r="F111">
         <v>0</v>
       </c>
       <c r="G111" s="1">
@@ -4339,29 +4335,27 @@
       <c r="H111" s="1">
         <v>43338</v>
       </c>
-      <c r="I111" s="0"/>
-      <c r="J111" s="0"/>
       <c r="K111" s="2">
         <v>-1.6326000000000001</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>33</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" t="s">
         <v>19</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112">
         <v>2013</v>
       </c>
-      <c r="D112" s="0">
+      <c r="D112">
         <v>0.64285326086956518</v>
       </c>
-      <c r="E112" s="0">
+      <c r="E112">
         <v>34</v>
       </c>
-      <c r="F112" s="0">
+      <c r="F112">
         <v>2</v>
       </c>
       <c r="G112" s="1">
@@ -4380,23 +4374,23 @@
         <v>-0.92319999999999958</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>33</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" t="s">
         <v>19</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113">
         <v>2014</v>
       </c>
-      <c r="D113" s="0">
+      <c r="D113">
         <v>0.60025434782608689</v>
       </c>
-      <c r="E113" s="0">
+      <c r="E113">
         <v>55</v>
       </c>
-      <c r="F113" s="0">
+      <c r="F113">
         <v>11</v>
       </c>
       <c r="G113" s="1">
@@ -4415,23 +4409,23 @@
         <v>-1.5276999999999994</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114">
         <v>2015</v>
       </c>
-      <c r="D114" s="0">
+      <c r="D114">
         <v>0.61574673913043465</v>
       </c>
-      <c r="E114" s="0">
+      <c r="E114">
         <v>40</v>
       </c>
-      <c r="F114" s="0">
+      <c r="F114">
         <v>3</v>
       </c>
       <c r="G114" s="1">
@@ -4446,25 +4440,24 @@
       <c r="J114" s="1">
         <v>42195</v>
       </c>
-      <c r="K114" s="2"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>33</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>19</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115">
         <v>2016</v>
       </c>
-      <c r="D115" s="0">
+      <c r="D115">
         <v>0.60453043478260871</v>
       </c>
-      <c r="E115" s="0">
+      <c r="E115">
         <v>55</v>
       </c>
-      <c r="F115" s="0">
+      <c r="F115">
         <v>0</v>
       </c>
       <c r="G115" s="1">
@@ -4473,29 +4466,27 @@
       <c r="H115" s="1">
         <v>42613</v>
       </c>
-      <c r="I115" s="0"/>
-      <c r="J115" s="0"/>
       <c r="K115" s="2">
         <v>-1.2942</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>33</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116">
         <v>2017</v>
       </c>
-      <c r="D116" s="0">
+      <c r="D116">
         <v>0.65327826086956509</v>
       </c>
-      <c r="E116" s="0">
+      <c r="E116">
         <v>30</v>
       </c>
-      <c r="F116" s="0">
+      <c r="F116">
         <v>8</v>
       </c>
       <c r="G116" s="1">
@@ -4514,23 +4505,23 @@
         <v>-0.76660000000000039</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117">
         <v>2018</v>
       </c>
-      <c r="D117" s="0">
+      <c r="D117">
         <v>0.66366630434782603</v>
       </c>
-      <c r="E117" s="0">
+      <c r="E117">
         <v>25</v>
       </c>
-      <c r="F117" s="0">
+      <c r="F117">
         <v>10</v>
       </c>
       <c r="G117" s="1">
@@ -4549,23 +4540,23 @@
         <v>-0.87870000000000026</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>34</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" t="s">
         <v>19</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118">
         <v>2022</v>
       </c>
-      <c r="D118" s="0">
+      <c r="D118">
         <v>0.41262065217391308</v>
       </c>
-      <c r="E118" s="0">
+      <c r="E118">
         <v>69</v>
       </c>
-      <c r="F118" s="0">
+      <c r="F118">
         <v>59</v>
       </c>
       <c r="G118" s="1">
@@ -4584,23 +4575,23 @@
         <v>-2.8203000000000005</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>19</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119">
         <v>2023</v>
       </c>
-      <c r="D119" s="0">
+      <c r="D119">
         <v>0.39334021739130426</v>
       </c>
-      <c r="E119" s="0">
+      <c r="E119">
         <v>62</v>
       </c>
-      <c r="F119" s="0">
+      <c r="F119">
         <v>58</v>
       </c>
       <c r="G119" s="1">
@@ -4620,87 +4611,83 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L119"/>
+  <autoFilter ref="A1:A119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="true"/>
-    <col min="3" max="3" width="5" customWidth="true"/>
-    <col min="4" max="4" width="4.5546875" customWidth="true"/>
-    <col min="5" max="5" width="12.5546875" customWidth="true"/>
-    <col min="6" max="6" width="14.88671875" customWidth="true"/>
-    <col min="7" max="7" width="14.77734375" customWidth="true"/>
-    <col min="8" max="8" width="15.5546875" customWidth="true"/>
-    <col min="2" max="2" width="8.88671875" customWidth="true"/>
-    <col min="9" max="9" width="15.5546875" customWidth="true"/>
-    <col min="10" max="10" width="15.5546875" customWidth="true"/>
-    <col min="11" max="11" width="15.5546875" customWidth="true"/>
+    <col min="1" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>2019</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>45</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>0.47567486063496944</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>87</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>50</v>
       </c>
       <c r="H2" s="1">
@@ -4716,26 +4703,26 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>2020</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>32</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>0.51305969713828514</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>79</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>30</v>
       </c>
       <c r="H3" s="1">
@@ -4751,55 +4738,52 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>2021</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>29</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>0.53745345106869935</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>77</v>
       </c>
-      <c r="G4" s="0"/>
       <c r="H4" s="1">
         <v>44354</v>
       </c>
       <c r="I4" s="1">
         <v>44431</v>
       </c>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>2022</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>33</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>0.56549905761606767</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>80</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" s="1">
@@ -4815,26 +4799,26 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="0">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>2023</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>22</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>0.60710955311483294</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>41</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" s="1">
@@ -4850,26 +4834,26 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>2019</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>36</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>0.47104353183886655</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>64</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>55</v>
       </c>
       <c r="H7" s="1">
@@ -4885,26 +4869,26 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="0">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>2023</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>61</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>0.4489676512729292</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>65</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>63</v>
       </c>
       <c r="H8" s="1">
@@ -4920,26 +4904,26 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>2020</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>17</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>0.45641079469673795</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>57</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>41</v>
       </c>
       <c r="H9" s="1">
@@ -4955,26 +4939,26 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>2021</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>0.39513549359533934</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>54</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>38</v>
       </c>
       <c r="H10" s="1">
@@ -4990,26 +4974,26 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>2022</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>25</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>0.45654675372350212</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>43</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>36</v>
       </c>
       <c r="H11" s="1">
@@ -5025,26 +5009,26 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>2019</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>0.38780155223999169</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>82</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>54</v>
       </c>
       <c r="H12" s="1">
@@ -5060,26 +5044,26 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>2020</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>0.43837029347337797</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>64</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>36</v>
       </c>
       <c r="H13" s="1">
@@ -5095,26 +5079,26 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>2023</v>
       </c>
-      <c r="D14" s="0">
+      <c r="D14">
         <v>12</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14">
         <v>0.51601284667601188</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>49</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>9</v>
       </c>
       <c r="H14" s="1">
@@ -5130,26 +5114,26 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="0">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
         <v>2019</v>
       </c>
-      <c r="D15" s="0">
+      <c r="D15">
         <v>30</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15">
         <v>0.36036658121113979</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15">
         <v>89</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>89</v>
       </c>
       <c r="H15" s="1">
@@ -5165,26 +5149,26 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="0">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
         <v>2020</v>
       </c>
-      <c r="D16" s="0">
+      <c r="D16">
         <v>21</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16">
         <v>0.32084920252497712</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16">
         <v>71</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>71</v>
       </c>
       <c r="H16" s="1">
@@ -5200,26 +5184,26 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="0">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
         <v>2021</v>
       </c>
-      <c r="D17" s="0">
+      <c r="D17">
         <v>19</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17">
         <v>0.37189658000751563</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17">
         <v>90</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>88</v>
       </c>
       <c r="H17" s="1">
@@ -5235,26 +5219,26 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="0">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
         <v>2022</v>
       </c>
-      <c r="D18" s="0">
+      <c r="D18">
         <v>21</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18">
         <v>0.34985065850530361</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18">
         <v>88</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>80</v>
       </c>
       <c r="H18" s="1">
@@ -5270,26 +5254,26 @@
         <v>44801</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="0">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
         <v>2023</v>
       </c>
-      <c r="D19" s="0">
+      <c r="D19">
         <v>19</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19">
         <v>0.27055634307359394</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>70</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>69</v>
       </c>
       <c r="H19" s="1">
@@ -5305,26 +5289,26 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>2021</v>
       </c>
-      <c r="D20" s="0">
-        <v>9</v>
-      </c>
-      <c r="E20" s="0">
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
         <v>0.51439224233594194</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20">
         <v>38</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>22</v>
       </c>
       <c r="H20" s="1">
@@ -5340,26 +5324,26 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>2022</v>
       </c>
-      <c r="D21" s="0">
+      <c r="D21">
         <v>15</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21">
         <v>0.54071217848817499</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>54</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>12</v>
       </c>
       <c r="H21" s="1">
@@ -5375,26 +5359,26 @@
         <v>44773</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="0">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
         <v>2020</v>
       </c>
-      <c r="D22" s="0">
+      <c r="D22">
         <v>14</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22">
         <v>0.21283305636691363</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>65</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>65</v>
       </c>
       <c r="H22" s="1">
@@ -5410,26 +5394,26 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="0">
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
         <v>2022</v>
       </c>
-      <c r="D23" s="0">
+      <c r="D23">
         <v>29</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23">
         <v>0.22858339832132657</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>80</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>80</v>
       </c>
       <c r="H23" s="1">
@@ -5445,26 +5429,26 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="0">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
         <v>2023</v>
       </c>
-      <c r="D24" s="0">
+      <c r="D24">
         <v>27</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24">
         <v>0.21196616336339866</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>80</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>80</v>
       </c>
       <c r="H24" s="1">
@@ -5480,26 +5464,26 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>2019</v>
       </c>
-      <c r="D25" s="0">
+      <c r="D25">
         <v>22</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25">
         <v>0.35709541281275453</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>68</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>55</v>
       </c>
       <c r="H25" s="1">
@@ -5515,26 +5499,26 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>2020</v>
       </c>
-      <c r="D26" s="0">
+      <c r="D26">
         <v>14</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26">
         <v>0.35443616304026826</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>47</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>47</v>
       </c>
       <c r="H26" s="1">
@@ -5550,26 +5534,26 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>2019</v>
       </c>
-      <c r="D27" s="0">
+      <c r="D27">
         <v>18</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27">
         <v>0.39629458904656822</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <v>45</v>
       </c>
-      <c r="G27" s="0">
+      <c r="G27">
         <v>30</v>
       </c>
       <c r="H27" s="1">
@@ -5585,26 +5569,26 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>2022</v>
       </c>
-      <c r="D28" s="0">
+      <c r="D28">
         <v>14</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28">
         <v>0.52945359209037957</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <v>22</v>
       </c>
-      <c r="G28" s="0">
+      <c r="G28">
         <v>15</v>
       </c>
       <c r="H28" s="1">
@@ -5620,26 +5604,26 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>2023</v>
       </c>
-      <c r="D29" s="0">
+      <c r="D29">
         <v>23</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29">
         <v>0.38438005868538772</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29">
         <v>47</v>
       </c>
-      <c r="G29" s="0">
+      <c r="G29">
         <v>36</v>
       </c>
       <c r="H29" s="1">
@@ -5655,26 +5639,26 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>2023</v>
       </c>
-      <c r="D30" s="0">
+      <c r="D30">
         <v>18</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30">
         <v>0.59367553879627954</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30">
         <v>28</v>
       </c>
-      <c r="G30" s="0">
+      <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" s="1">
@@ -5690,26 +5674,26 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="0">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
         <v>2021</v>
       </c>
-      <c r="D31" s="0">
+      <c r="D31">
         <v>27</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31">
         <v>0.32207190170856076</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31">
         <v>88</v>
       </c>
-      <c r="G31" s="0">
+      <c r="G31">
         <v>75</v>
       </c>
       <c r="H31" s="1">
@@ -5725,26 +5709,26 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="0">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32">
         <v>2023</v>
       </c>
-      <c r="D32" s="0">
+      <c r="D32">
         <v>37</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32">
         <v>0.35239574129066631</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32">
         <v>73</v>
       </c>
-      <c r="G32" s="0">
+      <c r="G32">
         <v>62</v>
       </c>
       <c r="H32" s="1">
@@ -5760,26 +5744,26 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="0">
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33">
         <v>2019</v>
       </c>
-      <c r="D33" s="0">
+      <c r="D33">
         <v>38</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33">
         <v>0.40333908087320036</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33">
         <v>70</v>
       </c>
-      <c r="G33" s="0">
+      <c r="G33">
         <v>68</v>
       </c>
       <c r="H33" s="1">
@@ -5795,26 +5779,26 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="0">
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
         <v>2021</v>
       </c>
-      <c r="D34" s="0">
+      <c r="D34">
         <v>29</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34">
         <v>0.54335218073810487</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34">
         <v>69</v>
       </c>
-      <c r="G34" s="0">
+      <c r="G34">
         <v>19</v>
       </c>
       <c r="H34" s="1">
@@ -5830,26 +5814,26 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="0">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
         <v>2022</v>
       </c>
-      <c r="D35" s="0">
+      <c r="D35">
         <v>45</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35">
         <v>0.42626558405624221</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35">
         <v>64</v>
       </c>
-      <c r="G35" s="0">
+      <c r="G35">
         <v>53</v>
       </c>
       <c r="H35" s="1">
@@ -5865,26 +5849,26 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="0">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
         <v>2023</v>
       </c>
-      <c r="D36" s="0">
+      <c r="D36">
         <v>32</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36">
         <v>0.41564547914712857</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36">
         <v>50</v>
       </c>
-      <c r="G36" s="0">
+      <c r="G36">
         <v>44</v>
       </c>
       <c r="H36" s="1">
@@ -5900,26 +5884,26 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="0">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
         <v>2022</v>
       </c>
-      <c r="D37" s="0">
+      <c r="D37">
         <v>50</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37">
         <v>0.47663994140465066</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37">
         <v>64</v>
       </c>
-      <c r="G37" s="0">
+      <c r="G37">
         <v>44</v>
       </c>
       <c r="H37" s="1">
@@ -5935,26 +5919,26 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="0">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38">
         <v>2023</v>
       </c>
-      <c r="D38" s="0">
+      <c r="D38">
         <v>41</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38">
         <v>0.49545508480662021</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38">
         <v>56</v>
       </c>
-      <c r="G38" s="0">
+      <c r="G38">
         <v>35</v>
       </c>
       <c r="H38" s="1">
@@ -5970,26 +5954,26 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="0">
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39">
         <v>2019</v>
       </c>
-      <c r="D39" s="0">
+      <c r="D39">
         <v>50</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39">
         <v>0.57850707275492441</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39">
         <v>72</v>
       </c>
-      <c r="G39" s="0">
+      <c r="G39">
         <v>0</v>
       </c>
       <c r="H39" s="1">
@@ -6005,55 +5989,52 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="0">
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
         <v>2020</v>
       </c>
-      <c r="D40" s="0">
+      <c r="D40">
         <v>36</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40">
         <v>0.61085465733962907</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40">
         <v>38</v>
       </c>
-      <c r="G40" s="0"/>
       <c r="H40" s="1">
         <v>44019</v>
       </c>
       <c r="I40" s="1">
         <v>44057</v>
       </c>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="0">
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
         <v>2021</v>
       </c>
-      <c r="D41" s="0">
+      <c r="D41">
         <v>32</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41">
         <v>0.61454055821360876</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41">
         <v>62</v>
       </c>
-      <c r="G41" s="0">
+      <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" s="1">
@@ -6069,84 +6050,78 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="0">
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
         <v>2022</v>
       </c>
-      <c r="D42" s="0">
+      <c r="D42">
         <v>33</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42">
         <v>0.63633795025049134</v>
       </c>
-      <c r="F42" s="0">
+      <c r="F42">
         <v>17</v>
       </c>
-      <c r="G42" s="0"/>
       <c r="H42" s="1">
         <v>44757</v>
       </c>
       <c r="I42" s="1">
         <v>44774</v>
       </c>
-      <c r="J42" s="0"/>
-      <c r="K42" s="0"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="0">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
         <v>2023</v>
       </c>
-      <c r="D43" s="0">
+      <c r="D43">
         <v>26</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43">
         <v>0.59448240458833479</v>
       </c>
-      <c r="F43" s="0">
+      <c r="F43">
         <v>55</v>
       </c>
-      <c r="G43" s="0"/>
       <c r="H43" s="1">
         <v>45110</v>
       </c>
       <c r="I43" s="1">
         <v>45165</v>
       </c>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44">
         <v>2022</v>
       </c>
-      <c r="D44" s="0">
+      <c r="D44">
         <v>35</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44">
         <v>0.43726600019400319</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44">
         <v>84</v>
       </c>
-      <c r="G44" s="0">
+      <c r="G44">
         <v>59</v>
       </c>
       <c r="H44" s="1">
@@ -6162,26 +6137,26 @@
         <v>44800</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45">
         <v>2023</v>
       </c>
-      <c r="D45" s="0">
+      <c r="D45">
         <v>42</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45">
         <v>0.36338917038608642</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45">
         <v>60</v>
       </c>
-      <c r="G45" s="0">
+      <c r="G45">
         <v>58</v>
       </c>
       <c r="H45" s="1">
@@ -6203,32 +6178,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="true"/>
-    <col min="2" max="2" width="9.7109375" customWidth="true"/>
-    <col min="3" max="3" width="5.140625" customWidth="true"/>
-    <col min="4" max="7" width="15.85546875" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="16.5703125" customWidth="true"/>
-    <col min="10" max="10" width="7.28515625" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="14.42578125" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
-    <col min="14" max="14" width="16.5703125" customWidth="true"/>
-    <col min="15" max="15" width="7.140625" customWidth="true"/>
-    <col min="16" max="16" width="12.7109375" customWidth="true"/>
-    <col min="17" max="17" width="8.42578125" customWidth="true"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" customWidth="1"/>
+    <col min="4" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6281,7 +6256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -6334,7 +6309,7 @@
         <v>-0.86789999999999878</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -6387,7 +6362,7 @@
         <v>-7.0299999999999585E-2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6440,7 +6415,7 @@
         <v>-4.7788999999999984</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6487,7 +6462,7 @@
         <v>-3.4830999999999994</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6534,7 +6509,7 @@
         <v>-3.2022999999999993</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6587,7 +6562,7 @@
         <v>-0.59309999999999974</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6640,7 +6615,7 @@
         <v>-2.3020999999999994</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -6693,7 +6668,7 @@
         <v>-3.0942999999999987</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6746,7 +6721,7 @@
         <v>-2.1143999999999998</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +6774,7 @@
         <v>-1.5666000000000011</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6852,7 +6827,7 @@
         <v>-1.0312999999999999</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -6905,7 +6880,7 @@
         <v>-4.1532999999999998</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6958,7 +6933,7 @@
         <v>-3.2462</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -7011,7 +6986,7 @@
         <v>-2.0600999999999985</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7064,7 +7039,7 @@
         <v>-4.9650999999999996</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -7117,7 +7092,7 @@
         <v>-3.4811999999999999</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7170,7 +7145,7 @@
         <v>-4.7894000000000005</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7223,7 +7198,7 @@
         <v>-2.8366000000000002</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7267,7 +7242,7 @@
         <v>-2.4859000000000009</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7320,7 +7295,7 @@
         <v>-1.3166999999999991</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -7373,7 +7348,7 @@
         <v>-1.7025999999999986</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7426,7 +7401,7 @@
         <v>-1.5155999999999992</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -7479,7 +7454,7 @@
         <v>-1.3956999999999997</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7507,7 @@
         <v>-4.3207000000000004</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -7585,7 +7560,7 @@
         <v>-5.7208000000000006</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -7638,7 +7613,7 @@
         <v>-2.9407999999999994</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -7691,7 +7666,7 @@
         <v>-3.214100000000002</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -7744,7 +7719,7 @@
         <v>-1.4072000000000005</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -7797,7 +7772,7 @@
         <v>-0.51839999999999975</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -7850,7 +7825,7 @@
         <v>-0.89489999999999981</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -7903,7 +7878,7 @@
         <v>-2.2556000000000012</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -7956,7 +7931,7 @@
         <v>-0.26580000000000048</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -8009,7 +7984,7 @@
         <v>-4.3517999999999999</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -8062,7 +8037,7 @@
         <v>-3.6709999999999994</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -8115,7 +8090,7 @@
         <v>-2.7027999999999999</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -8168,7 +8143,7 @@
         <v>-1.7479000000000002</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -8221,7 +8196,7 @@
         <v>-0.68720000000000003</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -8274,7 +8249,7 @@
         <v>-2.2699999999999996</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -8327,7 +8302,7 @@
         <v>-2.2369000000000003</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -8380,7 +8355,7 @@
         <v>-1.9606999999999992</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -8433,7 +8408,7 @@
         <v>-1.8667999999999996</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -8483,7 +8458,7 @@
         <v>-9.4899999999999096E-2</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -8536,7 +8511,7 @@
         <v>-2.1368000000000009</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -8589,7 +8564,7 @@
         <v>-3.0686</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -8636,7 +8611,7 @@
         <v>-1.6073999999999984</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -8686,7 +8661,7 @@
         <v>-1.2538999999999998</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -8739,7 +8714,7 @@
         <v>1.7972000000000001</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -8792,7 +8767,7 @@
         <v>-2.8203000000000005</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>

--- a/stat/icestats.xlsx
+++ b/stat/icestats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D387784-7076-4C7C-87A7-0E7F079737C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="3855" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10830" yWindow="3855" windowWidth="28800" windowHeight="15285"/>
   </bookViews>
   <sheets>
     <sheet name="AWS" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="ablation" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AWS!$A$1:$A$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">AWS!$A$1:$A$119</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="815" uniqueCount="58">
   <si>
     <t>aws</t>
   </si>
@@ -210,12 +210,15 @@
   <si>
     <t>low</t>
   </si>
+  <si>
+    <t>albedo_ice</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -255,11 +258,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,7 +281,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -429,7 +432,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -453,9 +456,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -479,7 +482,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -514,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -532,7 +535,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -557,7 +560,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -573,4121 +576,4510 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="16.140625" customWidth="true"/>
+    <col min="11" max="11" width="15.85546875" style="2" customWidth="true"/>
+    <col min="13" max="13" width="15.85546875" style="3" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="9.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.85546875" customWidth="true"/>
+    <col min="9" max="9" width="15.85546875" customWidth="true"/>
+    <col min="10" max="10" width="15.85546875" customWidth="true"/>
+    <col min="12" max="12" width="8.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0">
         <v>2019</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>0.491566304347826</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
+        <v>0.48132499999999989</v>
+      </c>
+      <c r="F2" s="0">
         <v>84</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="0">
         <v>22</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>43617</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>43708</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>43652</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>43684</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="0">
         <v>-4.7788999999999984</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0">
         <v>2020</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>0.53922391304347828</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
+        <v>0.50555890410958904</v>
+      </c>
+      <c r="F3" s="0">
         <v>73</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="0">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>43984</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>44074</v>
-      </c>
-      <c r="I3" s="1">
-        <v>44031</v>
       </c>
       <c r="J3" s="1">
         <v>44031</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
+        <v>44031</v>
+      </c>
+      <c r="L3" s="0">
         <v>-3.4830999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0">
         <v>2021</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>0.52518369565217393</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
+        <v>0.49350666666666676</v>
+      </c>
+      <c r="F4" s="0">
         <v>75</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="0">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>44350</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>44436</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>44395</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>44425</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="L4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0">
         <v>2022</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>0.56256086956521745</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
+        <v>0.51032063492063484</v>
+      </c>
+      <c r="F5" s="0">
         <v>63</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="0">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>44737</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>44803</v>
-      </c>
-      <c r="I5" s="1">
-        <v>44776</v>
       </c>
       <c r="J5" s="1">
         <v>44776</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
+        <v>44776</v>
+      </c>
+      <c r="L5" s="0">
         <v>-3.2022999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0">
         <v>2023</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>0.59154456521739129</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="F6" s="0">
         <v>49</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="0">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>45090</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>45168</v>
       </c>
-      <c r="K6" s="2">
+      <c r="J6" s="0"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="0">
         <v>-3.051000000000001</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0">
         <v>2009</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>0.55338804347826087</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
+        <v>0.5215298245614034</v>
+      </c>
+      <c r="F7" s="0">
         <v>57</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="0">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>39966</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>40053</v>
       </c>
-      <c r="K7" s="2">
+      <c r="J7" s="0"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="0">
         <v>-2.9801000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0">
         <v>2010</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>0.49093804347826087</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
+        <v>0.48808888888888896</v>
+      </c>
+      <c r="F8" s="0">
         <v>90</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="0">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>40330</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>40421</v>
-      </c>
-      <c r="I8" s="1">
-        <v>40388</v>
       </c>
       <c r="J8" s="1">
         <v>40388</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
+        <v>40388</v>
+      </c>
+      <c r="L8" s="0">
         <v>-4.2053000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0">
         <v>2011</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>0.50405326086956526</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
+        <v>0.49432093023255813</v>
+      </c>
+      <c r="F9" s="0">
         <v>86</v>
       </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="G9" s="0">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1">
         <v>40699</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>40786</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>40750</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>40785</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="L9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0">
         <v>2012</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>0.4880706521739131</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
+        <v>0.47716265060240964</v>
+      </c>
+      <c r="F10" s="0">
         <v>83</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="0">
         <v>25</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>41061</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>41152</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>41079</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>41142</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="L10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0">
         <v>2013</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>0.5866152173913044</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
+        <v>0.52817799999999993</v>
+      </c>
+      <c r="F11" s="0">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="0">
         <v>0</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>41431</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>41501</v>
       </c>
-      <c r="K11" s="2">
+      <c r="J11" s="0"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="0">
         <v>-2.7604000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0">
         <v>2014</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>0.50849456521739134</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
+        <v>0.49777439024390246</v>
+      </c>
+      <c r="F12" s="0">
         <v>82</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="0">
         <v>5</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>41792</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>41881</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>41828</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>41848</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="0">
         <v>-4.0956999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0">
         <v>2015</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>0.56099456521739133</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
+        <v>0.51494716981132083</v>
+      </c>
+      <c r="F13" s="0">
         <v>53</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="0">
         <v>0</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>42174</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>42247</v>
       </c>
-      <c r="K13" s="2">
+      <c r="J13" s="0"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="0">
         <v>-2.2821999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0">
         <v>2016</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>0.51915000000000011</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
+        <v>0.50246867469879519</v>
+      </c>
+      <c r="F14" s="0">
         <v>83</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="0">
         <v>6</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>42527</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>42613</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>42545</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>42572</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="L14" s="0"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0">
         <v>2017</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>0.53222282608695648</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
+        <v>0.48252089552238814</v>
+      </c>
+      <c r="F15" s="0">
         <v>67</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="0">
         <v>20</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>42889</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>42978</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>42911</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>42960</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="0">
         <v>-3.2961999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0">
         <v>2018</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>0.55224999999999991</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
+        <v>0.52376716417910452</v>
+      </c>
+      <c r="F16" s="0">
         <v>67</v>
       </c>
-      <c r="F16">
+      <c r="G16" s="0">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>43256</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>43340</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="J16" s="0"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>2019</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>0.54152826086956518</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
+        <v>0.42778852459016398</v>
+      </c>
+      <c r="F17" s="0">
         <v>61</v>
       </c>
-      <c r="F17">
+      <c r="G17" s="0">
         <v>40</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>43630</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>43698</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>43633</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>43696</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="0">
         <v>-0.59309999999999974</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>2012</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>0.45635434782608697</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
+        <v>0.38851690140845074</v>
+      </c>
+      <c r="F18" s="0">
         <v>71</v>
       </c>
-      <c r="F18">
+      <c r="G18" s="0">
         <v>60</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>41077</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>41152</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>41079</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>41144</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L18" s="0">
         <v>-2.1121999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>2013</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>0.65046304347826089</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
+        <v>0.45549999999999996</v>
+      </c>
+      <c r="F19" s="0">
         <v>27</v>
       </c>
-      <c r="F19">
+      <c r="G19" s="0">
         <v>12</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>41475</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>41501</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>41479</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>41500</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L19" s="0">
         <v>-0.82730000000000103</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>2016</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>0.43327282608695644</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
+        <v>0.38893924050632911</v>
+      </c>
+      <c r="F20" s="0">
         <v>79</v>
       </c>
-      <c r="F20">
+      <c r="G20" s="0">
         <v>65</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>42529</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>42613</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>42530</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>42613</v>
       </c>
-      <c r="K20" s="2">
+      <c r="L20" s="0">
         <v>-2.2245999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>2017</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>0.66845652173913039</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
+        <v>0.4820947368421053</v>
+      </c>
+      <c r="F21" s="0">
         <v>19</v>
       </c>
-      <c r="F21">
+      <c r="G21" s="0">
         <v>5</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>42939</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>42978</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>42957</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>42978</v>
       </c>
-      <c r="K21" s="2">
+      <c r="L21" s="0">
         <v>-0.43050000000000033</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>2018</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>0.62830978260869563</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
+        <v>0.40075714285714276</v>
+      </c>
+      <c r="F22" s="0">
         <v>28</v>
       </c>
-      <c r="F22">
+      <c r="G22" s="0">
         <v>19</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>43270</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>43332</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>43296</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>43328</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="L22" s="0"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0">
         <v>2023</v>
       </c>
-      <c r="E23">
+      <c r="D23" s="0"/>
+      <c r="E23" s="0">
+        <v>0.36130235294117652</v>
+      </c>
+      <c r="F23" s="0">
         <v>85</v>
       </c>
-      <c r="F23">
+      <c r="G23" s="0">
         <v>64</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>45078</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>45165</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>45102</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>45165</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L23" s="0">
         <v>-3.0942999999999987</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>2020</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>0.55803478260869577</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
+        <v>0.41314651162790705</v>
+      </c>
+      <c r="F24" s="0">
         <v>43</v>
       </c>
-      <c r="F24">
+      <c r="G24" s="0">
         <v>27</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>44030</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>44074</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>44047</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>44074</v>
       </c>
-      <c r="K24" s="2">
+      <c r="L24" s="0">
         <v>-2.1143999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>2021</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>0.49706739130434785</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
+        <v>0.29374047619047616</v>
+      </c>
+      <c r="F25" s="0">
         <v>42</v>
       </c>
-      <c r="F25">
+      <c r="G25" s="0">
         <v>38</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>44398</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>44439</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>44402</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>44439</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="L25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>2022</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>0.50639130434782598</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
+        <v>0.37026739130434783</v>
+      </c>
+      <c r="F26" s="0">
         <v>46</v>
       </c>
-      <c r="F26">
+      <c r="G26" s="0">
         <v>38</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>44759</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>44804</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>44766</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>44804</v>
       </c>
-      <c r="K26" s="2">
+      <c r="L26" s="0">
         <v>-1.5666000000000011</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>2011</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>0.55529565217391319</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
+        <v>0.41674750000000005</v>
+      </c>
+      <c r="F27" s="0">
         <v>40</v>
       </c>
-      <c r="F27">
+      <c r="G27" s="0">
         <v>28</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>40747</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>40786</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>40748</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>40786</v>
       </c>
-      <c r="K27" s="2">
+      <c r="L27" s="0">
         <v>-1.1469</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>2012</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>0.52450326086956522</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
+        <v>0.33467954545454542</v>
+      </c>
+      <c r="F28" s="0">
         <v>44</v>
       </c>
-      <c r="F28">
+      <c r="G28" s="0">
         <v>40</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>41109</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>41152</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>41111</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>41152</v>
       </c>
-      <c r="K28" s="2">
+      <c r="L28" s="0">
         <v>-0.1243000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>2014</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>0.424713043478261</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
+        <v>0.25906428571428569</v>
+      </c>
+      <c r="F29" s="0">
         <v>56</v>
       </c>
-      <c r="F29">
+      <c r="G29" s="0">
         <v>51</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>41827</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>41882</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>41832</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>41882</v>
       </c>
-      <c r="K29" s="2">
+      <c r="L29" s="0">
         <v>-2.4346999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>2019</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>0.41806413043478263</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
+        <v>0.31602923076923073</v>
+      </c>
+      <c r="F30" s="0">
         <v>65</v>
       </c>
-      <c r="F30">
+      <c r="G30" s="0">
         <v>63</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>43640</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>43708</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>43641</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>43708</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L30" s="0">
         <v>-4.1532999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>2020</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>0.51787173913043472</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
+        <v>0.31962857142857143</v>
+      </c>
+      <c r="F31" s="0">
         <v>42</v>
       </c>
-      <c r="F31">
+      <c r="G31" s="0">
         <v>40</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>44032</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>44074</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>44033</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>44074</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="L31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>2023</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>0.55324130434782604</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
+        <v>0.41716666666666669</v>
+      </c>
+      <c r="F32" s="0">
         <v>51</v>
       </c>
-      <c r="F32">
+      <c r="G32" s="0">
         <v>41</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>45117</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>45167</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>45119</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>45167</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L32" s="0">
         <v>-2.0600999999999985</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>2016</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>0.40851847826086951</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
+        <v>0.33842702702702698</v>
+      </c>
+      <c r="F33" s="0">
         <v>74</v>
       </c>
-      <c r="F33">
+      <c r="G33" s="0">
         <v>65</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>42535</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>42613</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>42543</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>42613</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L33" s="0">
         <v>-2.8190000000000008</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>2017</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0">
         <v>0.5666978260869564</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
+        <v>0.38741428571428571</v>
+      </c>
+      <c r="F34" s="0">
         <v>35</v>
       </c>
-      <c r="F34">
+      <c r="G34" s="0">
         <v>28</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>42944</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>42978</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>42950</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>42978</v>
       </c>
-      <c r="K34" s="2">
+      <c r="L34" s="0">
         <v>-1.0663</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>2018</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0">
         <v>0.63111086956521745</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
+        <v>0.42314482758620686</v>
+      </c>
+      <c r="F35" s="0">
         <v>29</v>
       </c>
-      <c r="F35">
+      <c r="G35" s="0">
         <v>22</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>43300</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>43333</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>43300</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>43332</v>
       </c>
-      <c r="K35" s="2">
+      <c r="L35" s="0">
         <v>-1.0034999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="0">
         <v>2019</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0">
         <v>0.28232391304347826</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
+        <v>0.27459555555555554</v>
+      </c>
+      <c r="F36" s="0">
         <v>90</v>
       </c>
-      <c r="F36">
+      <c r="G36" s="0">
         <v>90</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>43617</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>43708</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>43617</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>43708</v>
       </c>
-      <c r="K36" s="2">
+      <c r="L36" s="0">
         <v>-4.9650999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0">
         <v>2020</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0">
         <v>0.25641413043478262</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
+        <v>0.25272307692307688</v>
+      </c>
+      <c r="F37" s="0">
         <v>91</v>
       </c>
-      <c r="F37">
+      <c r="G37" s="0">
         <v>87</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>43983</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>44074</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>43983</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>44074</v>
       </c>
-      <c r="K37" s="2">
+      <c r="L37" s="0">
         <v>-3.4811999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0">
         <v>2021</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0">
         <v>0.33189021739130437</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
+        <v>0.32524222222222221</v>
+      </c>
+      <c r="F38" s="0">
         <v>90</v>
       </c>
-      <c r="F38">
+      <c r="G38" s="0">
         <v>86</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>44349</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>44439</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <v>44351</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>44439</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="L38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0">
         <v>2022</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>0.32649999999999996</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
+        <v>0.31694494382022464</v>
+      </c>
+      <c r="F39" s="0">
         <v>89</v>
       </c>
-      <c r="F39">
+      <c r="G39" s="0">
         <v>85</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>44713</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>44803</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>44715</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>44803</v>
       </c>
-      <c r="K39" s="2">
+      <c r="L39" s="0">
         <v>-4.7894000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="0">
         <v>2023</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>0.30431847826086955</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
+        <v>0.2730139534883721</v>
+      </c>
+      <c r="F40" s="0">
         <v>86</v>
       </c>
-      <c r="F40">
+      <c r="G40" s="0">
         <v>82</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>45078</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>45169</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>45080</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>45169</v>
       </c>
-      <c r="K40" s="2">
+      <c r="L40" s="0">
         <v>-2.8366000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0">
         <v>2008</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>0.38757391304347832</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
+        <v>0.37228409090909093</v>
+      </c>
+      <c r="F41" s="0">
         <v>88</v>
       </c>
-      <c r="F41">
+      <c r="G41" s="0">
         <v>76</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>39600</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>39691</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>39601</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>39691</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="L41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="0">
         <v>2009</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>0.43028586956521747</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
+        <v>0.42092471910112361</v>
+      </c>
+      <c r="F42" s="0">
         <v>89</v>
       </c>
-      <c r="F42">
+      <c r="G42" s="0">
         <v>70</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>39965</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>40056</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>39966</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>40056</v>
       </c>
-      <c r="K42" s="2">
+      <c r="L42" s="0">
         <v>-3.8238000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="0">
         <v>2012</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>0.41329673913043485</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
+        <v>0.41329673913043485</v>
+      </c>
+      <c r="F43" s="0">
         <v>92</v>
       </c>
-      <c r="F43">
+      <c r="G43" s="0">
         <v>79</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>41061</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>41152</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>41061</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>41152</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="L43" s="0"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="0">
         <v>2014</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>0.37857717391304346</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
+        <v>0.37857717391304346</v>
+      </c>
+      <c r="F44" s="0">
         <v>92</v>
       </c>
-      <c r="F44">
+      <c r="G44" s="0">
         <v>88</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>41791</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>41882</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>41793</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>41882</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="L44" s="0"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="0">
         <v>2015</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>0.40331630434782612</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
+        <v>0.36074050632911392</v>
+      </c>
+      <c r="F45" s="0">
         <v>79</v>
       </c>
-      <c r="F45">
+      <c r="G45" s="0">
         <v>71</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>42166</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>42247</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>42174</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>42247</v>
       </c>
-      <c r="K45" s="2">
+      <c r="L45" s="0">
         <v>-3.785400000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="0">
         <v>2016</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>0.34223152173913046</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
+        <v>0.34223152173913046</v>
+      </c>
+      <c r="F46" s="0">
         <v>92</v>
       </c>
-      <c r="F46">
+      <c r="G46" s="0">
         <v>91</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>42522</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>42613</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>42523</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>42613</v>
       </c>
-      <c r="K46" s="2">
+      <c r="L46" s="0">
         <v>-5.1436999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="0">
         <v>2017</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>0.32269021739130432</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
+        <v>0.30495517241379305</v>
+      </c>
+      <c r="F47" s="0">
         <v>87</v>
       </c>
-      <c r="F47">
+      <c r="G47" s="0">
         <v>86</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>42887</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>42978</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>42887</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <v>42978</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="L47" s="0"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="0">
         <v>2011</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>0.40321630434782607</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
+        <v>0.3349302631578947</v>
+      </c>
+      <c r="F48" s="0">
         <v>76</v>
       </c>
-      <c r="F48">
+      <c r="G48" s="0">
         <v>62</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>40711</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>40786</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <v>40722</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <v>40786</v>
       </c>
-      <c r="K48" s="2">
+      <c r="L48" s="0">
         <v>-4.4698999999999991</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>2012</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>0.50563260869565219</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
+        <v>0.47500921052631573</v>
+      </c>
+      <c r="F49" s="0">
         <v>76</v>
       </c>
-      <c r="F49">
+      <c r="G49" s="0">
         <v>25</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>41061</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>41152</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>41080</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>41137</v>
       </c>
-      <c r="K49" s="2">
+      <c r="L49" s="0">
         <v>-3.1669</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50">
+      <c r="A50" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>2013</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0">
         <v>0.61628152173913042</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0">
+        <v>0.50387058823529418</v>
+      </c>
+      <c r="F50" s="0">
         <v>34</v>
       </c>
-      <c r="F50">
+      <c r="G50" s="0">
         <v>5</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>41436</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>41502</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>41480</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <v>41488</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="L50" s="0"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>2016</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>0.50732934782608696</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0">
+        <v>0.46051081081081086</v>
+      </c>
+      <c r="F51" s="0">
         <v>74</v>
       </c>
-      <c r="F51">
+      <c r="G51" s="0">
         <v>27</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>42529</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>42613</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>42530</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>42609</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L51" s="0">
         <v>-2.5517000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>2017</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>0.65490108695652172</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
+        <v>0.48684230769230769</v>
+      </c>
+      <c r="F52" s="0">
         <v>26</v>
       </c>
-      <c r="F52">
+      <c r="G52" s="0">
         <v>5</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>42941</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>42978</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>42957</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>42978</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L52" s="0">
         <v>-0.68270000000000053</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>2018</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>0.62317717391304339</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
+        <v>0.45580243902439022</v>
+      </c>
+      <c r="F53" s="0">
         <v>41</v>
       </c>
-      <c r="F53">
+      <c r="G53" s="0">
         <v>17</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>43258</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>43333</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>43259</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <v>43326</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="L53" s="0"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>2021</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>0.60097934782608708</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
+        <v>0.43722000000000005</v>
+      </c>
+      <c r="F54" s="0">
         <v>40</v>
       </c>
-      <c r="F54">
+      <c r="G54" s="0">
         <v>23</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>44373</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>44434</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <v>44375</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <v>44434</v>
       </c>
-      <c r="K54" s="2">
+      <c r="L54" s="0">
         <v>-1.7025999999999986</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>2022</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0">
         <v>0.63119673913043473</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
+        <v>0.49685135135135128</v>
+      </c>
+      <c r="F55" s="0">
         <v>37</v>
       </c>
-      <c r="F55">
+      <c r="G55" s="0">
         <v>6</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>44743</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>44802</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>44763</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>44798</v>
       </c>
-      <c r="K55" s="2">
+      <c r="L55" s="0">
         <v>-1.5155999999999992</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="0">
         <v>2020</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>0.27986956521739126</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
+        <v>0.26379775280898876</v>
+      </c>
+      <c r="F56" s="0">
         <v>89</v>
       </c>
-      <c r="F56">
+      <c r="G56" s="0">
         <v>89</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>43983</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>44074</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>43983</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>44074</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="L56" s="0"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="0">
         <v>2022</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>0.18577934782608699</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
+        <v>0.18577934782608699</v>
+      </c>
+      <c r="F57" s="0">
         <v>92</v>
       </c>
-      <c r="F57">
+      <c r="G57" s="0">
         <v>92</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>44713</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>44804</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>44713</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>44804</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="L57" s="0"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="0">
         <v>2023</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>0.18846521739130434</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
+        <v>0.18846521739130434</v>
+      </c>
+      <c r="F58" s="0">
         <v>92</v>
       </c>
-      <c r="F58">
+      <c r="G58" s="0">
         <v>92</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>45078</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>45169</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <v>45078</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <v>45169</v>
       </c>
-      <c r="K58" s="2">
+      <c r="L58" s="0">
         <v>-5.7208000000000006</v>
       </c>
-      <c r="L58" s="5" t="s">
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="0">
+        <v>2011</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0.42463260869565217</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0.40492325581395339</v>
+      </c>
+      <c r="F59" s="0">
+        <v>86</v>
+      </c>
+      <c r="G59" s="0">
+        <v>62</v>
+      </c>
+      <c r="H59" s="1">
+        <v>40701</v>
+      </c>
+      <c r="I59" s="1">
+        <v>40786</v>
+      </c>
+      <c r="J59" s="1">
+        <v>40723</v>
+      </c>
+      <c r="K59" s="1">
+        <v>40786</v>
+      </c>
+      <c r="L59" s="0"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="0">
+        <v>2012</v>
+      </c>
+      <c r="D60" s="0">
+        <v>0.24020978260869566</v>
+      </c>
+      <c r="E60" s="0">
+        <v>0.24020978260869566</v>
+      </c>
+      <c r="F60" s="0">
+        <v>92</v>
+      </c>
+      <c r="G60" s="0">
+        <v>92</v>
+      </c>
+      <c r="H60" s="1">
+        <v>41061</v>
+      </c>
+      <c r="I60" s="1">
+        <v>41152</v>
+      </c>
+      <c r="J60" s="1">
+        <v>41061</v>
+      </c>
+      <c r="K60" s="1">
+        <v>41152</v>
+      </c>
+      <c r="L60" s="0">
+        <v>-6.0782000000000025</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="0">
+        <v>2014</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0.22337826086956525</v>
+      </c>
+      <c r="E61" s="0">
+        <v>0.20516818181818183</v>
+      </c>
+      <c r="F61" s="0">
+        <v>88</v>
+      </c>
+      <c r="G61" s="0">
+        <v>84</v>
+      </c>
+      <c r="H61" s="1">
+        <v>41794</v>
+      </c>
+      <c r="I61" s="1">
+        <v>41882</v>
+      </c>
+      <c r="J61" s="1">
+        <v>41799</v>
+      </c>
+      <c r="K61" s="1">
+        <v>41882</v>
+      </c>
+      <c r="L61" s="0"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="0">
+        <v>2016</v>
+      </c>
+      <c r="D62" s="0">
+        <v>0.15803586956521737</v>
+      </c>
+      <c r="E62" s="0">
+        <v>0.15052527472527469</v>
+      </c>
+      <c r="F62" s="0">
+        <v>91</v>
+      </c>
+      <c r="G62" s="0">
+        <v>91</v>
+      </c>
+      <c r="H62" s="1">
+        <v>42523</v>
+      </c>
+      <c r="I62" s="1">
+        <v>42613</v>
+      </c>
+      <c r="J62" s="1">
+        <v>42523</v>
+      </c>
+      <c r="K62" s="1">
+        <v>42613</v>
+      </c>
+      <c r="L62" s="0"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="0">
+        <v>2017</v>
+      </c>
+      <c r="D63" s="0">
+        <v>0.35607065217391304</v>
+      </c>
+      <c r="E63" s="0">
+        <v>0.3509444444444445</v>
+      </c>
+      <c r="F63" s="0">
+        <v>90</v>
+      </c>
+      <c r="G63" s="0">
+        <v>82</v>
+      </c>
+      <c r="H63" s="1">
+        <v>42887</v>
+      </c>
+      <c r="I63" s="1">
+        <v>42978</v>
+      </c>
+      <c r="J63" s="1">
+        <v>42897</v>
+      </c>
+      <c r="K63" s="1">
+        <v>42978</v>
+      </c>
+      <c r="L63" s="0">
+        <v>-4.3351000000000006</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="0">
+        <v>2018</v>
+      </c>
+      <c r="D64" s="0">
+        <v>0.26424673913043473</v>
+      </c>
+      <c r="E64" s="0">
+        <v>0.24807415730337076</v>
+      </c>
+      <c r="F64" s="0">
+        <v>89</v>
+      </c>
+      <c r="G64" s="0">
+        <v>88</v>
+      </c>
+      <c r="H64" s="1">
+        <v>43255</v>
+      </c>
+      <c r="I64" s="1">
+        <v>43343</v>
+      </c>
+      <c r="J64" s="1">
+        <v>43255</v>
+      </c>
+      <c r="K64" s="1">
+        <v>43343</v>
+      </c>
+      <c r="L64" s="0"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="0">
+        <v>2019</v>
+      </c>
+      <c r="D65" s="0">
+        <v>0.37475434782608691</v>
+      </c>
+      <c r="E65" s="0">
+        <v>0.25800615384615383</v>
+      </c>
+      <c r="F65" s="0">
+        <v>65</v>
+      </c>
+      <c r="G65" s="0">
+        <v>57</v>
+      </c>
+      <c r="H65" s="1">
+        <v>43641</v>
+      </c>
+      <c r="I65" s="1">
+        <v>43708</v>
+      </c>
+      <c r="J65" s="1">
+        <v>43652</v>
+      </c>
+      <c r="K65" s="1">
+        <v>43708</v>
+      </c>
+      <c r="L65" s="0"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="0">
+        <v>2020</v>
+      </c>
+      <c r="D66" s="0">
+        <v>0.49680652173913037</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0.29434629629629633</v>
+      </c>
+      <c r="F66" s="0">
+        <v>54</v>
+      </c>
+      <c r="G66" s="0">
+        <v>52</v>
+      </c>
+      <c r="H66" s="1">
+        <v>44020</v>
+      </c>
+      <c r="I66" s="1">
+        <v>44074</v>
+      </c>
+      <c r="J66" s="1">
+        <v>44021</v>
+      </c>
+      <c r="K66" s="1">
+        <v>44074</v>
+      </c>
+      <c r="L66" s="0">
+        <v>-2.9407999999999994</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="0">
+        <v>2019</v>
+      </c>
+      <c r="D67" s="0">
+        <v>0.50184891304347834</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0.32653636363636362</v>
+      </c>
+      <c r="F67" s="0">
+        <v>44</v>
+      </c>
+      <c r="G67" s="0">
+        <v>37</v>
+      </c>
+      <c r="H67" s="1">
+        <v>43665</v>
+      </c>
+      <c r="I67" s="1">
+        <v>43708</v>
+      </c>
+      <c r="J67" s="1">
+        <v>43671</v>
+      </c>
+      <c r="K67" s="1">
+        <v>43708</v>
+      </c>
+      <c r="L67" s="0">
+        <v>-1.4072000000000005</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D68" s="0">
+        <v>0.6053467391304348</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0.42408928571428578</v>
+      </c>
+      <c r="F68" s="0">
+        <v>28</v>
+      </c>
+      <c r="G68" s="0">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1">
+        <v>44771</v>
+      </c>
+      <c r="I68" s="1">
+        <v>44804</v>
+      </c>
+      <c r="J68" s="1">
+        <v>44784</v>
+      </c>
+      <c r="K68" s="1">
+        <v>44804</v>
+      </c>
+      <c r="L68" s="0">
+        <v>-0.89489999999999981</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="0">
+        <v>2023</v>
+      </c>
+      <c r="D69" s="0">
+        <v>0.46580217391304346</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0.26846470588235294</v>
+      </c>
+      <c r="F69" s="0">
+        <v>51</v>
+      </c>
+      <c r="G69" s="0">
+        <v>46</v>
+      </c>
+      <c r="H69" s="1">
+        <v>45119</v>
+      </c>
+      <c r="I69" s="1">
+        <v>45169</v>
+      </c>
+      <c r="J69" s="1">
+        <v>45124</v>
+      </c>
+      <c r="K69" s="1">
+        <v>45169</v>
+      </c>
+      <c r="L69" s="0">
+        <v>-2.2556000000000012</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="0">
+        <v>2011</v>
+      </c>
+      <c r="D70" s="0">
+        <v>0.6012891304347826</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0.35613666666666666</v>
+      </c>
+      <c r="F70" s="0">
+        <v>30</v>
+      </c>
+      <c r="G70" s="0">
+        <v>24</v>
+      </c>
+      <c r="H70" s="1">
+        <v>40756</v>
+      </c>
+      <c r="I70" s="1">
+        <v>40786</v>
+      </c>
+      <c r="J70" s="1">
+        <v>40762</v>
+      </c>
+      <c r="K70" s="1">
+        <v>40786</v>
+      </c>
+      <c r="L70" s="0">
+        <v>-0.69979999999999976</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="0">
+        <v>2014</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0.53765543478260858</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0.29838055555555543</v>
+      </c>
+      <c r="F71" s="0">
+        <v>36</v>
+      </c>
+      <c r="G71" s="0">
+        <v>34</v>
+      </c>
+      <c r="H71" s="1">
+        <v>41847</v>
+      </c>
+      <c r="I71" s="1">
+        <v>41882</v>
+      </c>
+      <c r="J71" s="1">
+        <v>41849</v>
+      </c>
+      <c r="K71" s="1">
+        <v>41882</v>
+      </c>
+      <c r="L71" s="0">
+        <v>-1.3597000000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="0">
+        <v>2017</v>
+      </c>
+      <c r="D72" s="0">
+        <v>0.62157717391304346</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0.37114090909090913</v>
+      </c>
+      <c r="F72" s="0">
+        <v>22</v>
+      </c>
+      <c r="G72" s="0">
+        <v>15</v>
+      </c>
+      <c r="H72" s="1">
+        <v>42956</v>
+      </c>
+      <c r="I72" s="1">
+        <v>42978</v>
+      </c>
+      <c r="J72" s="1">
+        <v>42957</v>
+      </c>
+      <c r="K72" s="1">
+        <v>42978</v>
+      </c>
+      <c r="L72" s="0">
+        <v>-0.47770000000000046</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="0">
+        <v>2018</v>
+      </c>
+      <c r="D73" s="0">
+        <v>0.65776195652173908</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0.43883333333333335</v>
+      </c>
+      <c r="F73" s="0">
+        <v>24</v>
+      </c>
+      <c r="G73" s="0">
+        <v>13</v>
+      </c>
+      <c r="H73" s="1">
+        <v>43316</v>
+      </c>
+      <c r="I73" s="1">
+        <v>43343</v>
+      </c>
+      <c r="J73" s="1">
+        <v>43323</v>
+      </c>
+      <c r="K73" s="1">
+        <v>43342</v>
+      </c>
+      <c r="L73" s="0">
+        <v>-0.58359999999999879</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="0">
+        <v>2009</v>
+      </c>
+      <c r="D74" s="0">
+        <v>0.42923478260869563</v>
+      </c>
+      <c r="E74" s="0">
+        <v>0.42162696629213481</v>
+      </c>
+      <c r="F74" s="0">
+        <v>89</v>
+      </c>
+      <c r="G74" s="0">
+        <v>53</v>
+      </c>
+      <c r="H74" s="1">
+        <v>39965</v>
+      </c>
+      <c r="I74" s="1">
+        <v>40056</v>
+      </c>
+      <c r="J74" s="1">
+        <v>39988</v>
+      </c>
+      <c r="K74" s="1">
+        <v>40046</v>
+      </c>
+      <c r="L74" s="0">
+        <v>-2.5534999999999979</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="0">
+        <v>2010</v>
+      </c>
+      <c r="D75" s="0">
+        <v>0.35169347826086961</v>
+      </c>
+      <c r="E75" s="0">
+        <v>0.34913516483516482</v>
+      </c>
+      <c r="F75" s="0">
+        <v>91</v>
+      </c>
+      <c r="G75" s="0">
+        <v>84</v>
+      </c>
+      <c r="H75" s="1">
+        <v>40330</v>
+      </c>
+      <c r="I75" s="1">
+        <v>40421</v>
+      </c>
+      <c r="J75" s="1">
+        <v>40335</v>
+      </c>
+      <c r="K75" s="1">
+        <v>40421</v>
+      </c>
+      <c r="L75" s="0">
+        <v>-3.3484000000000016</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="0">
+        <v>2011</v>
+      </c>
+      <c r="D76" s="0">
+        <v>0.33280760869565224</v>
+      </c>
+      <c r="E76" s="0">
+        <v>0.32744444444444443</v>
+      </c>
+      <c r="F76" s="0">
+        <v>90</v>
+      </c>
+      <c r="G76" s="0">
+        <v>85</v>
+      </c>
+      <c r="H76" s="1">
+        <v>40697</v>
+      </c>
+      <c r="I76" s="1">
+        <v>40786</v>
+      </c>
+      <c r="J76" s="1">
+        <v>40702</v>
+      </c>
+      <c r="K76" s="1">
+        <v>40786</v>
+      </c>
+      <c r="L76" s="0">
+        <v>-3.0929999999999991</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="0">
+        <v>2012</v>
+      </c>
+      <c r="D77" s="0">
+        <v>0.3653369565217392</v>
+      </c>
+      <c r="E77" s="0">
+        <v>0.3653369565217392</v>
+      </c>
+      <c r="F77" s="0">
+        <v>92</v>
+      </c>
+      <c r="G77" s="0">
+        <v>87</v>
+      </c>
+      <c r="H77" s="1">
+        <v>41061</v>
+      </c>
+      <c r="I77" s="1">
+        <v>41152</v>
+      </c>
+      <c r="J77" s="1">
+        <v>41061</v>
+      </c>
+      <c r="K77" s="1">
+        <v>41152</v>
+      </c>
+      <c r="L77" s="0">
+        <v>-3.3048999999999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="0">
+        <v>2013</v>
+      </c>
+      <c r="D78" s="0">
+        <v>0.36507173913043484</v>
+      </c>
+      <c r="E78" s="0">
+        <v>0.35025402298850578</v>
+      </c>
+      <c r="F78" s="0">
+        <v>87</v>
+      </c>
+      <c r="G78" s="0">
+        <v>86</v>
+      </c>
+      <c r="H78" s="1">
+        <v>41429</v>
+      </c>
+      <c r="I78" s="1">
+        <v>41517</v>
+      </c>
+      <c r="J78" s="1">
+        <v>41430</v>
+      </c>
+      <c r="K78" s="1">
+        <v>41517</v>
+      </c>
+      <c r="L78" s="0">
+        <v>-3.4269000000000003</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="0">
+        <v>2014</v>
+      </c>
+      <c r="D79" s="0">
+        <v>0.3694010869565218</v>
+      </c>
+      <c r="E79" s="0">
+        <v>0.3694010869565218</v>
+      </c>
+      <c r="F79" s="0">
+        <v>92</v>
+      </c>
+      <c r="G79" s="0">
+        <v>86</v>
+      </c>
+      <c r="H79" s="1">
+        <v>41791</v>
+      </c>
+      <c r="I79" s="1">
+        <v>41882</v>
+      </c>
+      <c r="J79" s="1">
+        <v>41796</v>
+      </c>
+      <c r="K79" s="1">
+        <v>41882</v>
+      </c>
+      <c r="L79" s="0"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="0">
+        <v>2015</v>
+      </c>
+      <c r="D80" s="0">
+        <v>0.40827391304347826</v>
+      </c>
+      <c r="E80" s="0">
+        <v>0.374537037037037</v>
+      </c>
+      <c r="F80" s="0">
+        <v>81</v>
+      </c>
+      <c r="G80" s="0">
+        <v>72</v>
+      </c>
+      <c r="H80" s="1">
+        <v>42160</v>
+      </c>
+      <c r="I80" s="1">
+        <v>42240</v>
+      </c>
+      <c r="J80" s="1">
+        <v>42166</v>
+      </c>
+      <c r="K80" s="1">
+        <v>42237</v>
+      </c>
+      <c r="L80" s="0">
+        <v>-3.2865000000000002</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="0">
+        <v>2016</v>
+      </c>
+      <c r="D81" s="0">
+        <v>0.3818586956521739</v>
+      </c>
+      <c r="E81" s="0">
+        <v>0.37793406593406587</v>
+      </c>
+      <c r="F81" s="0">
+        <v>91</v>
+      </c>
+      <c r="G81" s="0">
+        <v>80</v>
+      </c>
+      <c r="H81" s="1">
+        <v>42523</v>
+      </c>
+      <c r="I81" s="1">
+        <v>42613</v>
+      </c>
+      <c r="J81" s="1">
+        <v>42530</v>
+      </c>
+      <c r="K81" s="1">
+        <v>42613</v>
+      </c>
+      <c r="L81" s="0">
+        <v>-3.6028000000000002</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="0">
+        <v>2009</v>
+      </c>
+      <c r="D82" s="0">
+        <v>0.50846413043478267</v>
+      </c>
+      <c r="E82" s="0">
+        <v>0.39802142857142853</v>
+      </c>
+      <c r="F82" s="0">
+        <v>56</v>
+      </c>
+      <c r="G82" s="0">
+        <v>52</v>
+      </c>
+      <c r="H82" s="1">
+        <v>39989</v>
+      </c>
+      <c r="I82" s="1">
+        <v>40050</v>
+      </c>
+      <c r="J82" s="1">
+        <v>39999</v>
+      </c>
+      <c r="K82" s="1">
+        <v>40050</v>
+      </c>
+      <c r="L82" s="0">
+        <v>-1.4542000000000002</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="0">
+        <v>2011</v>
+      </c>
+      <c r="D83" s="0">
+        <v>0.47416847826086955</v>
+      </c>
+      <c r="E83" s="0">
+        <v>0.44033250000000007</v>
+      </c>
+      <c r="F83" s="0">
+        <v>80</v>
+      </c>
+      <c r="G83" s="0">
+        <v>52</v>
+      </c>
+      <c r="H83" s="1">
+        <v>40707</v>
+      </c>
+      <c r="I83" s="1">
+        <v>40786</v>
+      </c>
+      <c r="J83" s="1">
+        <v>40717</v>
+      </c>
+      <c r="K83" s="1">
+        <v>40785</v>
+      </c>
+      <c r="L83" s="0">
+        <v>-2.224499999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="0">
+        <v>2023</v>
+      </c>
+      <c r="D84" s="0">
+        <v>0.67421304347826083</v>
+      </c>
+      <c r="E84" s="0">
+        <v>0.49786000000000008</v>
+      </c>
+      <c r="F84" s="0">
+        <v>25</v>
+      </c>
+      <c r="G84" s="0">
+        <v>5</v>
+      </c>
+      <c r="H84" s="1">
+        <v>45128</v>
+      </c>
+      <c r="I84" s="1">
+        <v>45163</v>
+      </c>
+      <c r="J84" s="1">
+        <v>45158</v>
+      </c>
+      <c r="K84" s="1">
+        <v>45162</v>
+      </c>
+      <c r="L84" s="0">
+        <v>-0.26580000000000048</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="0">
+        <v>2016</v>
+      </c>
+      <c r="D85" s="0">
+        <v>0.54457065217391309</v>
+      </c>
+      <c r="E85" s="0">
+        <v>0.46567076923076928</v>
+      </c>
+      <c r="F85" s="0">
+        <v>65</v>
+      </c>
+      <c r="G85" s="0">
+        <v>20</v>
+      </c>
+      <c r="H85" s="1">
+        <v>42548</v>
+      </c>
+      <c r="I85" s="1">
+        <v>42613</v>
+      </c>
+      <c r="J85" s="1">
+        <v>42566</v>
+      </c>
+      <c r="K85" s="1">
+        <v>42613</v>
+      </c>
+      <c r="L85" s="0">
+        <v>-1.8579999999999988</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="0">
+        <v>2017</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0.64213043478260878</v>
+      </c>
+      <c r="E86" s="0">
+        <v>0.41602272727272727</v>
+      </c>
+      <c r="F86" s="0">
+        <v>22</v>
+      </c>
+      <c r="G86" s="0">
+        <v>15</v>
+      </c>
+      <c r="H86" s="1">
+        <v>42945</v>
+      </c>
+      <c r="I86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="J86" s="1">
+        <v>42952</v>
+      </c>
+      <c r="K86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="L86" s="0">
+        <v>-0.80020000000000024</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="0">
+        <v>2021</v>
+      </c>
+      <c r="D87" s="0">
+        <v>0.40265326086956521</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0.32256621621621617</v>
+      </c>
+      <c r="F87" s="0">
+        <v>74</v>
+      </c>
+      <c r="G87" s="0">
+        <v>70</v>
+      </c>
+      <c r="H87" s="1">
+        <v>44366</v>
+      </c>
+      <c r="I87" s="1">
+        <v>44439</v>
+      </c>
+      <c r="J87" s="1">
+        <v>44369</v>
+      </c>
+      <c r="K87" s="1">
+        <v>44439</v>
+      </c>
+      <c r="L87" s="0">
+        <v>-4.3517999999999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="0">
+        <v>2023</v>
+      </c>
+      <c r="D88" s="0">
+        <v>0.44108478260869566</v>
+      </c>
+      <c r="E88" s="0">
+        <v>0.33638358208955227</v>
+      </c>
+      <c r="F88" s="0">
+        <v>67</v>
+      </c>
+      <c r="G88" s="0">
+        <v>59</v>
+      </c>
+      <c r="H88" s="1">
+        <v>45080</v>
+      </c>
+      <c r="I88" s="1">
+        <v>45169</v>
+      </c>
+      <c r="J88" s="1">
+        <v>45080</v>
+      </c>
+      <c r="K88" s="1">
+        <v>45169</v>
+      </c>
+      <c r="L88" s="0"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="0">
+        <v>2018</v>
+      </c>
+      <c r="D89" s="0">
+        <v>0.40748695652173911</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0.32775774647887324</v>
+      </c>
+      <c r="F89" s="0">
+        <v>71</v>
+      </c>
+      <c r="G89" s="0">
+        <v>66</v>
+      </c>
+      <c r="H89" s="1">
+        <v>43273</v>
+      </c>
+      <c r="I89" s="1">
+        <v>43343</v>
+      </c>
+      <c r="J89" s="1">
+        <v>43278</v>
+      </c>
+      <c r="K89" s="1">
+        <v>43343</v>
+      </c>
+      <c r="L89" s="0">
+        <v>-3.0112000000000005</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="0">
+        <v>2008</v>
+      </c>
+      <c r="D90" s="0">
+        <v>0.42548260869565224</v>
+      </c>
+      <c r="E90" s="0">
+        <v>0.38018311688311685</v>
+      </c>
+      <c r="F90" s="0">
+        <v>77</v>
+      </c>
+      <c r="G90" s="0">
+        <v>61</v>
+      </c>
+      <c r="H90" s="1">
+        <v>39614</v>
+      </c>
+      <c r="I90" s="1">
+        <v>39691</v>
+      </c>
+      <c r="J90" s="1">
+        <v>39629</v>
+      </c>
+      <c r="K90" s="1">
+        <v>39691</v>
+      </c>
+      <c r="L90" s="0">
+        <v>-2.9657</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="0">
+        <v>2009</v>
+      </c>
+      <c r="D91" s="0">
+        <v>0.50731304347826101</v>
+      </c>
+      <c r="E91" s="0">
+        <v>0.43047868852459015</v>
+      </c>
+      <c r="F91" s="0">
+        <v>61</v>
+      </c>
+      <c r="G91" s="0">
+        <v>48</v>
+      </c>
+      <c r="H91" s="1">
+        <v>39994</v>
+      </c>
+      <c r="I91" s="1">
+        <v>40056</v>
+      </c>
+      <c r="J91" s="1">
+        <v>40005</v>
+      </c>
+      <c r="K91" s="1">
+        <v>40056</v>
+      </c>
+      <c r="L91" s="0">
+        <v>-1.0147999999999997</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="0">
+        <v>2014</v>
+      </c>
+      <c r="D92" s="0">
+        <v>0.4618521739130434</v>
+      </c>
+      <c r="E92" s="0">
+        <v>0.44091358024691357</v>
+      </c>
+      <c r="F92" s="0">
+        <v>81</v>
+      </c>
+      <c r="G92" s="0">
+        <v>34</v>
+      </c>
+      <c r="H92" s="1">
+        <v>41801</v>
+      </c>
+      <c r="I92" s="1">
+        <v>41882</v>
+      </c>
+      <c r="J92" s="1">
+        <v>41817</v>
+      </c>
+      <c r="K92" s="1">
+        <v>41882</v>
+      </c>
+      <c r="L92" s="0">
+        <v>-1.6818</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="0">
+        <v>2019</v>
+      </c>
+      <c r="D93" s="0">
+        <v>0.46312391304347833</v>
+      </c>
+      <c r="E93" s="0">
+        <v>0.33352539682539684</v>
+      </c>
+      <c r="F93" s="0">
+        <v>63</v>
+      </c>
+      <c r="G93" s="0">
+        <v>60</v>
+      </c>
+      <c r="H93" s="1">
+        <v>43629</v>
+      </c>
+      <c r="I93" s="1">
+        <v>43708</v>
+      </c>
+      <c r="J93" s="1">
+        <v>43630</v>
+      </c>
+      <c r="K93" s="1">
+        <v>43708</v>
+      </c>
+      <c r="L93" s="0">
+        <v>-2.7027999999999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="0">
+        <v>2021</v>
+      </c>
+      <c r="D94" s="0">
+        <v>0.58390217391304344</v>
+      </c>
+      <c r="E94" s="0">
+        <v>0.34384666666666674</v>
+      </c>
+      <c r="F94" s="0">
+        <v>30</v>
+      </c>
+      <c r="G94" s="0">
+        <v>30</v>
+      </c>
+      <c r="H94" s="1">
+        <v>44404</v>
+      </c>
+      <c r="I94" s="1">
+        <v>44433</v>
+      </c>
+      <c r="J94" s="1">
+        <v>44404</v>
+      </c>
+      <c r="K94" s="1">
+        <v>44433</v>
+      </c>
+      <c r="L94" s="0">
+        <v>-0.68720000000000003</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D95" s="0">
+        <v>0.44996521739130435</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0.3305112903225807</v>
+      </c>
+      <c r="F95" s="0">
+        <v>62</v>
+      </c>
+      <c r="G95" s="0">
+        <v>54</v>
+      </c>
+      <c r="H95" s="1">
+        <v>44740</v>
+      </c>
+      <c r="I95" s="1">
+        <v>44804</v>
+      </c>
+      <c r="J95" s="1">
+        <v>44742</v>
+      </c>
+      <c r="K95" s="1">
+        <v>44804</v>
+      </c>
+      <c r="L95" s="0">
+        <v>-2.2699999999999996</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="0">
+        <v>2023</v>
+      </c>
+      <c r="D96" s="0">
+        <v>0.44561739130434785</v>
+      </c>
+      <c r="E96" s="0">
+        <v>0.33195714285714278</v>
+      </c>
+      <c r="F96" s="0">
+        <v>63</v>
+      </c>
+      <c r="G96" s="0">
+        <v>51</v>
+      </c>
+      <c r="H96" s="1">
+        <v>45104</v>
+      </c>
+      <c r="I96" s="1">
+        <v>45169</v>
+      </c>
+      <c r="J96" s="1">
+        <v>45111</v>
+      </c>
+      <c r="K96" s="1">
+        <v>45168</v>
+      </c>
+      <c r="L96" s="0">
+        <v>-2.2369000000000003</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="0">
+        <v>2015</v>
+      </c>
+      <c r="D97" s="0">
+        <v>0.45288260869565222</v>
+      </c>
+      <c r="E97" s="0">
+        <v>0.376475</v>
+      </c>
+      <c r="F97" s="0">
+        <v>68</v>
+      </c>
+      <c r="G97" s="0">
+        <v>59</v>
+      </c>
+      <c r="H97" s="1">
+        <v>42175</v>
+      </c>
+      <c r="I97" s="1">
+        <v>42246</v>
+      </c>
+      <c r="J97" s="1">
+        <v>42177</v>
+      </c>
+      <c r="K97" s="1">
+        <v>42245</v>
+      </c>
+      <c r="L97" s="0">
+        <v>-2.3805000000000014</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="0">
+        <v>2017</v>
+      </c>
+      <c r="D98" s="0">
+        <v>0.61517391304347813</v>
+      </c>
+      <c r="E98" s="0">
+        <v>0.37359999999999993</v>
+      </c>
+      <c r="F98" s="0">
+        <v>33</v>
+      </c>
+      <c r="G98" s="0">
+        <v>27</v>
+      </c>
+      <c r="H98" s="1">
+        <v>42934</v>
+      </c>
+      <c r="I98" s="1">
+        <v>42969</v>
+      </c>
+      <c r="J98" s="1">
+        <v>42942</v>
+      </c>
+      <c r="K98" s="1">
+        <v>42969</v>
+      </c>
+      <c r="L98" s="0">
+        <v>-1.0005000000000006</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="0">
+        <v>2018</v>
+      </c>
+      <c r="D99" s="0">
+        <v>0.73186630434782618</v>
+      </c>
+      <c r="E99" s="0">
+        <v>0.53718571428571438</v>
+      </c>
+      <c r="F99" s="0">
+        <v>7</v>
+      </c>
+      <c r="G99" s="0">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>43314</v>
+      </c>
+      <c r="I99" s="1">
+        <v>43337</v>
+      </c>
+      <c r="J99" s="0"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="0">
+        <v>-0.14759999999999973</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D100" s="0">
+        <v>0.62009021739130432</v>
+      </c>
+      <c r="E100" s="0">
+        <v>0.45284565217391304</v>
+      </c>
+      <c r="F100" s="0">
+        <v>46</v>
+      </c>
+      <c r="G100" s="0">
+        <v>20</v>
+      </c>
+      <c r="H100" s="1">
+        <v>44739</v>
+      </c>
+      <c r="I100" s="1">
+        <v>44792</v>
+      </c>
+      <c r="J100" s="1">
+        <v>44744</v>
+      </c>
+      <c r="K100" s="1">
+        <v>44792</v>
+      </c>
+      <c r="L100" s="0">
+        <v>-1.9606999999999992</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="0">
+        <v>2023</v>
+      </c>
+      <c r="D101" s="0">
+        <v>0.56075326086956523</v>
+      </c>
+      <c r="E101" s="0">
+        <v>0.40248541666666671</v>
+      </c>
+      <c r="F101" s="0">
+        <v>48</v>
+      </c>
+      <c r="G101" s="0">
+        <v>32</v>
+      </c>
+      <c r="H101" s="1">
+        <v>45095</v>
+      </c>
+      <c r="I101" s="1">
+        <v>45162</v>
+      </c>
+      <c r="J101" s="1">
+        <v>45095</v>
+      </c>
+      <c r="K101" s="1">
+        <v>45162</v>
+      </c>
+      <c r="L101" s="0">
+        <v>-1.8667999999999996</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="0">
+        <v>2019</v>
+      </c>
+      <c r="D102" s="0">
+        <v>0.55414565217391309</v>
+      </c>
+      <c r="E102" s="0">
+        <v>0.52060350877192985</v>
+      </c>
+      <c r="F102" s="0">
+        <v>57</v>
+      </c>
+      <c r="G102" s="0">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>43627</v>
+      </c>
+      <c r="I102" s="1">
+        <v>43708</v>
+      </c>
+      <c r="J102" s="0"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="0">
+        <v>-2.7294999999999998</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="0">
+        <v>2020</v>
+      </c>
+      <c r="D103" s="0">
+        <v>0.59536304347826086</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0.54028461538461559</v>
+      </c>
+      <c r="F103" s="0">
+        <v>39</v>
+      </c>
+      <c r="G103" s="0">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>44002</v>
+      </c>
+      <c r="I103" s="1">
+        <v>44074</v>
+      </c>
+      <c r="J103" s="0"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="0"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="0">
+        <v>2021</v>
+      </c>
+      <c r="D104" s="0">
+        <v>0.59966847826086966</v>
+      </c>
+      <c r="E104" s="0">
+        <v>0.53660416666666666</v>
+      </c>
+      <c r="F104" s="0">
+        <v>24</v>
+      </c>
+      <c r="G104" s="0">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>44355</v>
+      </c>
+      <c r="I104" s="1">
+        <v>44436</v>
+      </c>
+      <c r="J104" s="0"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="0">
+        <v>-2.4566000000000017</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D105" s="0">
+        <v>0.61973804347826089</v>
+      </c>
+      <c r="E105" s="0">
+        <v>0.54517272727272725</v>
+      </c>
+      <c r="F105" s="0">
+        <v>22</v>
+      </c>
+      <c r="G105" s="0">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>44738</v>
+      </c>
+      <c r="I105" s="1">
+        <v>44794</v>
+      </c>
+      <c r="J105" s="0"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="0"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="0">
+        <v>2023</v>
+      </c>
+      <c r="D106" s="0">
+        <v>0.64426630434782606</v>
+      </c>
+      <c r="E106" s="0">
+        <v>0.54861481481481489</v>
+      </c>
+      <c r="F106" s="0">
+        <v>27</v>
+      </c>
+      <c r="G106" s="0">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>45110</v>
+      </c>
+      <c r="I106" s="1">
+        <v>45166</v>
+      </c>
+      <c r="J106" s="0"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="0">
+        <v>-1.4328000000000003</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="0">
+        <v>2010</v>
+      </c>
+      <c r="D107" s="0">
+        <v>0.58258043478260868</v>
+      </c>
+      <c r="E107" s="0">
+        <v>0.54449655172413802</v>
+      </c>
+      <c r="F107" s="0">
+        <v>29</v>
+      </c>
+      <c r="G107" s="0">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>40351</v>
+      </c>
+      <c r="I107" s="1">
+        <v>40416</v>
+      </c>
+      <c r="J107" s="0"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="0">
+        <v>-2.7639999999999993</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="0">
+        <v>2011</v>
+      </c>
+      <c r="D108" s="0">
+        <v>0.59899673913043483</v>
+      </c>
+      <c r="E108" s="0">
+        <v>0.54756060606060586</v>
+      </c>
+      <c r="F108" s="0">
+        <v>33</v>
+      </c>
+      <c r="G108" s="0">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>40703</v>
+      </c>
+      <c r="I108" s="1">
+        <v>40765</v>
+      </c>
+      <c r="J108" s="0"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="0">
+        <v>-2.8186</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="0">
+        <v>2014</v>
+      </c>
+      <c r="D109" s="0">
+        <v>0.59185652173913039</v>
+      </c>
+      <c r="E109" s="0">
+        <v>0.54126000000000007</v>
+      </c>
+      <c r="F109" s="0">
+        <v>35</v>
+      </c>
+      <c r="G109" s="0">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>41805</v>
+      </c>
+      <c r="I109" s="1">
+        <v>41882</v>
+      </c>
+      <c r="J109" s="0"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="0">
+        <v>-2.2934999999999981</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="0">
+        <v>2015</v>
+      </c>
+      <c r="D110" s="0">
+        <v>0.60716739130434771</v>
+      </c>
+      <c r="E110" s="0">
+        <v>0.54444761904761918</v>
+      </c>
+      <c r="F110" s="0">
+        <v>21</v>
+      </c>
+      <c r="G110" s="0">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>42177</v>
+      </c>
+      <c r="I110" s="1">
+        <v>42235</v>
+      </c>
+      <c r="J110" s="0"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="0">
+        <v>-2.0850000000000009</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="0">
+        <v>2018</v>
+      </c>
+      <c r="D111" s="0">
+        <v>0.59852608695652165</v>
+      </c>
+      <c r="E111" s="0">
+        <v>0.53576486486486496</v>
+      </c>
+      <c r="F111" s="0">
+        <v>37</v>
+      </c>
+      <c r="G111" s="0">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>43278</v>
+      </c>
+      <c r="I111" s="1">
+        <v>43338</v>
+      </c>
+      <c r="J111" s="0"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="0">
+        <v>-1.6326000000000001</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="0">
+        <v>2013</v>
+      </c>
+      <c r="D112" s="0">
+        <v>0.64285326086956518</v>
+      </c>
+      <c r="E112" s="0">
+        <v>0.51021470588235296</v>
+      </c>
+      <c r="F112" s="0">
+        <v>34</v>
+      </c>
+      <c r="G112" s="0">
+        <v>2</v>
+      </c>
+      <c r="H112" s="1">
+        <v>41451</v>
+      </c>
+      <c r="I112" s="1">
+        <v>41499</v>
+      </c>
+      <c r="J112" s="1">
+        <v>41488</v>
+      </c>
+      <c r="K112" s="1">
+        <v>41491</v>
+      </c>
+      <c r="L112" s="0">
+        <v>-0.92319999999999958</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="0">
+        <v>2014</v>
+      </c>
+      <c r="D113" s="0">
+        <v>0.60025434782608689</v>
+      </c>
+      <c r="E113" s="0">
+        <v>0.48634363636363642</v>
+      </c>
+      <c r="F113" s="0">
         <v>55</v>
       </c>
-      <c r="M58" s="4">
-        <v>213000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59">
-        <v>2011</v>
-      </c>
-      <c r="D59">
-        <v>0.42463260869565217</v>
-      </c>
-      <c r="E59">
-        <v>86</v>
-      </c>
-      <c r="F59">
+      <c r="G113" s="0">
+        <v>11</v>
+      </c>
+      <c r="H113" s="1">
+        <v>41814</v>
+      </c>
+      <c r="I113" s="1">
+        <v>41872</v>
+      </c>
+      <c r="J113" s="1">
+        <v>41828</v>
+      </c>
+      <c r="K113" s="1">
+        <v>41872</v>
+      </c>
+      <c r="L113" s="0">
+        <v>-1.5276999999999994</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="0">
+        <v>2015</v>
+      </c>
+      <c r="D114" s="0">
+        <v>0.61574673913043465</v>
+      </c>
+      <c r="E114" s="0">
+        <v>0.5135725000000001</v>
+      </c>
+      <c r="F114" s="0">
+        <v>40</v>
+      </c>
+      <c r="G114" s="0">
+        <v>3</v>
+      </c>
+      <c r="H114" s="1">
+        <v>42187</v>
+      </c>
+      <c r="I114" s="1">
+        <v>42246</v>
+      </c>
+      <c r="J114" s="1">
+        <v>42192</v>
+      </c>
+      <c r="K114" s="1">
+        <v>42195</v>
+      </c>
+      <c r="L114" s="0"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="0">
+        <v>2016</v>
+      </c>
+      <c r="D115" s="0">
+        <v>0.60453043478260871</v>
+      </c>
+      <c r="E115" s="0">
+        <v>0.51145999999999991</v>
+      </c>
+      <c r="F115" s="0">
+        <v>55</v>
+      </c>
+      <c r="G115" s="0">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>42557</v>
+      </c>
+      <c r="I115" s="1">
+        <v>42613</v>
+      </c>
+      <c r="J115" s="0"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="0">
+        <v>-1.2942</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="0">
+        <v>2017</v>
+      </c>
+      <c r="D116" s="0">
+        <v>0.65327826086956509</v>
+      </c>
+      <c r="E116" s="0">
+        <v>0.48349333333333328</v>
+      </c>
+      <c r="F116" s="0">
+        <v>30</v>
+      </c>
+      <c r="G116" s="0">
+        <v>8</v>
+      </c>
+      <c r="H116" s="1">
+        <v>42929</v>
+      </c>
+      <c r="I116" s="1">
+        <v>42962</v>
+      </c>
+      <c r="J116" s="1">
+        <v>42941</v>
+      </c>
+      <c r="K116" s="1">
+        <v>42948</v>
+      </c>
+      <c r="L116" s="0">
+        <v>-0.76660000000000039</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="0">
+        <v>2018</v>
+      </c>
+      <c r="D117" s="0">
+        <v>0.66366630434782603</v>
+      </c>
+      <c r="E117" s="0">
+        <v>0.47947999999999991</v>
+      </c>
+      <c r="F117" s="0">
+        <v>25</v>
+      </c>
+      <c r="G117" s="0">
+        <v>10</v>
+      </c>
+      <c r="H117" s="1">
+        <v>43301</v>
+      </c>
+      <c r="I117" s="1">
+        <v>43336</v>
+      </c>
+      <c r="J117" s="1">
+        <v>43312</v>
+      </c>
+      <c r="K117" s="1">
+        <v>43325</v>
+      </c>
+      <c r="L117" s="0">
+        <v>-0.87870000000000026</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="0">
+        <v>2022</v>
+      </c>
+      <c r="D118" s="0">
+        <v>0.41262065217391308</v>
+      </c>
+      <c r="E118" s="0">
+        <v>0.33508695652173909</v>
+      </c>
+      <c r="F118" s="0">
+        <v>69</v>
+      </c>
+      <c r="G118" s="0">
+        <v>59</v>
+      </c>
+      <c r="H118" s="1">
+        <v>44722</v>
+      </c>
+      <c r="I118" s="1">
+        <v>44804</v>
+      </c>
+      <c r="J118" s="1">
+        <v>44741</v>
+      </c>
+      <c r="K118" s="1">
+        <v>44804</v>
+      </c>
+      <c r="L118" s="0">
+        <v>-2.8203000000000005</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="0">
+        <v>2023</v>
+      </c>
+      <c r="D119" s="0">
+        <v>0.39334021739130426</v>
+      </c>
+      <c r="E119" s="0">
+        <v>0.23203870967741932</v>
+      </c>
+      <c r="F119" s="0">
         <v>62</v>
       </c>
-      <c r="G59" s="1">
-        <v>40701</v>
-      </c>
-      <c r="H59" s="1">
-        <v>40786</v>
-      </c>
-      <c r="I59" s="1">
-        <v>40723</v>
-      </c>
-      <c r="J59" s="1">
-        <v>40786</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60">
-        <v>2012</v>
-      </c>
-      <c r="D60">
-        <v>0.24020978260869566</v>
-      </c>
-      <c r="E60">
-        <v>92</v>
-      </c>
-      <c r="F60">
-        <v>92</v>
-      </c>
-      <c r="G60" s="1">
-        <v>41061</v>
-      </c>
-      <c r="H60" s="1">
-        <v>41152</v>
-      </c>
-      <c r="I60" s="1">
-        <v>41061</v>
-      </c>
-      <c r="J60" s="1">
-        <v>41152</v>
-      </c>
-      <c r="K60" s="2">
-        <v>-6.0782000000000025</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61">
-        <v>2014</v>
-      </c>
-      <c r="D61">
-        <v>0.22337826086956525</v>
-      </c>
-      <c r="E61">
-        <v>88</v>
-      </c>
-      <c r="F61">
-        <v>84</v>
-      </c>
-      <c r="G61" s="1">
-        <v>41794</v>
-      </c>
-      <c r="H61" s="1">
-        <v>41882</v>
-      </c>
-      <c r="I61" s="1">
-        <v>41799</v>
-      </c>
-      <c r="J61" s="1">
-        <v>41882</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62">
-        <v>2016</v>
-      </c>
-      <c r="D62">
-        <v>0.15803586956521737</v>
-      </c>
-      <c r="E62">
-        <v>91</v>
-      </c>
-      <c r="F62">
-        <v>91</v>
-      </c>
-      <c r="G62" s="1">
-        <v>42523</v>
-      </c>
-      <c r="H62" s="1">
-        <v>42613</v>
-      </c>
-      <c r="I62" s="1">
-        <v>42523</v>
-      </c>
-      <c r="J62" s="1">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63">
-        <v>2017</v>
-      </c>
-      <c r="D63">
-        <v>0.35607065217391304</v>
-      </c>
-      <c r="E63">
-        <v>90</v>
-      </c>
-      <c r="F63">
-        <v>82</v>
-      </c>
-      <c r="G63" s="1">
-        <v>42887</v>
-      </c>
-      <c r="H63" s="1">
-        <v>42978</v>
-      </c>
-      <c r="I63" s="1">
-        <v>42897</v>
-      </c>
-      <c r="J63" s="1">
-        <v>42978</v>
-      </c>
-      <c r="K63" s="2">
-        <v>-4.3351000000000006</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64">
-        <v>2018</v>
-      </c>
-      <c r="D64">
-        <v>0.26424673913043473</v>
-      </c>
-      <c r="E64">
-        <v>89</v>
-      </c>
-      <c r="F64">
-        <v>88</v>
-      </c>
-      <c r="G64" s="1">
-        <v>43255</v>
-      </c>
-      <c r="H64" s="1">
-        <v>43343</v>
-      </c>
-      <c r="I64" s="1">
-        <v>43255</v>
-      </c>
-      <c r="J64" s="1">
-        <v>43343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>2019</v>
-      </c>
-      <c r="D65">
-        <v>0.37475434782608691</v>
-      </c>
-      <c r="E65">
-        <v>65</v>
-      </c>
-      <c r="F65">
-        <v>57</v>
-      </c>
-      <c r="G65" s="1">
-        <v>43641</v>
-      </c>
-      <c r="H65" s="1">
-        <v>43708</v>
-      </c>
-      <c r="I65" s="1">
-        <v>43652</v>
-      </c>
-      <c r="J65" s="1">
-        <v>43708</v>
-      </c>
-      <c r="L65" s="5"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66">
-        <v>2020</v>
-      </c>
-      <c r="D66">
-        <v>0.49680652173913037</v>
-      </c>
-      <c r="E66">
-        <v>54</v>
-      </c>
-      <c r="F66">
-        <v>52</v>
-      </c>
-      <c r="G66" s="1">
-        <v>44020</v>
-      </c>
-      <c r="H66" s="1">
-        <v>44074</v>
-      </c>
-      <c r="I66" s="1">
-        <v>44021</v>
-      </c>
-      <c r="J66" s="1">
-        <v>44074</v>
-      </c>
-      <c r="K66" s="2">
-        <v>-2.9407999999999994</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67">
-        <v>2019</v>
-      </c>
-      <c r="D67">
-        <v>0.50184891304347834</v>
-      </c>
-      <c r="E67">
-        <v>44</v>
-      </c>
-      <c r="F67">
-        <v>37</v>
-      </c>
-      <c r="G67" s="1">
-        <v>43665</v>
-      </c>
-      <c r="H67" s="1">
-        <v>43708</v>
-      </c>
-      <c r="I67" s="1">
-        <v>43671</v>
-      </c>
-      <c r="J67" s="1">
-        <v>43708</v>
-      </c>
-      <c r="K67" s="2">
-        <v>-1.4072000000000005</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68">
-        <v>2022</v>
-      </c>
-      <c r="D68">
-        <v>0.6053467391304348</v>
-      </c>
-      <c r="E68">
-        <v>28</v>
-      </c>
-      <c r="F68">
-        <v>14</v>
-      </c>
-      <c r="G68" s="1">
-        <v>44771</v>
-      </c>
-      <c r="H68" s="1">
-        <v>44804</v>
-      </c>
-      <c r="I68" s="1">
-        <v>44784</v>
-      </c>
-      <c r="J68" s="1">
-        <v>44804</v>
-      </c>
-      <c r="K68" s="2">
-        <v>-0.89489999999999981</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69">
-        <v>2023</v>
-      </c>
-      <c r="D69">
-        <v>0.46580217391304346</v>
-      </c>
-      <c r="E69">
-        <v>51</v>
-      </c>
-      <c r="F69">
-        <v>46</v>
-      </c>
-      <c r="G69" s="1">
-        <v>45119</v>
-      </c>
-      <c r="H69" s="1">
+      <c r="G119" s="0">
+        <v>58</v>
+      </c>
+      <c r="H119" s="1">
+        <v>45106</v>
+      </c>
+      <c r="I119" s="1">
         <v>45169</v>
       </c>
-      <c r="I69" s="1">
-        <v>45124</v>
-      </c>
-      <c r="J69" s="1">
-        <v>45169</v>
-      </c>
-      <c r="K69" s="2">
-        <v>-2.2556000000000012</v>
-      </c>
-      <c r="L69" t="s">
-        <v>55</v>
-      </c>
-      <c r="M69" s="4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70">
-        <v>2011</v>
-      </c>
-      <c r="D70">
-        <v>0.6012891304347826</v>
-      </c>
-      <c r="E70">
-        <v>30</v>
-      </c>
-      <c r="F70">
-        <v>24</v>
-      </c>
-      <c r="G70" s="1">
-        <v>40756</v>
-      </c>
-      <c r="H70" s="1">
-        <v>40786</v>
-      </c>
-      <c r="I70" s="1">
-        <v>40762</v>
-      </c>
-      <c r="J70" s="1">
-        <v>40786</v>
-      </c>
-      <c r="K70" s="2">
-        <v>-0.69979999999999976</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71">
-        <v>2014</v>
-      </c>
-      <c r="D71">
-        <v>0.53765543478260858</v>
-      </c>
-      <c r="E71">
-        <v>36</v>
-      </c>
-      <c r="F71">
-        <v>34</v>
-      </c>
-      <c r="G71" s="1">
-        <v>41847</v>
-      </c>
-      <c r="H71" s="1">
-        <v>41882</v>
-      </c>
-      <c r="I71" s="1">
-        <v>41849</v>
-      </c>
-      <c r="J71" s="1">
-        <v>41882</v>
-      </c>
-      <c r="K71" s="2">
-        <v>-1.3597000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72">
-        <v>2017</v>
-      </c>
-      <c r="D72">
-        <v>0.62157717391304346</v>
-      </c>
-      <c r="E72">
-        <v>22</v>
-      </c>
-      <c r="F72">
-        <v>15</v>
-      </c>
-      <c r="G72" s="1">
-        <v>42956</v>
-      </c>
-      <c r="H72" s="1">
-        <v>42978</v>
-      </c>
-      <c r="I72" s="1">
-        <v>42957</v>
-      </c>
-      <c r="J72" s="1">
-        <v>42978</v>
-      </c>
-      <c r="K72" s="2">
-        <v>-0.47770000000000046</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73">
-        <v>2018</v>
-      </c>
-      <c r="D73">
-        <v>0.65776195652173908</v>
-      </c>
-      <c r="E73">
-        <v>24</v>
-      </c>
-      <c r="F73">
-        <v>13</v>
-      </c>
-      <c r="G73" s="1">
-        <v>43316</v>
-      </c>
-      <c r="H73" s="1">
-        <v>43343</v>
-      </c>
-      <c r="I73" s="1">
-        <v>43323</v>
-      </c>
-      <c r="J73" s="1">
-        <v>43342</v>
-      </c>
-      <c r="K73" s="2">
-        <v>-0.58359999999999879</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74">
-        <v>2009</v>
-      </c>
-      <c r="D74">
-        <v>0.42923478260869563</v>
-      </c>
-      <c r="E74">
-        <v>89</v>
-      </c>
-      <c r="F74">
-        <v>53</v>
-      </c>
-      <c r="G74" s="1">
-        <v>39965</v>
-      </c>
-      <c r="H74" s="1">
-        <v>40056</v>
-      </c>
-      <c r="I74" s="1">
-        <v>39988</v>
-      </c>
-      <c r="J74" s="1">
-        <v>40046</v>
-      </c>
-      <c r="K74" s="2">
-        <v>-2.5534999999999979</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75">
-        <v>2010</v>
-      </c>
-      <c r="D75">
-        <v>0.35169347826086961</v>
-      </c>
-      <c r="E75">
-        <v>91</v>
-      </c>
-      <c r="F75">
-        <v>84</v>
-      </c>
-      <c r="G75" s="1">
-        <v>40330</v>
-      </c>
-      <c r="H75" s="1">
-        <v>40421</v>
-      </c>
-      <c r="I75" s="1">
-        <v>40335</v>
-      </c>
-      <c r="J75" s="1">
-        <v>40421</v>
-      </c>
-      <c r="K75" s="2">
-        <v>-3.3484000000000016</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76">
-        <v>2011</v>
-      </c>
-      <c r="D76">
-        <v>0.33280760869565224</v>
-      </c>
-      <c r="E76">
-        <v>90</v>
-      </c>
-      <c r="F76">
-        <v>85</v>
-      </c>
-      <c r="G76" s="1">
-        <v>40697</v>
-      </c>
-      <c r="H76" s="1">
-        <v>40786</v>
-      </c>
-      <c r="I76" s="1">
-        <v>40702</v>
-      </c>
-      <c r="J76" s="1">
-        <v>40786</v>
-      </c>
-      <c r="K76" s="2">
-        <v>-3.0929999999999991</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>2012</v>
-      </c>
-      <c r="D77">
-        <v>0.3653369565217392</v>
-      </c>
-      <c r="E77">
-        <v>92</v>
-      </c>
-      <c r="F77">
-        <v>87</v>
-      </c>
-      <c r="G77" s="1">
-        <v>41061</v>
-      </c>
-      <c r="H77" s="1">
-        <v>41152</v>
-      </c>
-      <c r="I77" s="1">
-        <v>41061</v>
-      </c>
-      <c r="J77" s="1">
-        <v>41152</v>
-      </c>
-      <c r="K77" s="2">
-        <v>-3.3048999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78">
-        <v>2013</v>
-      </c>
-      <c r="D78">
-        <v>0.36507173913043484</v>
-      </c>
-      <c r="E78">
-        <v>87</v>
-      </c>
-      <c r="F78">
-        <v>86</v>
-      </c>
-      <c r="G78" s="1">
-        <v>41429</v>
-      </c>
-      <c r="H78" s="1">
-        <v>41517</v>
-      </c>
-      <c r="I78" s="1">
-        <v>41430</v>
-      </c>
-      <c r="J78" s="1">
-        <v>41517</v>
-      </c>
-      <c r="K78" s="2">
-        <v>-3.4269000000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>2014</v>
-      </c>
-      <c r="D79">
-        <v>0.3694010869565218</v>
-      </c>
-      <c r="E79">
-        <v>92</v>
-      </c>
-      <c r="F79">
-        <v>86</v>
-      </c>
-      <c r="G79" s="1">
-        <v>41791</v>
-      </c>
-      <c r="H79" s="1">
-        <v>41882</v>
-      </c>
-      <c r="I79" s="1">
-        <v>41796</v>
-      </c>
-      <c r="J79" s="1">
-        <v>41882</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80">
-        <v>2015</v>
-      </c>
-      <c r="D80">
-        <v>0.40827391304347826</v>
-      </c>
-      <c r="E80">
-        <v>81</v>
-      </c>
-      <c r="F80">
-        <v>72</v>
-      </c>
-      <c r="G80" s="1">
-        <v>42160</v>
-      </c>
-      <c r="H80" s="1">
-        <v>42240</v>
-      </c>
-      <c r="I80" s="1">
-        <v>42166</v>
-      </c>
-      <c r="J80" s="1">
-        <v>42237</v>
-      </c>
-      <c r="K80" s="2">
-        <v>-3.2865000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>24</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81">
-        <v>2016</v>
-      </c>
-      <c r="D81">
-        <v>0.3818586956521739</v>
-      </c>
-      <c r="E81">
-        <v>91</v>
-      </c>
-      <c r="F81">
-        <v>80</v>
-      </c>
-      <c r="G81" s="1">
-        <v>42523</v>
-      </c>
-      <c r="H81" s="1">
-        <v>42613</v>
-      </c>
-      <c r="I81" s="1">
-        <v>42530</v>
-      </c>
-      <c r="J81" s="1">
-        <v>42613</v>
-      </c>
-      <c r="K81" s="2">
-        <v>-3.6028000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82">
-        <v>2009</v>
-      </c>
-      <c r="D82">
-        <v>0.50846413043478267</v>
-      </c>
-      <c r="E82">
-        <v>56</v>
-      </c>
-      <c r="F82">
-        <v>52</v>
-      </c>
-      <c r="G82" s="1">
-        <v>39989</v>
-      </c>
-      <c r="H82" s="1">
-        <v>40050</v>
-      </c>
-      <c r="I82" s="1">
-        <v>39999</v>
-      </c>
-      <c r="J82" s="1">
-        <v>40050</v>
-      </c>
-      <c r="K82" s="2">
-        <v>-1.4542000000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83">
-        <v>2011</v>
-      </c>
-      <c r="D83">
-        <v>0.47416847826086955</v>
-      </c>
-      <c r="E83">
-        <v>80</v>
-      </c>
-      <c r="F83">
-        <v>52</v>
-      </c>
-      <c r="G83" s="1">
-        <v>40707</v>
-      </c>
-      <c r="H83" s="1">
-        <v>40786</v>
-      </c>
-      <c r="I83" s="1">
-        <v>40717</v>
-      </c>
-      <c r="J83" s="1">
-        <v>40785</v>
-      </c>
-      <c r="K83" s="2">
-        <v>-2.224499999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B84" t="s">
-        <v>19</v>
-      </c>
-      <c r="C84">
-        <v>2023</v>
-      </c>
-      <c r="D84">
-        <v>0.67421304347826083</v>
-      </c>
-      <c r="E84">
-        <v>25</v>
-      </c>
-      <c r="F84">
-        <v>5</v>
-      </c>
-      <c r="G84" s="1">
-        <v>45128</v>
-      </c>
-      <c r="H84" s="1">
-        <v>45163</v>
-      </c>
-      <c r="I84" s="1">
-        <v>45158</v>
-      </c>
-      <c r="J84" s="1">
-        <v>45162</v>
-      </c>
-      <c r="K84" s="2">
-        <v>-0.26580000000000048</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85">
-        <v>2016</v>
-      </c>
-      <c r="D85">
-        <v>0.54457065217391309</v>
-      </c>
-      <c r="E85">
-        <v>65</v>
-      </c>
-      <c r="F85">
-        <v>20</v>
-      </c>
-      <c r="G85" s="1">
-        <v>42548</v>
-      </c>
-      <c r="H85" s="1">
-        <v>42613</v>
-      </c>
-      <c r="I85" s="1">
-        <v>42566</v>
-      </c>
-      <c r="J85" s="1">
-        <v>42613</v>
-      </c>
-      <c r="K85" s="2">
-        <v>-1.8579999999999988</v>
-      </c>
-      <c r="L85" s="5"/>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>27</v>
-      </c>
-      <c r="B86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86">
-        <v>2017</v>
-      </c>
-      <c r="D86">
-        <v>0.64213043478260878</v>
-      </c>
-      <c r="E86">
-        <v>22</v>
-      </c>
-      <c r="F86">
-        <v>15</v>
-      </c>
-      <c r="G86" s="1">
-        <v>42945</v>
-      </c>
-      <c r="H86" s="1">
-        <v>42978</v>
-      </c>
-      <c r="I86" s="1">
-        <v>42952</v>
-      </c>
-      <c r="J86" s="1">
-        <v>42978</v>
-      </c>
-      <c r="K86" s="2">
-        <v>-0.80020000000000024</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87">
-        <v>2021</v>
-      </c>
-      <c r="D87">
-        <v>0.40265326086956521</v>
-      </c>
-      <c r="E87">
-        <v>74</v>
-      </c>
-      <c r="F87">
-        <v>70</v>
-      </c>
-      <c r="G87" s="1">
-        <v>44366</v>
-      </c>
-      <c r="H87" s="1">
-        <v>44439</v>
-      </c>
-      <c r="I87" s="1">
-        <v>44369</v>
-      </c>
-      <c r="J87" s="1">
-        <v>44439</v>
-      </c>
-      <c r="K87" s="2">
-        <v>-4.3517999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>28</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88">
-        <v>2023</v>
-      </c>
-      <c r="D88">
-        <v>0.44108478260869566</v>
-      </c>
-      <c r="E88">
-        <v>67</v>
-      </c>
-      <c r="F88">
-        <v>59</v>
-      </c>
-      <c r="G88" s="1">
-        <v>45080</v>
-      </c>
-      <c r="H88" s="1">
-        <v>45169</v>
-      </c>
-      <c r="I88" s="1">
-        <v>45080</v>
-      </c>
-      <c r="J88" s="1">
-        <v>45169</v>
-      </c>
-      <c r="L88" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M88" s="4">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89">
-        <v>2018</v>
-      </c>
-      <c r="D89">
-        <v>0.40748695652173911</v>
-      </c>
-      <c r="E89">
-        <v>71</v>
-      </c>
-      <c r="F89">
-        <v>66</v>
-      </c>
-      <c r="G89" s="1">
-        <v>43273</v>
-      </c>
-      <c r="H89" s="1">
-        <v>43343</v>
-      </c>
-      <c r="I89" s="1">
-        <v>43278</v>
-      </c>
-      <c r="J89" s="1">
-        <v>43343</v>
-      </c>
-      <c r="K89" s="2">
-        <v>-3.0112000000000005</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90">
-        <v>2008</v>
-      </c>
-      <c r="D90">
-        <v>0.42548260869565224</v>
-      </c>
-      <c r="E90">
-        <v>77</v>
-      </c>
-      <c r="F90">
-        <v>61</v>
-      </c>
-      <c r="G90" s="1">
-        <v>39614</v>
-      </c>
-      <c r="H90" s="1">
-        <v>39691</v>
-      </c>
-      <c r="I90" s="1">
-        <v>39629</v>
-      </c>
-      <c r="J90" s="1">
-        <v>39691</v>
-      </c>
-      <c r="K90" s="2">
-        <v>-2.9657</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91">
-        <v>2009</v>
-      </c>
-      <c r="D91">
-        <v>0.50731304347826101</v>
-      </c>
-      <c r="E91">
-        <v>61</v>
-      </c>
-      <c r="F91">
-        <v>48</v>
-      </c>
-      <c r="G91" s="1">
-        <v>39994</v>
-      </c>
-      <c r="H91" s="1">
-        <v>40056</v>
-      </c>
-      <c r="I91" s="1">
-        <v>40005</v>
-      </c>
-      <c r="J91" s="1">
-        <v>40056</v>
-      </c>
-      <c r="K91" s="2">
-        <v>-1.0147999999999997</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" t="s">
-        <v>19</v>
-      </c>
-      <c r="C92">
-        <v>2014</v>
-      </c>
-      <c r="D92">
-        <v>0.4618521739130434</v>
-      </c>
-      <c r="E92">
-        <v>81</v>
-      </c>
-      <c r="F92">
-        <v>34</v>
-      </c>
-      <c r="G92" s="1">
-        <v>41801</v>
-      </c>
-      <c r="H92" s="1">
-        <v>41882</v>
-      </c>
-      <c r="I92" s="1">
-        <v>41817</v>
-      </c>
-      <c r="J92" s="1">
-        <v>41882</v>
-      </c>
-      <c r="K92" s="2">
-        <v>-1.6818</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>30</v>
-      </c>
-      <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93">
-        <v>2019</v>
-      </c>
-      <c r="D93">
-        <v>0.46312391304347833</v>
-      </c>
-      <c r="E93">
-        <v>63</v>
-      </c>
-      <c r="F93">
-        <v>60</v>
-      </c>
-      <c r="G93" s="1">
-        <v>43629</v>
-      </c>
-      <c r="H93" s="1">
-        <v>43708</v>
-      </c>
-      <c r="I93" s="1">
-        <v>43630</v>
-      </c>
-      <c r="J93" s="1">
-        <v>43708</v>
-      </c>
-      <c r="K93" s="2">
-        <v>-2.7027999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>30</v>
-      </c>
-      <c r="B94" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94">
-        <v>2021</v>
-      </c>
-      <c r="D94">
-        <v>0.58390217391304344</v>
-      </c>
-      <c r="E94">
-        <v>30</v>
-      </c>
-      <c r="F94">
-        <v>30</v>
-      </c>
-      <c r="G94" s="1">
-        <v>44404</v>
-      </c>
-      <c r="H94" s="1">
-        <v>44433</v>
-      </c>
-      <c r="I94" s="1">
-        <v>44404</v>
-      </c>
-      <c r="J94" s="1">
-        <v>44433</v>
-      </c>
-      <c r="K94" s="2">
-        <v>-0.68720000000000003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>30</v>
-      </c>
-      <c r="B95" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95">
-        <v>2022</v>
-      </c>
-      <c r="D95">
-        <v>0.44996521739130435</v>
-      </c>
-      <c r="E95">
-        <v>62</v>
-      </c>
-      <c r="F95">
-        <v>54</v>
-      </c>
-      <c r="G95" s="1">
-        <v>44740</v>
-      </c>
-      <c r="H95" s="1">
-        <v>44804</v>
-      </c>
-      <c r="I95" s="1">
-        <v>44742</v>
-      </c>
-      <c r="J95" s="1">
-        <v>44804</v>
-      </c>
-      <c r="K95" s="2">
-        <v>-2.2699999999999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>30</v>
-      </c>
-      <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96">
-        <v>2023</v>
-      </c>
-      <c r="D96">
-        <v>0.44561739130434785</v>
-      </c>
-      <c r="E96">
-        <v>63</v>
-      </c>
-      <c r="F96">
-        <v>51</v>
-      </c>
-      <c r="G96" s="1">
-        <v>45104</v>
-      </c>
-      <c r="H96" s="1">
-        <v>45169</v>
-      </c>
-      <c r="I96" s="1">
-        <v>45111</v>
-      </c>
-      <c r="J96" s="1">
-        <v>45168</v>
-      </c>
-      <c r="K96" s="2">
-        <v>-2.2369000000000003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>30</v>
-      </c>
-      <c r="B97" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97">
-        <v>2015</v>
-      </c>
-      <c r="D97">
-        <v>0.45288260869565222</v>
-      </c>
-      <c r="E97">
-        <v>68</v>
-      </c>
-      <c r="F97">
-        <v>59</v>
-      </c>
-      <c r="G97" s="1">
-        <v>42175</v>
-      </c>
-      <c r="H97" s="1">
-        <v>42246</v>
-      </c>
-      <c r="I97" s="1">
-        <v>42177</v>
-      </c>
-      <c r="J97" s="1">
-        <v>42245</v>
-      </c>
-      <c r="K97" s="2">
-        <v>-2.3805000000000014</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>30</v>
-      </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98">
-        <v>2017</v>
-      </c>
-      <c r="D98">
-        <v>0.61517391304347813</v>
-      </c>
-      <c r="E98">
-        <v>33</v>
-      </c>
-      <c r="F98">
-        <v>27</v>
-      </c>
-      <c r="G98" s="1">
-        <v>42934</v>
-      </c>
-      <c r="H98" s="1">
-        <v>42969</v>
-      </c>
-      <c r="I98" s="1">
-        <v>42942</v>
-      </c>
-      <c r="J98" s="1">
-        <v>42969</v>
-      </c>
-      <c r="K98" s="2">
-        <v>-1.0005000000000006</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" t="s">
-        <v>9</v>
-      </c>
-      <c r="C99">
-        <v>2018</v>
-      </c>
-      <c r="D99">
-        <v>0.73186630434782618</v>
-      </c>
-      <c r="E99">
-        <v>7</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>43314</v>
-      </c>
-      <c r="H99" s="1">
-        <v>43337</v>
-      </c>
-      <c r="K99" s="2">
-        <v>-0.14759999999999973</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100">
-        <v>2022</v>
-      </c>
-      <c r="D100">
-        <v>0.62009021739130432</v>
-      </c>
-      <c r="E100">
-        <v>46</v>
-      </c>
-      <c r="F100">
-        <v>20</v>
-      </c>
-      <c r="G100" s="1">
-        <v>44739</v>
-      </c>
-      <c r="H100" s="1">
-        <v>44792</v>
-      </c>
-      <c r="I100" s="1">
-        <v>44744</v>
-      </c>
-      <c r="J100" s="1">
-        <v>44792</v>
-      </c>
-      <c r="K100" s="2">
-        <v>-1.9606999999999992</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101">
-        <v>2023</v>
-      </c>
-      <c r="D101">
-        <v>0.56075326086956523</v>
-      </c>
-      <c r="E101">
-        <v>48</v>
-      </c>
-      <c r="F101">
-        <v>32</v>
-      </c>
-      <c r="G101" s="1">
-        <v>45095</v>
-      </c>
-      <c r="H101" s="1">
-        <v>45162</v>
-      </c>
-      <c r="I101" s="1">
-        <v>45095</v>
-      </c>
-      <c r="J101" s="1">
-        <v>45162</v>
-      </c>
-      <c r="K101" s="2">
-        <v>-1.8667999999999996</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102">
-        <v>2019</v>
-      </c>
-      <c r="D102">
-        <v>0.55414565217391309</v>
-      </c>
-      <c r="E102">
-        <v>57</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102" s="1">
-        <v>43627</v>
-      </c>
-      <c r="H102" s="1">
-        <v>43708</v>
-      </c>
-      <c r="K102" s="2">
-        <v>-2.7294999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>32</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103">
-        <v>2020</v>
-      </c>
-      <c r="D103">
-        <v>0.59536304347826086</v>
-      </c>
-      <c r="E103">
-        <v>39</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103" s="1">
-        <v>44002</v>
-      </c>
-      <c r="H103" s="1">
-        <v>44074</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104">
-        <v>2021</v>
-      </c>
-      <c r="D104">
-        <v>0.59966847826086966</v>
-      </c>
-      <c r="E104">
-        <v>24</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104" s="1">
-        <v>44355</v>
-      </c>
-      <c r="H104" s="1">
-        <v>44436</v>
-      </c>
-      <c r="K104" s="2">
-        <v>-2.4566000000000017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" t="s">
-        <v>9</v>
-      </c>
-      <c r="C105">
-        <v>2022</v>
-      </c>
-      <c r="D105">
-        <v>0.61973804347826089</v>
-      </c>
-      <c r="E105">
-        <v>22</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105" s="1">
-        <v>44738</v>
-      </c>
-      <c r="H105" s="1">
-        <v>44794</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>32</v>
-      </c>
-      <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106">
-        <v>2023</v>
-      </c>
-      <c r="D106">
-        <v>0.64426630434782606</v>
-      </c>
-      <c r="E106">
-        <v>27</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" s="1">
-        <v>45110</v>
-      </c>
-      <c r="H106" s="1">
-        <v>45166</v>
-      </c>
-      <c r="K106" s="2">
-        <v>-1.4328000000000003</v>
-      </c>
-      <c r="L106" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M106" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>32</v>
-      </c>
-      <c r="B107" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107">
-        <v>2010</v>
-      </c>
-      <c r="D107">
-        <v>0.58258043478260868</v>
-      </c>
-      <c r="E107">
-        <v>29</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107" s="1">
-        <v>40351</v>
-      </c>
-      <c r="H107" s="1">
-        <v>40416</v>
-      </c>
-      <c r="K107" s="2">
-        <v>-2.7639999999999993</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108">
-        <v>2011</v>
-      </c>
-      <c r="D108">
-        <v>0.59899673913043483</v>
-      </c>
-      <c r="E108">
-        <v>33</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108" s="1">
-        <v>40703</v>
-      </c>
-      <c r="H108" s="1">
-        <v>40765</v>
-      </c>
-      <c r="K108" s="2">
-        <v>-2.8186</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>32</v>
-      </c>
-      <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109">
-        <v>2014</v>
-      </c>
-      <c r="D109">
-        <v>0.59185652173913039</v>
-      </c>
-      <c r="E109">
-        <v>35</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109" s="1">
-        <v>41805</v>
-      </c>
-      <c r="H109" s="1">
-        <v>41882</v>
-      </c>
-      <c r="K109" s="2">
-        <v>-2.2934999999999981</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110">
-        <v>2015</v>
-      </c>
-      <c r="D110">
-        <v>0.60716739130434771</v>
-      </c>
-      <c r="E110">
-        <v>21</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110" s="1">
-        <v>42177</v>
-      </c>
-      <c r="H110" s="1">
-        <v>42235</v>
-      </c>
-      <c r="K110" s="2">
-        <v>-2.0850000000000009</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111">
-        <v>2018</v>
-      </c>
-      <c r="D111">
-        <v>0.59852608695652165</v>
-      </c>
-      <c r="E111">
-        <v>37</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111" s="1">
-        <v>43278</v>
-      </c>
-      <c r="H111" s="1">
-        <v>43338</v>
-      </c>
-      <c r="K111" s="2">
-        <v>-1.6326000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>33</v>
-      </c>
-      <c r="B112" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112">
-        <v>2013</v>
-      </c>
-      <c r="D112">
-        <v>0.64285326086956518</v>
-      </c>
-      <c r="E112">
-        <v>34</v>
-      </c>
-      <c r="F112">
-        <v>2</v>
-      </c>
-      <c r="G112" s="1">
-        <v>41451</v>
-      </c>
-      <c r="H112" s="1">
-        <v>41499</v>
-      </c>
-      <c r="I112" s="1">
-        <v>41488</v>
-      </c>
-      <c r="J112" s="1">
-        <v>41491</v>
-      </c>
-      <c r="K112" s="2">
-        <v>-0.92319999999999958</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>33</v>
-      </c>
-      <c r="B113" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113">
-        <v>2014</v>
-      </c>
-      <c r="D113">
-        <v>0.60025434782608689</v>
-      </c>
-      <c r="E113">
-        <v>55</v>
-      </c>
-      <c r="F113">
-        <v>11</v>
-      </c>
-      <c r="G113" s="1">
-        <v>41814</v>
-      </c>
-      <c r="H113" s="1">
-        <v>41872</v>
-      </c>
-      <c r="I113" s="1">
-        <v>41828</v>
-      </c>
-      <c r="J113" s="1">
-        <v>41872</v>
-      </c>
-      <c r="K113" s="2">
-        <v>-1.5276999999999994</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>33</v>
-      </c>
-      <c r="B114" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114">
-        <v>2015</v>
-      </c>
-      <c r="D114">
-        <v>0.61574673913043465</v>
-      </c>
-      <c r="E114">
-        <v>40</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-      <c r="G114" s="1">
-        <v>42187</v>
-      </c>
-      <c r="H114" s="1">
-        <v>42246</v>
-      </c>
-      <c r="I114" s="1">
-        <v>42192</v>
-      </c>
-      <c r="J114" s="1">
-        <v>42195</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>33</v>
-      </c>
-      <c r="B115" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115">
-        <v>2016</v>
-      </c>
-      <c r="D115">
-        <v>0.60453043478260871</v>
-      </c>
-      <c r="E115">
-        <v>55</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115" s="1">
-        <v>42557</v>
-      </c>
-      <c r="H115" s="1">
-        <v>42613</v>
-      </c>
-      <c r="K115" s="2">
-        <v>-1.2942</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>33</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116">
-        <v>2017</v>
-      </c>
-      <c r="D116">
-        <v>0.65327826086956509</v>
-      </c>
-      <c r="E116">
-        <v>30</v>
-      </c>
-      <c r="F116">
-        <v>8</v>
-      </c>
-      <c r="G116" s="1">
-        <v>42929</v>
-      </c>
-      <c r="H116" s="1">
-        <v>42962</v>
-      </c>
-      <c r="I116" s="1">
-        <v>42941</v>
-      </c>
-      <c r="J116" s="1">
-        <v>42948</v>
-      </c>
-      <c r="K116" s="2">
-        <v>-0.76660000000000039</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>33</v>
-      </c>
-      <c r="B117" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117">
-        <v>2018</v>
-      </c>
-      <c r="D117">
-        <v>0.66366630434782603</v>
-      </c>
-      <c r="E117">
-        <v>25</v>
-      </c>
-      <c r="F117">
-        <v>10</v>
-      </c>
-      <c r="G117" s="1">
-        <v>43301</v>
-      </c>
-      <c r="H117" s="1">
-        <v>43336</v>
-      </c>
-      <c r="I117" s="1">
-        <v>43312</v>
-      </c>
-      <c r="J117" s="1">
-        <v>43325</v>
-      </c>
-      <c r="K117" s="2">
-        <v>-0.87870000000000026</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>34</v>
-      </c>
-      <c r="B118" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118">
-        <v>2022</v>
-      </c>
-      <c r="D118">
-        <v>0.41262065217391308</v>
-      </c>
-      <c r="E118">
-        <v>69</v>
-      </c>
-      <c r="F118">
-        <v>59</v>
-      </c>
-      <c r="G118" s="1">
-        <v>44722</v>
-      </c>
-      <c r="H118" s="1">
-        <v>44804</v>
-      </c>
-      <c r="I118" s="1">
-        <v>44741</v>
-      </c>
-      <c r="J118" s="1">
-        <v>44804</v>
-      </c>
-      <c r="K118" s="2">
-        <v>-2.8203000000000005</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>34</v>
-      </c>
-      <c r="B119" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119">
-        <v>2023</v>
-      </c>
-      <c r="D119">
-        <v>0.39334021739130426</v>
-      </c>
-      <c r="E119">
-        <v>62</v>
-      </c>
-      <c r="F119">
-        <v>58</v>
-      </c>
-      <c r="G119" s="1">
-        <v>45106</v>
-      </c>
-      <c r="H119" s="1">
-        <v>45169</v>
-      </c>
-      <c r="I119" s="1">
+      <c r="J119" s="1">
         <v>45107</v>
       </c>
-      <c r="J119" s="1">
+      <c r="K119" s="1">
         <v>45164</v>
       </c>
-      <c r="K119" s="2">
+      <c r="L119" s="0">
         <v>-2.2256999999999998</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A119"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="11" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" customWidth="true"/>
+    <col min="4" max="4" width="5.140625" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="16.28515625" customWidth="true"/>
+    <col min="7" max="7" width="16.140625" customWidth="true"/>
+    <col min="8" max="8" width="15.85546875" customWidth="true"/>
+    <col min="2" max="2" width="9.7109375" customWidth="true"/>
+    <col min="9" max="9" width="15.85546875" customWidth="true"/>
+    <col min="10" max="10" width="15.85546875" customWidth="true"/>
+    <col min="11" max="11" width="15.85546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0">
         <v>2019</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>45</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>0.47567486063496944</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>87</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>50</v>
       </c>
       <c r="H2" s="1">
@@ -4703,26 +5095,26 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0">
         <v>2020</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>32</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>0.51305969713828514</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>79</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>30</v>
       </c>
       <c r="H3" s="1">
@@ -4738,52 +5130,55 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0">
         <v>2021</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>29</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>0.53745345106869935</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>77</v>
       </c>
+      <c r="G4" s="0"/>
       <c r="H4" s="1">
         <v>44354</v>
       </c>
       <c r="I4" s="1">
         <v>44431</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0">
         <v>2022</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>33</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>0.56549905761606767</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>80</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>0</v>
       </c>
       <c r="H5" s="1">
@@ -4799,26 +5194,26 @@
         <v>44776</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0">
         <v>2023</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>0.60710955311483294</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>41</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="1">
@@ -4834,26 +5229,26 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>2019</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>36</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>0.47104353183886655</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>64</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>55</v>
       </c>
       <c r="H7" s="1">
@@ -4869,26 +5264,26 @@
         <v>43691</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0">
         <v>2023</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>61</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>0.4489676512729292</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>65</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>63</v>
       </c>
       <c r="H8" s="1">
@@ -4904,26 +5299,26 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>2020</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>17</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>0.45641079469673795</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>57</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>41</v>
       </c>
       <c r="H9" s="1">
@@ -4939,26 +5334,26 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>2021</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>0.39513549359533934</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>54</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>38</v>
       </c>
       <c r="H10" s="1">
@@ -4974,26 +5369,26 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>2022</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>25</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>0.45654675372350212</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>43</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>36</v>
       </c>
       <c r="H11" s="1">
@@ -5009,26 +5404,26 @@
         <v>44796</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>2019</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>20</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>0.38780155223999169</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>82</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>54</v>
       </c>
       <c r="H12" s="1">
@@ -5044,26 +5439,26 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>2020</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>0.43837029347337797</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>64</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>36</v>
       </c>
       <c r="H13" s="1">
@@ -5079,26 +5474,26 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>2023</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>0.51601284667601188</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>49</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>9</v>
       </c>
       <c r="H14" s="1">
@@ -5114,26 +5509,26 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0">
         <v>2019</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>30</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>0.36036658121113979</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>89</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>89</v>
       </c>
       <c r="H15" s="1">
@@ -5149,26 +5544,26 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0">
         <v>2020</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>21</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>0.32084920252497712</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>71</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>71</v>
       </c>
       <c r="H16" s="1">
@@ -5184,26 +5579,26 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="0">
         <v>2021</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>19</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>0.37189658000751563</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>90</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>88</v>
       </c>
       <c r="H17" s="1">
@@ -5219,26 +5614,26 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="0">
         <v>2022</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>21</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>0.34985065850530361</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>88</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>80</v>
       </c>
       <c r="H18" s="1">
@@ -5254,26 +5649,26 @@
         <v>44801</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="0">
         <v>2023</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>0.27055634307359394</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>70</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>69</v>
       </c>
       <c r="H19" s="1">
@@ -5289,26 +5684,26 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>2021</v>
       </c>
-      <c r="D20">
-        <v>9</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="0">
+        <v>9</v>
+      </c>
+      <c r="E20" s="0">
         <v>0.51439224233594194</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>38</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>22</v>
       </c>
       <c r="H20" s="1">
@@ -5324,26 +5719,26 @@
         <v>44428</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>2022</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>15</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>0.54071217848817499</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>54</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>12</v>
       </c>
       <c r="H21" s="1">
@@ -5359,26 +5754,26 @@
         <v>44773</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="0">
         <v>2020</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>14</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>0.21283305636691363</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>65</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>65</v>
       </c>
       <c r="H22" s="1">
@@ -5394,26 +5789,26 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="0">
         <v>2022</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>0.22858339832132657</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>80</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>80</v>
       </c>
       <c r="H23" s="1">
@@ -5429,26 +5824,26 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="0">
         <v>2023</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>27</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>0.21196616336339866</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>80</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>80</v>
       </c>
       <c r="H24" s="1">
@@ -5464,26 +5859,26 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>2019</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>22</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>0.35709541281275453</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>68</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>55</v>
       </c>
       <c r="H25" s="1">
@@ -5499,26 +5894,26 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>2020</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>14</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>0.35443616304026826</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>47</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>47</v>
       </c>
       <c r="H26" s="1">
@@ -5534,26 +5929,26 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>2019</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>18</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>0.39629458904656822</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>45</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>30</v>
       </c>
       <c r="H27" s="1">
@@ -5569,26 +5964,26 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>2022</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>14</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>0.52945359209037957</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>22</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>15</v>
       </c>
       <c r="H28" s="1">
@@ -5604,26 +5999,26 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>2023</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>23</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>0.38438005868538772</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>47</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>36</v>
       </c>
       <c r="H29" s="1">
@@ -5639,26 +6034,26 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>2023</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>18</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>0.59367553879627954</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>28</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>1</v>
       </c>
       <c r="H30" s="1">
@@ -5674,26 +6069,26 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="0">
         <v>2021</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>27</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>0.32207190170856076</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>88</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>75</v>
       </c>
       <c r="H31" s="1">
@@ -5709,26 +6104,26 @@
         <v>44437</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="0">
         <v>2023</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>37</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>0.35239574129066631</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>73</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>62</v>
       </c>
       <c r="H32" s="1">
@@ -5744,26 +6139,26 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="0">
         <v>2019</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>38</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>0.40333908087320036</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>70</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>68</v>
       </c>
       <c r="H33" s="1">
@@ -5779,26 +6174,26 @@
         <v>43698</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="0">
         <v>2021</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0">
         <v>29</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>0.54335218073810487</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>69</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>19</v>
       </c>
       <c r="H34" s="1">
@@ -5814,26 +6209,26 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="0">
         <v>2022</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="0">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="0">
         <v>0.42626558405624221</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="0">
         <v>64</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="0">
         <v>53</v>
       </c>
       <c r="H35" s="1">
@@ -5849,26 +6244,26 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="0">
         <v>2023</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0">
         <v>32</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>0.41564547914712857</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>50</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>44</v>
       </c>
       <c r="H36" s="1">
@@ -5884,26 +6279,26 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="0">
         <v>2022</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0">
         <v>50</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>0.47663994140465066</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>64</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>44</v>
       </c>
       <c r="H37" s="1">
@@ -5919,26 +6314,26 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="0">
         <v>2023</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0">
         <v>41</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>0.49545508480662021</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>56</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>35</v>
       </c>
       <c r="H38" s="1">
@@ -5954,26 +6349,26 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0">
         <v>2019</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>50</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>0.57850707275492441</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>72</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>0</v>
       </c>
       <c r="H39" s="1">
@@ -5989,52 +6384,55 @@
         <v>43646</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="0">
         <v>2020</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>36</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>0.61085465733962907</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>38</v>
       </c>
+      <c r="G40" s="0"/>
       <c r="H40" s="1">
         <v>44019</v>
       </c>
       <c r="I40" s="1">
         <v>44057</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="0">
         <v>2021</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>32</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>0.61454055821360876</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>62</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0">
         <v>0</v>
       </c>
       <c r="H41" s="1">
@@ -6050,78 +6448,84 @@
         <v>44395</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="0">
         <v>2022</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>33</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>0.63633795025049134</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>17</v>
       </c>
+      <c r="G42" s="0"/>
       <c r="H42" s="1">
         <v>44757</v>
       </c>
       <c r="I42" s="1">
         <v>44774</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="0">
         <v>2023</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>26</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>0.59448240458833479</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>55</v>
       </c>
+      <c r="G43" s="0"/>
       <c r="H43" s="1">
         <v>45110</v>
       </c>
       <c r="I43" s="1">
         <v>45165</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>2022</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>35</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>0.43726600019400319</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>84</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0">
         <v>59</v>
       </c>
       <c r="H44" s="1">
@@ -6137,26 +6541,26 @@
         <v>44800</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>2023</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>42</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>0.36338917038608642</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>60</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0">
         <v>58</v>
       </c>
       <c r="H45" s="1">
@@ -6178,32 +6582,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="true"/>
+    <col min="2" max="2" width="9.7109375" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" customWidth="true"/>
+    <col min="4" max="7" width="15.85546875" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="16.5703125" customWidth="true"/>
+    <col min="10" max="10" width="7.28515625" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="14.42578125" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="16.5703125" customWidth="true"/>
+    <col min="15" max="15" width="7.140625" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="8.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6256,7 +6660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -6309,7 +6713,7 @@
         <v>-0.86789999999999878</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -6362,7 +6766,7 @@
         <v>-7.0299999999999585E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6415,7 +6819,7 @@
         <v>-4.7788999999999984</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6462,7 +6866,7 @@
         <v>-3.4830999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -6509,7 +6913,7 @@
         <v>-3.2022999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6562,7 +6966,7 @@
         <v>-0.59309999999999974</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -6615,7 +7019,7 @@
         <v>-2.3020999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -6668,7 +7072,7 @@
         <v>-3.0942999999999987</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6721,7 +7125,7 @@
         <v>-2.1143999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -6774,7 +7178,7 @@
         <v>-1.5666000000000011</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6827,7 +7231,7 @@
         <v>-1.0312999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -6880,7 +7284,7 @@
         <v>-4.1532999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -6933,7 +7337,7 @@
         <v>-3.2462</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -6986,7 +7390,7 @@
         <v>-2.0600999999999985</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -7039,7 +7443,7 @@
         <v>-4.9650999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -7092,7 +7496,7 @@
         <v>-3.4811999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7145,7 +7549,7 @@
         <v>-4.7894000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7198,7 +7602,7 @@
         <v>-2.8366000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7242,7 +7646,7 @@
         <v>-2.4859000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7295,7 +7699,7 @@
         <v>-1.3166999999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -7348,7 +7752,7 @@
         <v>-1.7025999999999986</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7401,7 +7805,7 @@
         <v>-1.5155999999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -7454,7 +7858,7 @@
         <v>-1.3956999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -7507,7 +7911,7 @@
         <v>-4.3207000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -7560,7 +7964,7 @@
         <v>-5.7208000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -7613,7 +8017,7 @@
         <v>-2.9407999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -7666,7 +8070,7 @@
         <v>-3.214100000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -7719,7 +8123,7 @@
         <v>-1.4072000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -7772,7 +8176,7 @@
         <v>-0.51839999999999975</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -7825,7 +8229,7 @@
         <v>-0.89489999999999981</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -7878,7 +8282,7 @@
         <v>-2.2556000000000012</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -7931,7 +8335,7 @@
         <v>-0.26580000000000048</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -7984,7 +8388,7 @@
         <v>-4.3517999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -8037,7 +8441,7 @@
         <v>-3.6709999999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -8090,7 +8494,7 @@
         <v>-2.7027999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -8143,7 +8547,7 @@
         <v>-1.7479000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="38" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -8196,7 +8600,7 @@
         <v>-0.68720000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -8249,7 +8653,7 @@
         <v>-2.2699999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="40" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
@@ -8302,7 +8706,7 @@
         <v>-2.2369000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -8355,7 +8759,7 @@
         <v>-1.9606999999999992</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="42" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -8408,7 +8812,7 @@
         <v>-1.8667999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -8458,7 +8862,7 @@
         <v>-9.4899999999999096E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="44" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -8511,7 +8915,7 @@
         <v>-2.1368000000000009</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -8564,7 +8968,7 @@
         <v>-3.0686</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -8611,7 +9015,7 @@
         <v>-1.6073999999999984</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="47" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -8661,7 +9065,7 @@
         <v>-1.2538999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="48" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -8714,7 +9118,7 @@
         <v>1.7972000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -8767,7 +9171,7 @@
         <v>-2.8203000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="50" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>34</v>
       </c>
